--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\git\algorithm\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9D0286-8CDF-4EAA-94A1-7E2E0A2B5DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="42">
   <si>
     <t>艾宾浩斯遗忘曲线复习计划表</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1066,11 +1060,41 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>382. 链表随机节点，430. 扁平化多级双向链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="仿宋_GB2312"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.1 遍历二叉树：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="仿宋_GB2312"/>
+        <charset val="134"/>
+      </rPr>
+      <t>144. 二叉树的前序遍历，94. 二叉树的中序遍历，145. 二叉树的后序遍历</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>872. 叶子相似的树，404. 左叶子之和，671. 二叉树中第二小的节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="30">
     <font>
       <sz val="11"/>
@@ -1523,6 +1547,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1564,9 +1591,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1629,7 +1653,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1664,7 +1688,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1841,657 +1865,657 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="89.44140625" style="1" customWidth="1"/>
-    <col min="4" max="11" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="16" customWidth="1"/>
+    <col min="3" max="3" width="89.5" style="1" customWidth="1"/>
+    <col min="4" max="11" width="5.625" style="1" customWidth="1"/>
     <col min="12" max="14" width="9" style="1"/>
     <col min="15" max="15" width="18" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.21875" style="1" customWidth="1"/>
-    <col min="17" max="18" width="17.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.25" style="1" customWidth="1"/>
+    <col min="17" max="18" width="17.875" style="1" customWidth="1"/>
     <col min="19" max="256" width="9" style="1"/>
-    <col min="257" max="257" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="14.21875" style="1" customWidth="1"/>
-    <col min="259" max="259" width="89.44140625" style="1" customWidth="1"/>
-    <col min="260" max="267" width="5.6640625" style="1" customWidth="1"/>
+    <col min="257" max="257" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="14.25" style="1" customWidth="1"/>
+    <col min="259" max="259" width="89.5" style="1" customWidth="1"/>
+    <col min="260" max="267" width="5.625" style="1" customWidth="1"/>
     <col min="268" max="270" width="9" style="1"/>
     <col min="271" max="271" width="18" style="1" customWidth="1"/>
-    <col min="272" max="272" width="18.21875" style="1" customWidth="1"/>
-    <col min="273" max="274" width="17.88671875" style="1" customWidth="1"/>
+    <col min="272" max="272" width="18.25" style="1" customWidth="1"/>
+    <col min="273" max="274" width="17.875" style="1" customWidth="1"/>
     <col min="275" max="512" width="9" style="1"/>
-    <col min="513" max="513" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="14.21875" style="1" customWidth="1"/>
-    <col min="515" max="515" width="89.44140625" style="1" customWidth="1"/>
-    <col min="516" max="523" width="5.6640625" style="1" customWidth="1"/>
+    <col min="513" max="513" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="14.25" style="1" customWidth="1"/>
+    <col min="515" max="515" width="89.5" style="1" customWidth="1"/>
+    <col min="516" max="523" width="5.625" style="1" customWidth="1"/>
     <col min="524" max="526" width="9" style="1"/>
     <col min="527" max="527" width="18" style="1" customWidth="1"/>
-    <col min="528" max="528" width="18.21875" style="1" customWidth="1"/>
-    <col min="529" max="530" width="17.88671875" style="1" customWidth="1"/>
+    <col min="528" max="528" width="18.25" style="1" customWidth="1"/>
+    <col min="529" max="530" width="17.875" style="1" customWidth="1"/>
     <col min="531" max="768" width="9" style="1"/>
-    <col min="769" max="769" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="14.21875" style="1" customWidth="1"/>
-    <col min="771" max="771" width="89.44140625" style="1" customWidth="1"/>
-    <col min="772" max="779" width="5.6640625" style="1" customWidth="1"/>
+    <col min="769" max="769" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="14.25" style="1" customWidth="1"/>
+    <col min="771" max="771" width="89.5" style="1" customWidth="1"/>
+    <col min="772" max="779" width="5.625" style="1" customWidth="1"/>
     <col min="780" max="782" width="9" style="1"/>
     <col min="783" max="783" width="18" style="1" customWidth="1"/>
-    <col min="784" max="784" width="18.21875" style="1" customWidth="1"/>
-    <col min="785" max="786" width="17.88671875" style="1" customWidth="1"/>
+    <col min="784" max="784" width="18.25" style="1" customWidth="1"/>
+    <col min="785" max="786" width="17.875" style="1" customWidth="1"/>
     <col min="787" max="1024" width="9" style="1"/>
-    <col min="1025" max="1025" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="14.21875" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="89.44140625" style="1" customWidth="1"/>
-    <col min="1028" max="1035" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1025" max="1025" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="14.25" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="89.5" style="1" customWidth="1"/>
+    <col min="1028" max="1035" width="5.625" style="1" customWidth="1"/>
     <col min="1036" max="1038" width="9" style="1"/>
     <col min="1039" max="1039" width="18" style="1" customWidth="1"/>
-    <col min="1040" max="1040" width="18.21875" style="1" customWidth="1"/>
-    <col min="1041" max="1042" width="17.88671875" style="1" customWidth="1"/>
+    <col min="1040" max="1040" width="18.25" style="1" customWidth="1"/>
+    <col min="1041" max="1042" width="17.875" style="1" customWidth="1"/>
     <col min="1043" max="1280" width="9" style="1"/>
-    <col min="1281" max="1281" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="14.21875" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="89.44140625" style="1" customWidth="1"/>
-    <col min="1284" max="1291" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1281" max="1281" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="14.25" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="89.5" style="1" customWidth="1"/>
+    <col min="1284" max="1291" width="5.625" style="1" customWidth="1"/>
     <col min="1292" max="1294" width="9" style="1"/>
     <col min="1295" max="1295" width="18" style="1" customWidth="1"/>
-    <col min="1296" max="1296" width="18.21875" style="1" customWidth="1"/>
-    <col min="1297" max="1298" width="17.88671875" style="1" customWidth="1"/>
+    <col min="1296" max="1296" width="18.25" style="1" customWidth="1"/>
+    <col min="1297" max="1298" width="17.875" style="1" customWidth="1"/>
     <col min="1299" max="1536" width="9" style="1"/>
-    <col min="1537" max="1537" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="14.21875" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="89.44140625" style="1" customWidth="1"/>
-    <col min="1540" max="1547" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1537" max="1537" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="14.25" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="89.5" style="1" customWidth="1"/>
+    <col min="1540" max="1547" width="5.625" style="1" customWidth="1"/>
     <col min="1548" max="1550" width="9" style="1"/>
     <col min="1551" max="1551" width="18" style="1" customWidth="1"/>
-    <col min="1552" max="1552" width="18.21875" style="1" customWidth="1"/>
-    <col min="1553" max="1554" width="17.88671875" style="1" customWidth="1"/>
+    <col min="1552" max="1552" width="18.25" style="1" customWidth="1"/>
+    <col min="1553" max="1554" width="17.875" style="1" customWidth="1"/>
     <col min="1555" max="1792" width="9" style="1"/>
-    <col min="1793" max="1793" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="14.21875" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="89.44140625" style="1" customWidth="1"/>
-    <col min="1796" max="1803" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1793" max="1793" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="14.25" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="89.5" style="1" customWidth="1"/>
+    <col min="1796" max="1803" width="5.625" style="1" customWidth="1"/>
     <col min="1804" max="1806" width="9" style="1"/>
     <col min="1807" max="1807" width="18" style="1" customWidth="1"/>
-    <col min="1808" max="1808" width="18.21875" style="1" customWidth="1"/>
-    <col min="1809" max="1810" width="17.88671875" style="1" customWidth="1"/>
+    <col min="1808" max="1808" width="18.25" style="1" customWidth="1"/>
+    <col min="1809" max="1810" width="17.875" style="1" customWidth="1"/>
     <col min="1811" max="2048" width="9" style="1"/>
-    <col min="2049" max="2049" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="14.21875" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="89.44140625" style="1" customWidth="1"/>
-    <col min="2052" max="2059" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2049" max="2049" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="14.25" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="89.5" style="1" customWidth="1"/>
+    <col min="2052" max="2059" width="5.625" style="1" customWidth="1"/>
     <col min="2060" max="2062" width="9" style="1"/>
     <col min="2063" max="2063" width="18" style="1" customWidth="1"/>
-    <col min="2064" max="2064" width="18.21875" style="1" customWidth="1"/>
-    <col min="2065" max="2066" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2064" max="2064" width="18.25" style="1" customWidth="1"/>
+    <col min="2065" max="2066" width="17.875" style="1" customWidth="1"/>
     <col min="2067" max="2304" width="9" style="1"/>
-    <col min="2305" max="2305" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="14.21875" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="89.44140625" style="1" customWidth="1"/>
-    <col min="2308" max="2315" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2305" max="2305" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="14.25" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="89.5" style="1" customWidth="1"/>
+    <col min="2308" max="2315" width="5.625" style="1" customWidth="1"/>
     <col min="2316" max="2318" width="9" style="1"/>
     <col min="2319" max="2319" width="18" style="1" customWidth="1"/>
-    <col min="2320" max="2320" width="18.21875" style="1" customWidth="1"/>
-    <col min="2321" max="2322" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2320" max="2320" width="18.25" style="1" customWidth="1"/>
+    <col min="2321" max="2322" width="17.875" style="1" customWidth="1"/>
     <col min="2323" max="2560" width="9" style="1"/>
-    <col min="2561" max="2561" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="14.21875" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="89.44140625" style="1" customWidth="1"/>
-    <col min="2564" max="2571" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2561" max="2561" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="14.25" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="89.5" style="1" customWidth="1"/>
+    <col min="2564" max="2571" width="5.625" style="1" customWidth="1"/>
     <col min="2572" max="2574" width="9" style="1"/>
     <col min="2575" max="2575" width="18" style="1" customWidth="1"/>
-    <col min="2576" max="2576" width="18.21875" style="1" customWidth="1"/>
-    <col min="2577" max="2578" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2576" max="2576" width="18.25" style="1" customWidth="1"/>
+    <col min="2577" max="2578" width="17.875" style="1" customWidth="1"/>
     <col min="2579" max="2816" width="9" style="1"/>
-    <col min="2817" max="2817" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="14.21875" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="89.44140625" style="1" customWidth="1"/>
-    <col min="2820" max="2827" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2817" max="2817" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="14.25" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="89.5" style="1" customWidth="1"/>
+    <col min="2820" max="2827" width="5.625" style="1" customWidth="1"/>
     <col min="2828" max="2830" width="9" style="1"/>
     <col min="2831" max="2831" width="18" style="1" customWidth="1"/>
-    <col min="2832" max="2832" width="18.21875" style="1" customWidth="1"/>
-    <col min="2833" max="2834" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2832" max="2832" width="18.25" style="1" customWidth="1"/>
+    <col min="2833" max="2834" width="17.875" style="1" customWidth="1"/>
     <col min="2835" max="3072" width="9" style="1"/>
-    <col min="3073" max="3073" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="14.21875" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="89.44140625" style="1" customWidth="1"/>
-    <col min="3076" max="3083" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3073" max="3073" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="14.25" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="89.5" style="1" customWidth="1"/>
+    <col min="3076" max="3083" width="5.625" style="1" customWidth="1"/>
     <col min="3084" max="3086" width="9" style="1"/>
     <col min="3087" max="3087" width="18" style="1" customWidth="1"/>
-    <col min="3088" max="3088" width="18.21875" style="1" customWidth="1"/>
-    <col min="3089" max="3090" width="17.88671875" style="1" customWidth="1"/>
+    <col min="3088" max="3088" width="18.25" style="1" customWidth="1"/>
+    <col min="3089" max="3090" width="17.875" style="1" customWidth="1"/>
     <col min="3091" max="3328" width="9" style="1"/>
-    <col min="3329" max="3329" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="14.21875" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="89.44140625" style="1" customWidth="1"/>
-    <col min="3332" max="3339" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3329" max="3329" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="14.25" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="89.5" style="1" customWidth="1"/>
+    <col min="3332" max="3339" width="5.625" style="1" customWidth="1"/>
     <col min="3340" max="3342" width="9" style="1"/>
     <col min="3343" max="3343" width="18" style="1" customWidth="1"/>
-    <col min="3344" max="3344" width="18.21875" style="1" customWidth="1"/>
-    <col min="3345" max="3346" width="17.88671875" style="1" customWidth="1"/>
+    <col min="3344" max="3344" width="18.25" style="1" customWidth="1"/>
+    <col min="3345" max="3346" width="17.875" style="1" customWidth="1"/>
     <col min="3347" max="3584" width="9" style="1"/>
-    <col min="3585" max="3585" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="14.21875" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="89.44140625" style="1" customWidth="1"/>
-    <col min="3588" max="3595" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3585" max="3585" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="14.25" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="89.5" style="1" customWidth="1"/>
+    <col min="3588" max="3595" width="5.625" style="1" customWidth="1"/>
     <col min="3596" max="3598" width="9" style="1"/>
     <col min="3599" max="3599" width="18" style="1" customWidth="1"/>
-    <col min="3600" max="3600" width="18.21875" style="1" customWidth="1"/>
-    <col min="3601" max="3602" width="17.88671875" style="1" customWidth="1"/>
+    <col min="3600" max="3600" width="18.25" style="1" customWidth="1"/>
+    <col min="3601" max="3602" width="17.875" style="1" customWidth="1"/>
     <col min="3603" max="3840" width="9" style="1"/>
-    <col min="3841" max="3841" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="14.21875" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="89.44140625" style="1" customWidth="1"/>
-    <col min="3844" max="3851" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3841" max="3841" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="14.25" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="89.5" style="1" customWidth="1"/>
+    <col min="3844" max="3851" width="5.625" style="1" customWidth="1"/>
     <col min="3852" max="3854" width="9" style="1"/>
     <col min="3855" max="3855" width="18" style="1" customWidth="1"/>
-    <col min="3856" max="3856" width="18.21875" style="1" customWidth="1"/>
-    <col min="3857" max="3858" width="17.88671875" style="1" customWidth="1"/>
+    <col min="3856" max="3856" width="18.25" style="1" customWidth="1"/>
+    <col min="3857" max="3858" width="17.875" style="1" customWidth="1"/>
     <col min="3859" max="4096" width="9" style="1"/>
-    <col min="4097" max="4097" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="14.21875" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="89.44140625" style="1" customWidth="1"/>
-    <col min="4100" max="4107" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4097" max="4097" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="14.25" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="89.5" style="1" customWidth="1"/>
+    <col min="4100" max="4107" width="5.625" style="1" customWidth="1"/>
     <col min="4108" max="4110" width="9" style="1"/>
     <col min="4111" max="4111" width="18" style="1" customWidth="1"/>
-    <col min="4112" max="4112" width="18.21875" style="1" customWidth="1"/>
-    <col min="4113" max="4114" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4112" max="4112" width="18.25" style="1" customWidth="1"/>
+    <col min="4113" max="4114" width="17.875" style="1" customWidth="1"/>
     <col min="4115" max="4352" width="9" style="1"/>
-    <col min="4353" max="4353" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="14.21875" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="89.44140625" style="1" customWidth="1"/>
-    <col min="4356" max="4363" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4353" max="4353" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="14.25" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="89.5" style="1" customWidth="1"/>
+    <col min="4356" max="4363" width="5.625" style="1" customWidth="1"/>
     <col min="4364" max="4366" width="9" style="1"/>
     <col min="4367" max="4367" width="18" style="1" customWidth="1"/>
-    <col min="4368" max="4368" width="18.21875" style="1" customWidth="1"/>
-    <col min="4369" max="4370" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4368" max="4368" width="18.25" style="1" customWidth="1"/>
+    <col min="4369" max="4370" width="17.875" style="1" customWidth="1"/>
     <col min="4371" max="4608" width="9" style="1"/>
-    <col min="4609" max="4609" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="14.21875" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="89.44140625" style="1" customWidth="1"/>
-    <col min="4612" max="4619" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4609" max="4609" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="14.25" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="89.5" style="1" customWidth="1"/>
+    <col min="4612" max="4619" width="5.625" style="1" customWidth="1"/>
     <col min="4620" max="4622" width="9" style="1"/>
     <col min="4623" max="4623" width="18" style="1" customWidth="1"/>
-    <col min="4624" max="4624" width="18.21875" style="1" customWidth="1"/>
-    <col min="4625" max="4626" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4624" max="4624" width="18.25" style="1" customWidth="1"/>
+    <col min="4625" max="4626" width="17.875" style="1" customWidth="1"/>
     <col min="4627" max="4864" width="9" style="1"/>
-    <col min="4865" max="4865" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="14.21875" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="89.44140625" style="1" customWidth="1"/>
-    <col min="4868" max="4875" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4865" max="4865" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="14.25" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="89.5" style="1" customWidth="1"/>
+    <col min="4868" max="4875" width="5.625" style="1" customWidth="1"/>
     <col min="4876" max="4878" width="9" style="1"/>
     <col min="4879" max="4879" width="18" style="1" customWidth="1"/>
-    <col min="4880" max="4880" width="18.21875" style="1" customWidth="1"/>
-    <col min="4881" max="4882" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4880" max="4880" width="18.25" style="1" customWidth="1"/>
+    <col min="4881" max="4882" width="17.875" style="1" customWidth="1"/>
     <col min="4883" max="5120" width="9" style="1"/>
-    <col min="5121" max="5121" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="14.21875" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="89.44140625" style="1" customWidth="1"/>
-    <col min="5124" max="5131" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5121" max="5121" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="14.25" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="89.5" style="1" customWidth="1"/>
+    <col min="5124" max="5131" width="5.625" style="1" customWidth="1"/>
     <col min="5132" max="5134" width="9" style="1"/>
     <col min="5135" max="5135" width="18" style="1" customWidth="1"/>
-    <col min="5136" max="5136" width="18.21875" style="1" customWidth="1"/>
-    <col min="5137" max="5138" width="17.88671875" style="1" customWidth="1"/>
+    <col min="5136" max="5136" width="18.25" style="1" customWidth="1"/>
+    <col min="5137" max="5138" width="17.875" style="1" customWidth="1"/>
     <col min="5139" max="5376" width="9" style="1"/>
-    <col min="5377" max="5377" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="14.21875" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="89.44140625" style="1" customWidth="1"/>
-    <col min="5380" max="5387" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5377" max="5377" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="14.25" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="89.5" style="1" customWidth="1"/>
+    <col min="5380" max="5387" width="5.625" style="1" customWidth="1"/>
     <col min="5388" max="5390" width="9" style="1"/>
     <col min="5391" max="5391" width="18" style="1" customWidth="1"/>
-    <col min="5392" max="5392" width="18.21875" style="1" customWidth="1"/>
-    <col min="5393" max="5394" width="17.88671875" style="1" customWidth="1"/>
+    <col min="5392" max="5392" width="18.25" style="1" customWidth="1"/>
+    <col min="5393" max="5394" width="17.875" style="1" customWidth="1"/>
     <col min="5395" max="5632" width="9" style="1"/>
-    <col min="5633" max="5633" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="14.21875" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="89.44140625" style="1" customWidth="1"/>
-    <col min="5636" max="5643" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5633" max="5633" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="14.25" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="89.5" style="1" customWidth="1"/>
+    <col min="5636" max="5643" width="5.625" style="1" customWidth="1"/>
     <col min="5644" max="5646" width="9" style="1"/>
     <col min="5647" max="5647" width="18" style="1" customWidth="1"/>
-    <col min="5648" max="5648" width="18.21875" style="1" customWidth="1"/>
-    <col min="5649" max="5650" width="17.88671875" style="1" customWidth="1"/>
+    <col min="5648" max="5648" width="18.25" style="1" customWidth="1"/>
+    <col min="5649" max="5650" width="17.875" style="1" customWidth="1"/>
     <col min="5651" max="5888" width="9" style="1"/>
-    <col min="5889" max="5889" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="14.21875" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="89.44140625" style="1" customWidth="1"/>
-    <col min="5892" max="5899" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5889" max="5889" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="14.25" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="89.5" style="1" customWidth="1"/>
+    <col min="5892" max="5899" width="5.625" style="1" customWidth="1"/>
     <col min="5900" max="5902" width="9" style="1"/>
     <col min="5903" max="5903" width="18" style="1" customWidth="1"/>
-    <col min="5904" max="5904" width="18.21875" style="1" customWidth="1"/>
-    <col min="5905" max="5906" width="17.88671875" style="1" customWidth="1"/>
+    <col min="5904" max="5904" width="18.25" style="1" customWidth="1"/>
+    <col min="5905" max="5906" width="17.875" style="1" customWidth="1"/>
     <col min="5907" max="6144" width="9" style="1"/>
-    <col min="6145" max="6145" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="14.21875" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="89.44140625" style="1" customWidth="1"/>
-    <col min="6148" max="6155" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6145" max="6145" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="14.25" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="89.5" style="1" customWidth="1"/>
+    <col min="6148" max="6155" width="5.625" style="1" customWidth="1"/>
     <col min="6156" max="6158" width="9" style="1"/>
     <col min="6159" max="6159" width="18" style="1" customWidth="1"/>
-    <col min="6160" max="6160" width="18.21875" style="1" customWidth="1"/>
-    <col min="6161" max="6162" width="17.88671875" style="1" customWidth="1"/>
+    <col min="6160" max="6160" width="18.25" style="1" customWidth="1"/>
+    <col min="6161" max="6162" width="17.875" style="1" customWidth="1"/>
     <col min="6163" max="6400" width="9" style="1"/>
-    <col min="6401" max="6401" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="14.21875" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="89.44140625" style="1" customWidth="1"/>
-    <col min="6404" max="6411" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6401" max="6401" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="14.25" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="89.5" style="1" customWidth="1"/>
+    <col min="6404" max="6411" width="5.625" style="1" customWidth="1"/>
     <col min="6412" max="6414" width="9" style="1"/>
     <col min="6415" max="6415" width="18" style="1" customWidth="1"/>
-    <col min="6416" max="6416" width="18.21875" style="1" customWidth="1"/>
-    <col min="6417" max="6418" width="17.88671875" style="1" customWidth="1"/>
+    <col min="6416" max="6416" width="18.25" style="1" customWidth="1"/>
+    <col min="6417" max="6418" width="17.875" style="1" customWidth="1"/>
     <col min="6419" max="6656" width="9" style="1"/>
-    <col min="6657" max="6657" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="14.21875" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="89.44140625" style="1" customWidth="1"/>
-    <col min="6660" max="6667" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6657" max="6657" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="14.25" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="89.5" style="1" customWidth="1"/>
+    <col min="6660" max="6667" width="5.625" style="1" customWidth="1"/>
     <col min="6668" max="6670" width="9" style="1"/>
     <col min="6671" max="6671" width="18" style="1" customWidth="1"/>
-    <col min="6672" max="6672" width="18.21875" style="1" customWidth="1"/>
-    <col min="6673" max="6674" width="17.88671875" style="1" customWidth="1"/>
+    <col min="6672" max="6672" width="18.25" style="1" customWidth="1"/>
+    <col min="6673" max="6674" width="17.875" style="1" customWidth="1"/>
     <col min="6675" max="6912" width="9" style="1"/>
-    <col min="6913" max="6913" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="14.21875" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="89.44140625" style="1" customWidth="1"/>
-    <col min="6916" max="6923" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6913" max="6913" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="14.25" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="89.5" style="1" customWidth="1"/>
+    <col min="6916" max="6923" width="5.625" style="1" customWidth="1"/>
     <col min="6924" max="6926" width="9" style="1"/>
     <col min="6927" max="6927" width="18" style="1" customWidth="1"/>
-    <col min="6928" max="6928" width="18.21875" style="1" customWidth="1"/>
-    <col min="6929" max="6930" width="17.88671875" style="1" customWidth="1"/>
+    <col min="6928" max="6928" width="18.25" style="1" customWidth="1"/>
+    <col min="6929" max="6930" width="17.875" style="1" customWidth="1"/>
     <col min="6931" max="7168" width="9" style="1"/>
-    <col min="7169" max="7169" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="14.21875" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="89.44140625" style="1" customWidth="1"/>
-    <col min="7172" max="7179" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7169" max="7169" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="14.25" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="89.5" style="1" customWidth="1"/>
+    <col min="7172" max="7179" width="5.625" style="1" customWidth="1"/>
     <col min="7180" max="7182" width="9" style="1"/>
     <col min="7183" max="7183" width="18" style="1" customWidth="1"/>
-    <col min="7184" max="7184" width="18.21875" style="1" customWidth="1"/>
-    <col min="7185" max="7186" width="17.88671875" style="1" customWidth="1"/>
+    <col min="7184" max="7184" width="18.25" style="1" customWidth="1"/>
+    <col min="7185" max="7186" width="17.875" style="1" customWidth="1"/>
     <col min="7187" max="7424" width="9" style="1"/>
-    <col min="7425" max="7425" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="14.21875" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="89.44140625" style="1" customWidth="1"/>
-    <col min="7428" max="7435" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7425" max="7425" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="14.25" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="89.5" style="1" customWidth="1"/>
+    <col min="7428" max="7435" width="5.625" style="1" customWidth="1"/>
     <col min="7436" max="7438" width="9" style="1"/>
     <col min="7439" max="7439" width="18" style="1" customWidth="1"/>
-    <col min="7440" max="7440" width="18.21875" style="1" customWidth="1"/>
-    <col min="7441" max="7442" width="17.88671875" style="1" customWidth="1"/>
+    <col min="7440" max="7440" width="18.25" style="1" customWidth="1"/>
+    <col min="7441" max="7442" width="17.875" style="1" customWidth="1"/>
     <col min="7443" max="7680" width="9" style="1"/>
-    <col min="7681" max="7681" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="14.21875" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="89.44140625" style="1" customWidth="1"/>
-    <col min="7684" max="7691" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7681" max="7681" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="14.25" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="89.5" style="1" customWidth="1"/>
+    <col min="7684" max="7691" width="5.625" style="1" customWidth="1"/>
     <col min="7692" max="7694" width="9" style="1"/>
     <col min="7695" max="7695" width="18" style="1" customWidth="1"/>
-    <col min="7696" max="7696" width="18.21875" style="1" customWidth="1"/>
-    <col min="7697" max="7698" width="17.88671875" style="1" customWidth="1"/>
+    <col min="7696" max="7696" width="18.25" style="1" customWidth="1"/>
+    <col min="7697" max="7698" width="17.875" style="1" customWidth="1"/>
     <col min="7699" max="7936" width="9" style="1"/>
-    <col min="7937" max="7937" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="14.21875" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="89.44140625" style="1" customWidth="1"/>
-    <col min="7940" max="7947" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7937" max="7937" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="14.25" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="89.5" style="1" customWidth="1"/>
+    <col min="7940" max="7947" width="5.625" style="1" customWidth="1"/>
     <col min="7948" max="7950" width="9" style="1"/>
     <col min="7951" max="7951" width="18" style="1" customWidth="1"/>
-    <col min="7952" max="7952" width="18.21875" style="1" customWidth="1"/>
-    <col min="7953" max="7954" width="17.88671875" style="1" customWidth="1"/>
+    <col min="7952" max="7952" width="18.25" style="1" customWidth="1"/>
+    <col min="7953" max="7954" width="17.875" style="1" customWidth="1"/>
     <col min="7955" max="8192" width="9" style="1"/>
-    <col min="8193" max="8193" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="14.21875" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="89.44140625" style="1" customWidth="1"/>
-    <col min="8196" max="8203" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8193" max="8193" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="14.25" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="89.5" style="1" customWidth="1"/>
+    <col min="8196" max="8203" width="5.625" style="1" customWidth="1"/>
     <col min="8204" max="8206" width="9" style="1"/>
     <col min="8207" max="8207" width="18" style="1" customWidth="1"/>
-    <col min="8208" max="8208" width="18.21875" style="1" customWidth="1"/>
-    <col min="8209" max="8210" width="17.88671875" style="1" customWidth="1"/>
+    <col min="8208" max="8208" width="18.25" style="1" customWidth="1"/>
+    <col min="8209" max="8210" width="17.875" style="1" customWidth="1"/>
     <col min="8211" max="8448" width="9" style="1"/>
-    <col min="8449" max="8449" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="14.21875" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="89.44140625" style="1" customWidth="1"/>
-    <col min="8452" max="8459" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8449" max="8449" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="14.25" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="89.5" style="1" customWidth="1"/>
+    <col min="8452" max="8459" width="5.625" style="1" customWidth="1"/>
     <col min="8460" max="8462" width="9" style="1"/>
     <col min="8463" max="8463" width="18" style="1" customWidth="1"/>
-    <col min="8464" max="8464" width="18.21875" style="1" customWidth="1"/>
-    <col min="8465" max="8466" width="17.88671875" style="1" customWidth="1"/>
+    <col min="8464" max="8464" width="18.25" style="1" customWidth="1"/>
+    <col min="8465" max="8466" width="17.875" style="1" customWidth="1"/>
     <col min="8467" max="8704" width="9" style="1"/>
-    <col min="8705" max="8705" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="14.21875" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="89.44140625" style="1" customWidth="1"/>
-    <col min="8708" max="8715" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8705" max="8705" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="14.25" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="89.5" style="1" customWidth="1"/>
+    <col min="8708" max="8715" width="5.625" style="1" customWidth="1"/>
     <col min="8716" max="8718" width="9" style="1"/>
     <col min="8719" max="8719" width="18" style="1" customWidth="1"/>
-    <col min="8720" max="8720" width="18.21875" style="1" customWidth="1"/>
-    <col min="8721" max="8722" width="17.88671875" style="1" customWidth="1"/>
+    <col min="8720" max="8720" width="18.25" style="1" customWidth="1"/>
+    <col min="8721" max="8722" width="17.875" style="1" customWidth="1"/>
     <col min="8723" max="8960" width="9" style="1"/>
-    <col min="8961" max="8961" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="14.21875" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="89.44140625" style="1" customWidth="1"/>
-    <col min="8964" max="8971" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8961" max="8961" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="14.25" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="89.5" style="1" customWidth="1"/>
+    <col min="8964" max="8971" width="5.625" style="1" customWidth="1"/>
     <col min="8972" max="8974" width="9" style="1"/>
     <col min="8975" max="8975" width="18" style="1" customWidth="1"/>
-    <col min="8976" max="8976" width="18.21875" style="1" customWidth="1"/>
-    <col min="8977" max="8978" width="17.88671875" style="1" customWidth="1"/>
+    <col min="8976" max="8976" width="18.25" style="1" customWidth="1"/>
+    <col min="8977" max="8978" width="17.875" style="1" customWidth="1"/>
     <col min="8979" max="9216" width="9" style="1"/>
-    <col min="9217" max="9217" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="14.21875" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="89.44140625" style="1" customWidth="1"/>
-    <col min="9220" max="9227" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9217" max="9217" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="14.25" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="89.5" style="1" customWidth="1"/>
+    <col min="9220" max="9227" width="5.625" style="1" customWidth="1"/>
     <col min="9228" max="9230" width="9" style="1"/>
     <col min="9231" max="9231" width="18" style="1" customWidth="1"/>
-    <col min="9232" max="9232" width="18.21875" style="1" customWidth="1"/>
-    <col min="9233" max="9234" width="17.88671875" style="1" customWidth="1"/>
+    <col min="9232" max="9232" width="18.25" style="1" customWidth="1"/>
+    <col min="9233" max="9234" width="17.875" style="1" customWidth="1"/>
     <col min="9235" max="9472" width="9" style="1"/>
-    <col min="9473" max="9473" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="14.21875" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="89.44140625" style="1" customWidth="1"/>
-    <col min="9476" max="9483" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9473" max="9473" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="14.25" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="89.5" style="1" customWidth="1"/>
+    <col min="9476" max="9483" width="5.625" style="1" customWidth="1"/>
     <col min="9484" max="9486" width="9" style="1"/>
     <col min="9487" max="9487" width="18" style="1" customWidth="1"/>
-    <col min="9488" max="9488" width="18.21875" style="1" customWidth="1"/>
-    <col min="9489" max="9490" width="17.88671875" style="1" customWidth="1"/>
+    <col min="9488" max="9488" width="18.25" style="1" customWidth="1"/>
+    <col min="9489" max="9490" width="17.875" style="1" customWidth="1"/>
     <col min="9491" max="9728" width="9" style="1"/>
-    <col min="9729" max="9729" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="14.21875" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="89.44140625" style="1" customWidth="1"/>
-    <col min="9732" max="9739" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9729" max="9729" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="14.25" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="89.5" style="1" customWidth="1"/>
+    <col min="9732" max="9739" width="5.625" style="1" customWidth="1"/>
     <col min="9740" max="9742" width="9" style="1"/>
     <col min="9743" max="9743" width="18" style="1" customWidth="1"/>
-    <col min="9744" max="9744" width="18.21875" style="1" customWidth="1"/>
-    <col min="9745" max="9746" width="17.88671875" style="1" customWidth="1"/>
+    <col min="9744" max="9744" width="18.25" style="1" customWidth="1"/>
+    <col min="9745" max="9746" width="17.875" style="1" customWidth="1"/>
     <col min="9747" max="9984" width="9" style="1"/>
-    <col min="9985" max="9985" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="14.21875" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="89.44140625" style="1" customWidth="1"/>
-    <col min="9988" max="9995" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9985" max="9985" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="14.25" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="89.5" style="1" customWidth="1"/>
+    <col min="9988" max="9995" width="5.625" style="1" customWidth="1"/>
     <col min="9996" max="9998" width="9" style="1"/>
     <col min="9999" max="9999" width="18" style="1" customWidth="1"/>
-    <col min="10000" max="10000" width="18.21875" style="1" customWidth="1"/>
-    <col min="10001" max="10002" width="17.88671875" style="1" customWidth="1"/>
+    <col min="10000" max="10000" width="18.25" style="1" customWidth="1"/>
+    <col min="10001" max="10002" width="17.875" style="1" customWidth="1"/>
     <col min="10003" max="10240" width="9" style="1"/>
-    <col min="10241" max="10241" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="14.21875" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="89.44140625" style="1" customWidth="1"/>
-    <col min="10244" max="10251" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10241" max="10241" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="14.25" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="89.5" style="1" customWidth="1"/>
+    <col min="10244" max="10251" width="5.625" style="1" customWidth="1"/>
     <col min="10252" max="10254" width="9" style="1"/>
     <col min="10255" max="10255" width="18" style="1" customWidth="1"/>
-    <col min="10256" max="10256" width="18.21875" style="1" customWidth="1"/>
-    <col min="10257" max="10258" width="17.88671875" style="1" customWidth="1"/>
+    <col min="10256" max="10256" width="18.25" style="1" customWidth="1"/>
+    <col min="10257" max="10258" width="17.875" style="1" customWidth="1"/>
     <col min="10259" max="10496" width="9" style="1"/>
-    <col min="10497" max="10497" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="14.21875" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="89.44140625" style="1" customWidth="1"/>
-    <col min="10500" max="10507" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10497" max="10497" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="14.25" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="89.5" style="1" customWidth="1"/>
+    <col min="10500" max="10507" width="5.625" style="1" customWidth="1"/>
     <col min="10508" max="10510" width="9" style="1"/>
     <col min="10511" max="10511" width="18" style="1" customWidth="1"/>
-    <col min="10512" max="10512" width="18.21875" style="1" customWidth="1"/>
-    <col min="10513" max="10514" width="17.88671875" style="1" customWidth="1"/>
+    <col min="10512" max="10512" width="18.25" style="1" customWidth="1"/>
+    <col min="10513" max="10514" width="17.875" style="1" customWidth="1"/>
     <col min="10515" max="10752" width="9" style="1"/>
-    <col min="10753" max="10753" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="14.21875" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="89.44140625" style="1" customWidth="1"/>
-    <col min="10756" max="10763" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10753" max="10753" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="14.25" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="89.5" style="1" customWidth="1"/>
+    <col min="10756" max="10763" width="5.625" style="1" customWidth="1"/>
     <col min="10764" max="10766" width="9" style="1"/>
     <col min="10767" max="10767" width="18" style="1" customWidth="1"/>
-    <col min="10768" max="10768" width="18.21875" style="1" customWidth="1"/>
-    <col min="10769" max="10770" width="17.88671875" style="1" customWidth="1"/>
+    <col min="10768" max="10768" width="18.25" style="1" customWidth="1"/>
+    <col min="10769" max="10770" width="17.875" style="1" customWidth="1"/>
     <col min="10771" max="11008" width="9" style="1"/>
-    <col min="11009" max="11009" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="14.21875" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="89.44140625" style="1" customWidth="1"/>
-    <col min="11012" max="11019" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11009" max="11009" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="14.25" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="89.5" style="1" customWidth="1"/>
+    <col min="11012" max="11019" width="5.625" style="1" customWidth="1"/>
     <col min="11020" max="11022" width="9" style="1"/>
     <col min="11023" max="11023" width="18" style="1" customWidth="1"/>
-    <col min="11024" max="11024" width="18.21875" style="1" customWidth="1"/>
-    <col min="11025" max="11026" width="17.88671875" style="1" customWidth="1"/>
+    <col min="11024" max="11024" width="18.25" style="1" customWidth="1"/>
+    <col min="11025" max="11026" width="17.875" style="1" customWidth="1"/>
     <col min="11027" max="11264" width="9" style="1"/>
-    <col min="11265" max="11265" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="14.21875" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="89.44140625" style="1" customWidth="1"/>
-    <col min="11268" max="11275" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11265" max="11265" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="14.25" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="89.5" style="1" customWidth="1"/>
+    <col min="11268" max="11275" width="5.625" style="1" customWidth="1"/>
     <col min="11276" max="11278" width="9" style="1"/>
     <col min="11279" max="11279" width="18" style="1" customWidth="1"/>
-    <col min="11280" max="11280" width="18.21875" style="1" customWidth="1"/>
-    <col min="11281" max="11282" width="17.88671875" style="1" customWidth="1"/>
+    <col min="11280" max="11280" width="18.25" style="1" customWidth="1"/>
+    <col min="11281" max="11282" width="17.875" style="1" customWidth="1"/>
     <col min="11283" max="11520" width="9" style="1"/>
-    <col min="11521" max="11521" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="14.21875" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="89.44140625" style="1" customWidth="1"/>
-    <col min="11524" max="11531" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11521" max="11521" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="14.25" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="89.5" style="1" customWidth="1"/>
+    <col min="11524" max="11531" width="5.625" style="1" customWidth="1"/>
     <col min="11532" max="11534" width="9" style="1"/>
     <col min="11535" max="11535" width="18" style="1" customWidth="1"/>
-    <col min="11536" max="11536" width="18.21875" style="1" customWidth="1"/>
-    <col min="11537" max="11538" width="17.88671875" style="1" customWidth="1"/>
+    <col min="11536" max="11536" width="18.25" style="1" customWidth="1"/>
+    <col min="11537" max="11538" width="17.875" style="1" customWidth="1"/>
     <col min="11539" max="11776" width="9" style="1"/>
-    <col min="11777" max="11777" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="14.21875" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="89.44140625" style="1" customWidth="1"/>
-    <col min="11780" max="11787" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11777" max="11777" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="14.25" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="89.5" style="1" customWidth="1"/>
+    <col min="11780" max="11787" width="5.625" style="1" customWidth="1"/>
     <col min="11788" max="11790" width="9" style="1"/>
     <col min="11791" max="11791" width="18" style="1" customWidth="1"/>
-    <col min="11792" max="11792" width="18.21875" style="1" customWidth="1"/>
-    <col min="11793" max="11794" width="17.88671875" style="1" customWidth="1"/>
+    <col min="11792" max="11792" width="18.25" style="1" customWidth="1"/>
+    <col min="11793" max="11794" width="17.875" style="1" customWidth="1"/>
     <col min="11795" max="12032" width="9" style="1"/>
-    <col min="12033" max="12033" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="14.21875" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="89.44140625" style="1" customWidth="1"/>
-    <col min="12036" max="12043" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12033" max="12033" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="14.25" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="89.5" style="1" customWidth="1"/>
+    <col min="12036" max="12043" width="5.625" style="1" customWidth="1"/>
     <col min="12044" max="12046" width="9" style="1"/>
     <col min="12047" max="12047" width="18" style="1" customWidth="1"/>
-    <col min="12048" max="12048" width="18.21875" style="1" customWidth="1"/>
-    <col min="12049" max="12050" width="17.88671875" style="1" customWidth="1"/>
+    <col min="12048" max="12048" width="18.25" style="1" customWidth="1"/>
+    <col min="12049" max="12050" width="17.875" style="1" customWidth="1"/>
     <col min="12051" max="12288" width="9" style="1"/>
-    <col min="12289" max="12289" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="14.21875" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="89.44140625" style="1" customWidth="1"/>
-    <col min="12292" max="12299" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12289" max="12289" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="14.25" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="89.5" style="1" customWidth="1"/>
+    <col min="12292" max="12299" width="5.625" style="1" customWidth="1"/>
     <col min="12300" max="12302" width="9" style="1"/>
     <col min="12303" max="12303" width="18" style="1" customWidth="1"/>
-    <col min="12304" max="12304" width="18.21875" style="1" customWidth="1"/>
-    <col min="12305" max="12306" width="17.88671875" style="1" customWidth="1"/>
+    <col min="12304" max="12304" width="18.25" style="1" customWidth="1"/>
+    <col min="12305" max="12306" width="17.875" style="1" customWidth="1"/>
     <col min="12307" max="12544" width="9" style="1"/>
-    <col min="12545" max="12545" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="14.21875" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="89.44140625" style="1" customWidth="1"/>
-    <col min="12548" max="12555" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12545" max="12545" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="14.25" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="89.5" style="1" customWidth="1"/>
+    <col min="12548" max="12555" width="5.625" style="1" customWidth="1"/>
     <col min="12556" max="12558" width="9" style="1"/>
     <col min="12559" max="12559" width="18" style="1" customWidth="1"/>
-    <col min="12560" max="12560" width="18.21875" style="1" customWidth="1"/>
-    <col min="12561" max="12562" width="17.88671875" style="1" customWidth="1"/>
+    <col min="12560" max="12560" width="18.25" style="1" customWidth="1"/>
+    <col min="12561" max="12562" width="17.875" style="1" customWidth="1"/>
     <col min="12563" max="12800" width="9" style="1"/>
-    <col min="12801" max="12801" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="14.21875" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="89.44140625" style="1" customWidth="1"/>
-    <col min="12804" max="12811" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12801" max="12801" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="14.25" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="89.5" style="1" customWidth="1"/>
+    <col min="12804" max="12811" width="5.625" style="1" customWidth="1"/>
     <col min="12812" max="12814" width="9" style="1"/>
     <col min="12815" max="12815" width="18" style="1" customWidth="1"/>
-    <col min="12816" max="12816" width="18.21875" style="1" customWidth="1"/>
-    <col min="12817" max="12818" width="17.88671875" style="1" customWidth="1"/>
+    <col min="12816" max="12816" width="18.25" style="1" customWidth="1"/>
+    <col min="12817" max="12818" width="17.875" style="1" customWidth="1"/>
     <col min="12819" max="13056" width="9" style="1"/>
-    <col min="13057" max="13057" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="14.21875" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="89.44140625" style="1" customWidth="1"/>
-    <col min="13060" max="13067" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13057" max="13057" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="14.25" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="89.5" style="1" customWidth="1"/>
+    <col min="13060" max="13067" width="5.625" style="1" customWidth="1"/>
     <col min="13068" max="13070" width="9" style="1"/>
     <col min="13071" max="13071" width="18" style="1" customWidth="1"/>
-    <col min="13072" max="13072" width="18.21875" style="1" customWidth="1"/>
-    <col min="13073" max="13074" width="17.88671875" style="1" customWidth="1"/>
+    <col min="13072" max="13072" width="18.25" style="1" customWidth="1"/>
+    <col min="13073" max="13074" width="17.875" style="1" customWidth="1"/>
     <col min="13075" max="13312" width="9" style="1"/>
-    <col min="13313" max="13313" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="14.21875" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="89.44140625" style="1" customWidth="1"/>
-    <col min="13316" max="13323" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13313" max="13313" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="14.25" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="89.5" style="1" customWidth="1"/>
+    <col min="13316" max="13323" width="5.625" style="1" customWidth="1"/>
     <col min="13324" max="13326" width="9" style="1"/>
     <col min="13327" max="13327" width="18" style="1" customWidth="1"/>
-    <col min="13328" max="13328" width="18.21875" style="1" customWidth="1"/>
-    <col min="13329" max="13330" width="17.88671875" style="1" customWidth="1"/>
+    <col min="13328" max="13328" width="18.25" style="1" customWidth="1"/>
+    <col min="13329" max="13330" width="17.875" style="1" customWidth="1"/>
     <col min="13331" max="13568" width="9" style="1"/>
-    <col min="13569" max="13569" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="14.21875" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="89.44140625" style="1" customWidth="1"/>
-    <col min="13572" max="13579" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13569" max="13569" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="14.25" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="89.5" style="1" customWidth="1"/>
+    <col min="13572" max="13579" width="5.625" style="1" customWidth="1"/>
     <col min="13580" max="13582" width="9" style="1"/>
     <col min="13583" max="13583" width="18" style="1" customWidth="1"/>
-    <col min="13584" max="13584" width="18.21875" style="1" customWidth="1"/>
-    <col min="13585" max="13586" width="17.88671875" style="1" customWidth="1"/>
+    <col min="13584" max="13584" width="18.25" style="1" customWidth="1"/>
+    <col min="13585" max="13586" width="17.875" style="1" customWidth="1"/>
     <col min="13587" max="13824" width="9" style="1"/>
-    <col min="13825" max="13825" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="14.21875" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="89.44140625" style="1" customWidth="1"/>
-    <col min="13828" max="13835" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13825" max="13825" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="14.25" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="89.5" style="1" customWidth="1"/>
+    <col min="13828" max="13835" width="5.625" style="1" customWidth="1"/>
     <col min="13836" max="13838" width="9" style="1"/>
     <col min="13839" max="13839" width="18" style="1" customWidth="1"/>
-    <col min="13840" max="13840" width="18.21875" style="1" customWidth="1"/>
-    <col min="13841" max="13842" width="17.88671875" style="1" customWidth="1"/>
+    <col min="13840" max="13840" width="18.25" style="1" customWidth="1"/>
+    <col min="13841" max="13842" width="17.875" style="1" customWidth="1"/>
     <col min="13843" max="14080" width="9" style="1"/>
-    <col min="14081" max="14081" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="14.21875" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="89.44140625" style="1" customWidth="1"/>
-    <col min="14084" max="14091" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14081" max="14081" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="14.25" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="89.5" style="1" customWidth="1"/>
+    <col min="14084" max="14091" width="5.625" style="1" customWidth="1"/>
     <col min="14092" max="14094" width="9" style="1"/>
     <col min="14095" max="14095" width="18" style="1" customWidth="1"/>
-    <col min="14096" max="14096" width="18.21875" style="1" customWidth="1"/>
-    <col min="14097" max="14098" width="17.88671875" style="1" customWidth="1"/>
+    <col min="14096" max="14096" width="18.25" style="1" customWidth="1"/>
+    <col min="14097" max="14098" width="17.875" style="1" customWidth="1"/>
     <col min="14099" max="14336" width="9" style="1"/>
-    <col min="14337" max="14337" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="14.21875" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="89.44140625" style="1" customWidth="1"/>
-    <col min="14340" max="14347" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14337" max="14337" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="14.25" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="89.5" style="1" customWidth="1"/>
+    <col min="14340" max="14347" width="5.625" style="1" customWidth="1"/>
     <col min="14348" max="14350" width="9" style="1"/>
     <col min="14351" max="14351" width="18" style="1" customWidth="1"/>
-    <col min="14352" max="14352" width="18.21875" style="1" customWidth="1"/>
-    <col min="14353" max="14354" width="17.88671875" style="1" customWidth="1"/>
+    <col min="14352" max="14352" width="18.25" style="1" customWidth="1"/>
+    <col min="14353" max="14354" width="17.875" style="1" customWidth="1"/>
     <col min="14355" max="14592" width="9" style="1"/>
-    <col min="14593" max="14593" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="14.21875" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="89.44140625" style="1" customWidth="1"/>
-    <col min="14596" max="14603" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14593" max="14593" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="14.25" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="89.5" style="1" customWidth="1"/>
+    <col min="14596" max="14603" width="5.625" style="1" customWidth="1"/>
     <col min="14604" max="14606" width="9" style="1"/>
     <col min="14607" max="14607" width="18" style="1" customWidth="1"/>
-    <col min="14608" max="14608" width="18.21875" style="1" customWidth="1"/>
-    <col min="14609" max="14610" width="17.88671875" style="1" customWidth="1"/>
+    <col min="14608" max="14608" width="18.25" style="1" customWidth="1"/>
+    <col min="14609" max="14610" width="17.875" style="1" customWidth="1"/>
     <col min="14611" max="14848" width="9" style="1"/>
-    <col min="14849" max="14849" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="14.21875" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="89.44140625" style="1" customWidth="1"/>
-    <col min="14852" max="14859" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14849" max="14849" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="14.25" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="89.5" style="1" customWidth="1"/>
+    <col min="14852" max="14859" width="5.625" style="1" customWidth="1"/>
     <col min="14860" max="14862" width="9" style="1"/>
     <col min="14863" max="14863" width="18" style="1" customWidth="1"/>
-    <col min="14864" max="14864" width="18.21875" style="1" customWidth="1"/>
-    <col min="14865" max="14866" width="17.88671875" style="1" customWidth="1"/>
+    <col min="14864" max="14864" width="18.25" style="1" customWidth="1"/>
+    <col min="14865" max="14866" width="17.875" style="1" customWidth="1"/>
     <col min="14867" max="15104" width="9" style="1"/>
-    <col min="15105" max="15105" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="14.21875" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="89.44140625" style="1" customWidth="1"/>
-    <col min="15108" max="15115" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15105" max="15105" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="14.25" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="89.5" style="1" customWidth="1"/>
+    <col min="15108" max="15115" width="5.625" style="1" customWidth="1"/>
     <col min="15116" max="15118" width="9" style="1"/>
     <col min="15119" max="15119" width="18" style="1" customWidth="1"/>
-    <col min="15120" max="15120" width="18.21875" style="1" customWidth="1"/>
-    <col min="15121" max="15122" width="17.88671875" style="1" customWidth="1"/>
+    <col min="15120" max="15120" width="18.25" style="1" customWidth="1"/>
+    <col min="15121" max="15122" width="17.875" style="1" customWidth="1"/>
     <col min="15123" max="15360" width="9" style="1"/>
-    <col min="15361" max="15361" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="14.21875" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="89.44140625" style="1" customWidth="1"/>
-    <col min="15364" max="15371" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15361" max="15361" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="14.25" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="89.5" style="1" customWidth="1"/>
+    <col min="15364" max="15371" width="5.625" style="1" customWidth="1"/>
     <col min="15372" max="15374" width="9" style="1"/>
     <col min="15375" max="15375" width="18" style="1" customWidth="1"/>
-    <col min="15376" max="15376" width="18.21875" style="1" customWidth="1"/>
-    <col min="15377" max="15378" width="17.88671875" style="1" customWidth="1"/>
+    <col min="15376" max="15376" width="18.25" style="1" customWidth="1"/>
+    <col min="15377" max="15378" width="17.875" style="1" customWidth="1"/>
     <col min="15379" max="15616" width="9" style="1"/>
-    <col min="15617" max="15617" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="14.21875" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="89.44140625" style="1" customWidth="1"/>
-    <col min="15620" max="15627" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15617" max="15617" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="14.25" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="89.5" style="1" customWidth="1"/>
+    <col min="15620" max="15627" width="5.625" style="1" customWidth="1"/>
     <col min="15628" max="15630" width="9" style="1"/>
     <col min="15631" max="15631" width="18" style="1" customWidth="1"/>
-    <col min="15632" max="15632" width="18.21875" style="1" customWidth="1"/>
-    <col min="15633" max="15634" width="17.88671875" style="1" customWidth="1"/>
+    <col min="15632" max="15632" width="18.25" style="1" customWidth="1"/>
+    <col min="15633" max="15634" width="17.875" style="1" customWidth="1"/>
     <col min="15635" max="15872" width="9" style="1"/>
-    <col min="15873" max="15873" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="14.21875" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="89.44140625" style="1" customWidth="1"/>
-    <col min="15876" max="15883" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15873" max="15873" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="14.25" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="89.5" style="1" customWidth="1"/>
+    <col min="15876" max="15883" width="5.625" style="1" customWidth="1"/>
     <col min="15884" max="15886" width="9" style="1"/>
     <col min="15887" max="15887" width="18" style="1" customWidth="1"/>
-    <col min="15888" max="15888" width="18.21875" style="1" customWidth="1"/>
-    <col min="15889" max="15890" width="17.88671875" style="1" customWidth="1"/>
+    <col min="15888" max="15888" width="18.25" style="1" customWidth="1"/>
+    <col min="15889" max="15890" width="17.875" style="1" customWidth="1"/>
     <col min="15891" max="16128" width="9" style="1"/>
-    <col min="16129" max="16129" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="14.21875" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="89.44140625" style="1" customWidth="1"/>
-    <col min="16132" max="16139" width="5.6640625" style="1" customWidth="1"/>
+    <col min="16129" max="16129" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="14.25" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="89.5" style="1" customWidth="1"/>
+    <col min="16132" max="16139" width="5.625" style="1" customWidth="1"/>
     <col min="16140" max="16142" width="9" style="1"/>
     <col min="16143" max="16143" width="18" style="1" customWidth="1"/>
-    <col min="16144" max="16144" width="18.21875" style="1" customWidth="1"/>
-    <col min="16145" max="16146" width="17.88671875" style="1" customWidth="1"/>
+    <col min="16144" max="16144" width="18.25" style="1" customWidth="1"/>
+    <col min="16145" max="16146" width="17.875" style="1" customWidth="1"/>
     <col min="16147" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="47.25" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2517,7 +2541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="24.9" customHeight="1">
+    <row r="5" spans="1:11" ht="24.95" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2554,7 +2578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24.9" customHeight="1">
+    <row r="6" spans="1:11" ht="24.95" customHeight="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2591,7 +2615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="24.9" customHeight="1">
+    <row r="7" spans="1:11" ht="24.95" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2626,7 +2650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24.9" customHeight="1">
+    <row r="8" spans="1:11" ht="24.95" customHeight="1">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2663,7 +2687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="24.9" customHeight="1">
+    <row r="9" spans="1:11" ht="24.95" customHeight="1">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2698,7 +2722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24.9" customHeight="1">
+    <row r="10" spans="1:11" ht="24.95" customHeight="1">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2733,7 +2757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="24.9" customHeight="1">
+    <row r="11" spans="1:11" ht="24.95" customHeight="1">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -2770,7 +2794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="24.9" customHeight="1">
+    <row r="12" spans="1:11" ht="24.95" customHeight="1">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -2807,7 +2831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="24.9" customHeight="1">
+    <row r="13" spans="1:11" ht="24.95" customHeight="1">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2842,7 +2866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="24.9" customHeight="1">
+    <row r="14" spans="1:11" ht="24.95" customHeight="1">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2879,7 +2903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="24.9" customHeight="1">
+    <row r="15" spans="1:11" ht="24.95" customHeight="1">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -2916,7 +2940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="24.9" customHeight="1">
+    <row r="16" spans="1:11" ht="24.95" customHeight="1">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -2953,7 +2977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="24.9" customHeight="1">
+    <row r="17" spans="1:11" ht="24.95" customHeight="1">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -2990,7 +3014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="24.9" customHeight="1">
+    <row r="18" spans="1:11" ht="24.95" customHeight="1">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -3027,7 +3051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="24.9" customHeight="1">
+    <row r="19" spans="1:11" ht="24.95" customHeight="1">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -3062,7 +3086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="24.9" customHeight="1">
+    <row r="20" spans="1:11" ht="24.95" customHeight="1">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -3099,7 +3123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="24.9" customHeight="1">
+    <row r="21" spans="1:11" ht="24.95" customHeight="1">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -3136,7 +3160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="24.9" customHeight="1">
+    <row r="22" spans="1:11" ht="24.95" customHeight="1">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -3173,7 +3197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="24.9" customHeight="1">
+    <row r="23" spans="1:11" ht="24.95" customHeight="1">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -3210,7 +3234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="24.9" customHeight="1">
+    <row r="24" spans="1:11" ht="24.95" customHeight="1">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -3247,7 +3271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="24.9" customHeight="1">
+    <row r="25" spans="1:11" ht="24.95" customHeight="1">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -3284,7 +3308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24.9" customHeight="1">
+    <row r="26" spans="1:11" ht="24.95" customHeight="1">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -3321,7 +3345,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="24.9" customHeight="1">
+    <row r="27" spans="1:11" ht="24.95" customHeight="1">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -3358,7 +3382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="24.9" customHeight="1">
+    <row r="28" spans="1:11" ht="24.95" customHeight="1">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -3395,7 +3419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="24.9" customHeight="1">
+    <row r="29" spans="1:11" ht="24.95" customHeight="1">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -3432,7 +3456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="24.9" customHeight="1">
+    <row r="30" spans="1:11" ht="24.95" customHeight="1">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -3469,7 +3493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="24.9" customHeight="1">
+    <row r="31" spans="1:11" ht="24.95" customHeight="1">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -3506,14 +3530,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="24.9" customHeight="1">
+    <row r="32" spans="1:11" ht="24.95" customHeight="1">
       <c r="A32" s="2">
         <v>28</v>
       </c>
       <c r="B32" s="4">
         <v>45603</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="6">
@@ -3543,14 +3567,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="24.9" customHeight="1">
+    <row r="33" spans="1:11" ht="24.95" customHeight="1">
       <c r="A33" s="2">
         <v>29</v>
       </c>
       <c r="B33" s="4">
         <v>45604</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="D33" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3578,14 +3604,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="24.9" customHeight="1">
+    <row r="34" spans="1:11" ht="24.95" customHeight="1">
       <c r="A34" s="2">
         <v>30</v>
       </c>
       <c r="B34" s="4">
         <v>45605</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D34" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3594,7 +3622,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>28</v>
       </c>
       <c r="G34" s="7">
@@ -3613,14 +3641,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="24.9" customHeight="1">
+    <row r="35" spans="1:11" ht="24.95" customHeight="1">
       <c r="A35" s="2">
         <v>31</v>
       </c>
       <c r="B35" s="4">
         <v>45606</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="D35" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3629,7 +3659,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>29</v>
       </c>
       <c r="G35" s="7">
@@ -3648,7 +3678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="24.9" customHeight="1">
+    <row r="36" spans="1:11" ht="24.95" customHeight="1">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -3683,7 +3713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="24.9" customHeight="1">
+    <row r="37" spans="1:11" ht="24.95" customHeight="1">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -3718,7 +3748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="24.9" customHeight="1">
+    <row r="38" spans="1:11" ht="24.95" customHeight="1">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -3753,7 +3783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="24.9" customHeight="1">
+    <row r="39" spans="1:11" ht="24.95" customHeight="1">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -3788,7 +3818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="24.9" customHeight="1">
+    <row r="40" spans="1:11" ht="24.95" customHeight="1">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -3823,7 +3853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="24.9" customHeight="1">
+    <row r="41" spans="1:11" ht="24.95" customHeight="1">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -3858,7 +3888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="24.9" customHeight="1">
+    <row r="42" spans="1:11" ht="24.95" customHeight="1">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -3893,7 +3923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="24.9" customHeight="1">
+    <row r="43" spans="1:11" ht="24.95" customHeight="1">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -3928,7 +3958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="24.9" customHeight="1">
+    <row r="44" spans="1:11" ht="24.95" customHeight="1">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -3963,7 +3993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="24.9" customHeight="1">
+    <row r="45" spans="1:11" ht="24.95" customHeight="1">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -3998,7 +4028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="24.9" customHeight="1">
+    <row r="46" spans="1:11" ht="24.95" customHeight="1">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -4033,7 +4063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="24.9" customHeight="1">
+    <row r="47" spans="1:11" ht="24.95" customHeight="1">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -4068,7 +4098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="24.9" customHeight="1">
+    <row r="48" spans="1:11" ht="24.95" customHeight="1">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -4103,7 +4133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="24.9" customHeight="1">
+    <row r="49" spans="1:11" ht="24.95" customHeight="1">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -4138,7 +4168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="24.9" customHeight="1">
+    <row r="50" spans="1:11" ht="24.95" customHeight="1">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -4173,7 +4203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="24.9" customHeight="1">
+    <row r="51" spans="1:11" ht="24.95" customHeight="1">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -4208,7 +4238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="24.9" customHeight="1">
+    <row r="52" spans="1:11" ht="24.95" customHeight="1">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -4243,7 +4273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="24.9" customHeight="1">
+    <row r="53" spans="1:11" ht="24.95" customHeight="1">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -4278,7 +4308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="24.9" customHeight="1">
+    <row r="54" spans="1:11" ht="24.95" customHeight="1">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -4313,7 +4343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="24.9" customHeight="1">
+    <row r="55" spans="1:11" ht="24.95" customHeight="1">
       <c r="A55" s="2">
         <v>51</v>
       </c>
@@ -4348,7 +4378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="24.9" customHeight="1">
+    <row r="56" spans="1:11" ht="24.95" customHeight="1">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -4383,7 +4413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="24.9" customHeight="1">
+    <row r="57" spans="1:11" ht="24.95" customHeight="1">
       <c r="A57" s="2">
         <v>53</v>
       </c>
@@ -4418,7 +4448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="24.9" customHeight="1">
+    <row r="58" spans="1:11" ht="24.95" customHeight="1">
       <c r="A58" s="2">
         <v>54</v>
       </c>
@@ -4453,7 +4483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="24.9" customHeight="1">
+    <row r="59" spans="1:11" ht="24.95" customHeight="1">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -4488,7 +4518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="24.9" customHeight="1">
+    <row r="60" spans="1:11" ht="24.95" customHeight="1">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -4523,7 +4553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="24.9" customHeight="1">
+    <row r="61" spans="1:11" ht="24.95" customHeight="1">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -4558,7 +4588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="24.9" customHeight="1">
+    <row r="62" spans="1:11" ht="24.95" customHeight="1">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -4593,7 +4623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="24.9" customHeight="1">
+    <row r="63" spans="1:11" ht="24.95" customHeight="1">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -4628,7 +4658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="24.9" customHeight="1">
+    <row r="64" spans="1:11" ht="24.95" customHeight="1">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -4663,7 +4693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="24.9" customHeight="1">
+    <row r="65" spans="1:11" ht="24.95" customHeight="1">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -4698,7 +4728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="24.9" customHeight="1">
+    <row r="66" spans="1:11" ht="24.95" customHeight="1">
       <c r="A66" s="2">
         <v>62</v>
       </c>
@@ -4733,7 +4763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="24.9" customHeight="1">
+    <row r="67" spans="1:11" ht="24.95" customHeight="1">
       <c r="A67" s="2">
         <v>63</v>
       </c>
@@ -4768,7 +4798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="24.9" customHeight="1">
+    <row r="68" spans="1:11" ht="24.95" customHeight="1">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -4803,7 +4833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="24.9" customHeight="1">
+    <row r="69" spans="1:11" ht="24.95" customHeight="1">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -4838,7 +4868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="24.9" customHeight="1">
+    <row r="70" spans="1:11" ht="24.95" customHeight="1">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -4873,7 +4903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="24.9" customHeight="1">
+    <row r="71" spans="1:11" ht="24.95" customHeight="1">
       <c r="A71" s="2">
         <v>67</v>
       </c>
@@ -4908,7 +4938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="24.9" customHeight="1">
+    <row r="72" spans="1:11" ht="24.95" customHeight="1">
       <c r="A72" s="2">
         <v>68</v>
       </c>
@@ -4943,7 +4973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="24.9" customHeight="1">
+    <row r="73" spans="1:11" ht="24.95" customHeight="1">
       <c r="A73" s="2">
         <v>69</v>
       </c>
@@ -4978,7 +5008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="24.9" customHeight="1">
+    <row r="74" spans="1:11" ht="24.95" customHeight="1">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -5013,7 +5043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="24.9" customHeight="1">
+    <row r="75" spans="1:11" ht="24.95" customHeight="1">
       <c r="A75" s="2">
         <v>71</v>
       </c>
@@ -5048,7 +5078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="24.9" customHeight="1">
+    <row r="76" spans="1:11" ht="24.95" customHeight="1">
       <c r="A76" s="2">
         <v>72</v>
       </c>
@@ -5083,7 +5113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="24.9" customHeight="1">
+    <row r="77" spans="1:11" ht="24.95" customHeight="1">
       <c r="A77" s="2">
         <v>73</v>
       </c>
@@ -5118,7 +5148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="24.9" customHeight="1">
+    <row r="78" spans="1:11" ht="24.95" customHeight="1">
       <c r="A78" s="2">
         <v>74</v>
       </c>
@@ -5153,7 +5183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="24.9" customHeight="1">
+    <row r="79" spans="1:11" ht="24.95" customHeight="1">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -5188,7 +5218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="24.9" customHeight="1">
+    <row r="80" spans="1:11" ht="24.95" customHeight="1">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -5223,7 +5253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="24.9" customHeight="1">
+    <row r="81" spans="1:11" ht="24.95" customHeight="1">
       <c r="A81" s="2">
         <v>77</v>
       </c>
@@ -5258,7 +5288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="24.9" customHeight="1">
+    <row r="82" spans="1:11" ht="24.95" customHeight="1">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -5293,7 +5323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="24.9" customHeight="1">
+    <row r="83" spans="1:11" ht="24.95" customHeight="1">
       <c r="A83" s="2">
         <v>79</v>
       </c>
@@ -5328,7 +5358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="24.9" customHeight="1">
+    <row r="84" spans="1:11" ht="24.95" customHeight="1">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -5363,7 +5393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="24.9" customHeight="1">
+    <row r="85" spans="1:11" ht="24.95" customHeight="1">
       <c r="A85" s="2">
         <v>81</v>
       </c>
@@ -5398,7 +5428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="24.9" customHeight="1">
+    <row r="86" spans="1:11" ht="24.95" customHeight="1">
       <c r="A86" s="2">
         <v>82</v>
       </c>
@@ -5433,7 +5463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="24.9" customHeight="1">
+    <row r="87" spans="1:11" ht="24.95" customHeight="1">
       <c r="A87" s="2">
         <v>83</v>
       </c>
@@ -5468,7 +5498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="24.9" customHeight="1">
+    <row r="88" spans="1:11" ht="24.95" customHeight="1">
       <c r="A88" s="2">
         <v>84</v>
       </c>
@@ -5503,7 +5533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="24.9" customHeight="1">
+    <row r="89" spans="1:11" ht="24.95" customHeight="1">
       <c r="A89" s="2">
         <v>85</v>
       </c>
@@ -5538,7 +5568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="24.9" customHeight="1">
+    <row r="90" spans="1:11" ht="24.95" customHeight="1">
       <c r="A90" s="2">
         <v>86</v>
       </c>
@@ -5573,7 +5603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="24.9" customHeight="1">
+    <row r="91" spans="1:11" ht="24.95" customHeight="1">
       <c r="A91" s="2">
         <v>87</v>
       </c>
@@ -5608,7 +5638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="24.9" customHeight="1">
+    <row r="92" spans="1:11" ht="24.95" customHeight="1">
       <c r="A92" s="2">
         <v>88</v>
       </c>
@@ -5643,7 +5673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="24.9" customHeight="1">
+    <row r="93" spans="1:11" ht="24.95" customHeight="1">
       <c r="A93" s="2">
         <v>89</v>
       </c>
@@ -5678,7 +5708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="24.9" customHeight="1">
+    <row r="94" spans="1:11" ht="24.95" customHeight="1">
       <c r="A94" s="2">
         <v>90</v>
       </c>
@@ -5713,7 +5743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="24.9" customHeight="1">
+    <row r="95" spans="1:11" ht="24.95" customHeight="1">
       <c r="A95" s="2">
         <v>91</v>
       </c>
@@ -5748,7 +5778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="24.9" customHeight="1">
+    <row r="96" spans="1:11" ht="24.95" customHeight="1">
       <c r="A96" s="2">
         <v>92</v>
       </c>
@@ -5783,7 +5813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="24.9" customHeight="1">
+    <row r="97" spans="1:11" ht="24.95" customHeight="1">
       <c r="A97" s="2">
         <v>93</v>
       </c>
@@ -5818,7 +5848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="24.9" customHeight="1">
+    <row r="98" spans="1:11" ht="24.95" customHeight="1">
       <c r="A98" s="2">
         <v>94</v>
       </c>
@@ -5853,7 +5883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="24.9" customHeight="1">
+    <row r="99" spans="1:11" ht="24.95" customHeight="1">
       <c r="A99" s="2">
         <v>95</v>
       </c>
@@ -5888,7 +5918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="24.9" customHeight="1">
+    <row r="100" spans="1:11" ht="24.95" customHeight="1">
       <c r="A100" s="2">
         <v>96</v>
       </c>
@@ -5923,7 +5953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="24.9" customHeight="1">
+    <row r="101" spans="1:11" ht="24.95" customHeight="1">
       <c r="A101" s="2">
         <v>97</v>
       </c>
@@ -5958,7 +5988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="24.9" customHeight="1">
+    <row r="102" spans="1:11" ht="24.95" customHeight="1">
       <c r="A102" s="2">
         <v>98</v>
       </c>
@@ -5993,7 +6023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="24.9" customHeight="1">
+    <row r="103" spans="1:11" ht="24.95" customHeight="1">
       <c r="A103" s="2">
         <v>99</v>
       </c>
@@ -6028,7 +6058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="24.9" customHeight="1">
+    <row r="104" spans="1:11" ht="24.95" customHeight="1">
       <c r="A104" s="2">
         <v>100</v>
       </c>
@@ -6063,7 +6093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="24.9" customHeight="1">
+    <row r="105" spans="1:11" ht="24.95" customHeight="1">
       <c r="A105" s="2">
         <v>101</v>
       </c>
@@ -6098,7 +6128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="24.9" customHeight="1">
+    <row r="106" spans="1:11" ht="24.95" customHeight="1">
       <c r="A106" s="2">
         <v>102</v>
       </c>
@@ -6133,7 +6163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="24.9" customHeight="1">
+    <row r="107" spans="1:11" ht="24.95" customHeight="1">
       <c r="A107" s="2">
         <v>103</v>
       </c>
@@ -6168,7 +6198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="24.9" customHeight="1">
+    <row r="108" spans="1:11" ht="24.95" customHeight="1">
       <c r="A108" s="2">
         <v>104</v>
       </c>
@@ -6203,7 +6233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="24.9" customHeight="1">
+    <row r="109" spans="1:11" ht="24.95" customHeight="1">
       <c r="A109" s="2">
         <v>105</v>
       </c>
@@ -6238,7 +6268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="24.9" customHeight="1">
+    <row r="110" spans="1:11" ht="24.95" customHeight="1">
       <c r="A110" s="2">
         <v>106</v>
       </c>
@@ -6273,7 +6303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="24.9" customHeight="1">
+    <row r="111" spans="1:11" ht="24.95" customHeight="1">
       <c r="A111" s="2">
         <v>107</v>
       </c>
@@ -6308,7 +6338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="24.9" customHeight="1">
+    <row r="112" spans="1:11" ht="24.95" customHeight="1">
       <c r="A112" s="2">
         <v>108</v>
       </c>
@@ -6343,7 +6373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="24.9" customHeight="1">
+    <row r="113" spans="1:11" ht="24.95" customHeight="1">
       <c r="A113" s="2">
         <v>109</v>
       </c>
@@ -6378,7 +6408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="24.9" customHeight="1">
+    <row r="114" spans="1:11" ht="24.95" customHeight="1">
       <c r="A114" s="2">
         <v>110</v>
       </c>
@@ -6413,7 +6443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="24.9" customHeight="1">
+    <row r="115" spans="1:11" ht="24.95" customHeight="1">
       <c r="A115" s="2">
         <v>111</v>
       </c>
@@ -6448,7 +6478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="24.9" customHeight="1">
+    <row r="116" spans="1:11" ht="24.95" customHeight="1">
       <c r="A116" s="2">
         <v>112</v>
       </c>
@@ -6483,7 +6513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="24.9" customHeight="1">
+    <row r="117" spans="1:11" ht="24.95" customHeight="1">
       <c r="A117" s="2">
         <v>113</v>
       </c>
@@ -6518,7 +6548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="24.9" customHeight="1">
+    <row r="118" spans="1:11" ht="24.95" customHeight="1">
       <c r="A118" s="2">
         <v>114</v>
       </c>
@@ -6553,7 +6583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="24.9" customHeight="1">
+    <row r="119" spans="1:11" ht="24.95" customHeight="1">
       <c r="A119" s="2">
         <v>115</v>
       </c>
@@ -6588,7 +6618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="24.9" customHeight="1">
+    <row r="120" spans="1:11" ht="24.95" customHeight="1">
       <c r="A120" s="2">
         <v>116</v>
       </c>
@@ -6623,7 +6653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="24.9" customHeight="1">
+    <row r="121" spans="1:11" ht="24.95" customHeight="1">
       <c r="A121" s="2">
         <v>117</v>
       </c>
@@ -6658,7 +6688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="24.9" customHeight="1">
+    <row r="122" spans="1:11" ht="24.95" customHeight="1">
       <c r="A122" s="2">
         <v>118</v>
       </c>
@@ -6693,7 +6723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="24.9" customHeight="1">
+    <row r="123" spans="1:11" ht="24.95" customHeight="1">
       <c r="A123" s="2">
         <v>119</v>
       </c>
@@ -6728,7 +6758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="24.9" customHeight="1">
+    <row r="124" spans="1:11" ht="24.95" customHeight="1">
       <c r="A124" s="2">
         <v>120</v>
       </c>
@@ -6763,7 +6793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="24.9" customHeight="1">
+    <row r="125" spans="1:11" ht="24.95" customHeight="1">
       <c r="A125" s="2">
         <v>121</v>
       </c>
@@ -6798,7 +6828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="24.9" customHeight="1">
+    <row r="126" spans="1:11" ht="24.95" customHeight="1">
       <c r="A126" s="2">
         <v>122</v>
       </c>
@@ -6833,7 +6863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="24.9" customHeight="1">
+    <row r="127" spans="1:11" ht="24.95" customHeight="1">
       <c r="A127" s="2">
         <v>123</v>
       </c>
@@ -6868,7 +6898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="24.9" customHeight="1">
+    <row r="128" spans="1:11" ht="24.95" customHeight="1">
       <c r="A128" s="2">
         <v>124</v>
       </c>
@@ -6903,7 +6933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="24.9" customHeight="1">
+    <row r="129" spans="1:11" ht="24.95" customHeight="1">
       <c r="A129" s="2">
         <v>125</v>
       </c>
@@ -6938,7 +6968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="24.9" customHeight="1">
+    <row r="130" spans="1:11" ht="24.95" customHeight="1">
       <c r="A130" s="2">
         <v>126</v>
       </c>
@@ -6973,7 +7003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="24.9" customHeight="1">
+    <row r="131" spans="1:11" ht="24.95" customHeight="1">
       <c r="A131" s="2">
         <v>127</v>
       </c>
@@ -7008,7 +7038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="24.9" customHeight="1">
+    <row r="132" spans="1:11" ht="24.95" customHeight="1">
       <c r="A132" s="2">
         <v>128</v>
       </c>
@@ -7043,7 +7073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="24.9" customHeight="1">
+    <row r="133" spans="1:11" ht="24.95" customHeight="1">
       <c r="A133" s="2">
         <v>129</v>
       </c>
@@ -7078,7 +7108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="24.9" customHeight="1">
+    <row r="134" spans="1:11" ht="24.95" customHeight="1">
       <c r="A134" s="2">
         <v>130</v>
       </c>
@@ -7113,7 +7143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="24.9" customHeight="1">
+    <row r="135" spans="1:11" ht="24.95" customHeight="1">
       <c r="A135" s="2">
         <v>131</v>
       </c>
@@ -7148,7 +7178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="24.9" customHeight="1">
+    <row r="136" spans="1:11" ht="24.95" customHeight="1">
       <c r="A136" s="2">
         <v>132</v>
       </c>
@@ -7183,7 +7213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="24.9" customHeight="1">
+    <row r="137" spans="1:11" ht="24.95" customHeight="1">
       <c r="A137" s="2">
         <v>133</v>
       </c>
@@ -7218,7 +7248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="24.9" customHeight="1">
+    <row r="138" spans="1:11" ht="24.95" customHeight="1">
       <c r="A138" s="2">
         <v>134</v>
       </c>
@@ -7253,7 +7283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="24.9" customHeight="1">
+    <row r="139" spans="1:11" ht="24.95" customHeight="1">
       <c r="A139" s="2">
         <v>135</v>
       </c>
@@ -7288,7 +7318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="24.9" customHeight="1">
+    <row r="140" spans="1:11" ht="24.95" customHeight="1">
       <c r="A140" s="2">
         <v>136</v>
       </c>
@@ -7323,7 +7353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="24.9" customHeight="1">
+    <row r="141" spans="1:11" ht="24.95" customHeight="1">
       <c r="A141" s="2">
         <v>137</v>
       </c>
@@ -7358,7 +7388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="24.9" customHeight="1">
+    <row r="142" spans="1:11" ht="24.95" customHeight="1">
       <c r="A142" s="2">
         <v>138</v>
       </c>
@@ -7393,7 +7423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="24.9" customHeight="1">
+    <row r="143" spans="1:11" ht="24.95" customHeight="1">
       <c r="A143" s="2">
         <v>139</v>
       </c>
@@ -7428,7 +7458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="24.9" customHeight="1">
+    <row r="144" spans="1:11" ht="24.95" customHeight="1">
       <c r="A144" s="2">
         <v>140</v>
       </c>
@@ -7463,7 +7493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="24.9" customHeight="1">
+    <row r="145" spans="1:11" ht="24.95" customHeight="1">
       <c r="A145" s="2">
         <v>141</v>
       </c>
@@ -7498,7 +7528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="24.9" customHeight="1">
+    <row r="146" spans="1:11" ht="24.95" customHeight="1">
       <c r="A146" s="2">
         <v>142</v>
       </c>
@@ -7533,7 +7563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="24.9" customHeight="1">
+    <row r="147" spans="1:11" ht="24.95" customHeight="1">
       <c r="A147" s="2">
         <v>143</v>
       </c>
@@ -7568,7 +7598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="24.9" customHeight="1">
+    <row r="148" spans="1:11" ht="24.95" customHeight="1">
       <c r="A148" s="2">
         <v>144</v>
       </c>
@@ -7603,7 +7633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="24.9" customHeight="1">
+    <row r="149" spans="1:11" ht="24.95" customHeight="1">
       <c r="A149" s="2">
         <v>145</v>
       </c>
@@ -7638,7 +7668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="24.9" customHeight="1">
+    <row r="150" spans="1:11" ht="24.95" customHeight="1">
       <c r="A150" s="2">
         <v>146</v>
       </c>
@@ -7673,7 +7703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="24.9" customHeight="1">
+    <row r="151" spans="1:11" ht="24.95" customHeight="1">
       <c r="A151" s="2">
         <v>147</v>
       </c>
@@ -7708,7 +7738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="24.9" customHeight="1">
+    <row r="152" spans="1:11" ht="24.95" customHeight="1">
       <c r="A152" s="2">
         <v>148</v>
       </c>
@@ -7743,7 +7773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="24.9" customHeight="1">
+    <row r="153" spans="1:11" ht="24.95" customHeight="1">
       <c r="A153" s="2">
         <v>149</v>
       </c>
@@ -7778,7 +7808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="24.9" customHeight="1">
+    <row r="154" spans="1:11" ht="24.95" customHeight="1">
       <c r="A154" s="2">
         <v>150</v>
       </c>
@@ -7813,7 +7843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="24.9" customHeight="1">
+    <row r="155" spans="1:11" ht="24.95" customHeight="1">
       <c r="A155" s="2">
         <v>151</v>
       </c>
@@ -7848,7 +7878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="24.9" customHeight="1">
+    <row r="156" spans="1:11" ht="24.95" customHeight="1">
       <c r="A156" s="2">
         <v>152</v>
       </c>
@@ -7883,7 +7913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="24.9" customHeight="1">
+    <row r="157" spans="1:11" ht="24.95" customHeight="1">
       <c r="A157" s="2">
         <v>153</v>
       </c>
@@ -7918,7 +7948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="24.9" customHeight="1">
+    <row r="158" spans="1:11" ht="24.95" customHeight="1">
       <c r="A158" s="2">
         <v>154</v>
       </c>
@@ -7953,7 +7983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="24.9" customHeight="1">
+    <row r="159" spans="1:11" ht="24.95" customHeight="1">
       <c r="A159" s="2">
         <v>155</v>
       </c>
@@ -7988,7 +8018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="24.9" customHeight="1">
+    <row r="160" spans="1:11" ht="24.95" customHeight="1">
       <c r="A160" s="2">
         <v>156</v>
       </c>
@@ -8023,7 +8053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="24.9" customHeight="1">
+    <row r="161" spans="1:11" ht="24.95" customHeight="1">
       <c r="A161" s="2">
         <v>157</v>
       </c>
@@ -8058,7 +8088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="24.9" customHeight="1">
+    <row r="162" spans="1:11" ht="24.95" customHeight="1">
       <c r="A162" s="2">
         <v>158</v>
       </c>
@@ -8093,7 +8123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="24.9" customHeight="1">
+    <row r="163" spans="1:11" ht="24.95" customHeight="1">
       <c r="A163" s="2">
         <v>159</v>
       </c>
@@ -8128,7 +8158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="24.9" customHeight="1">
+    <row r="164" spans="1:11" ht="24.95" customHeight="1">
       <c r="A164" s="2">
         <v>160</v>
       </c>
@@ -8163,7 +8193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="24.9" customHeight="1">
+    <row r="165" spans="1:11" ht="24.95" customHeight="1">
       <c r="A165" s="2">
         <v>161</v>
       </c>
@@ -8198,7 +8228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="24.9" customHeight="1">
+    <row r="166" spans="1:11" ht="24.95" customHeight="1">
       <c r="A166" s="2">
         <v>162</v>
       </c>
@@ -8233,7 +8263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="24.9" customHeight="1">
+    <row r="167" spans="1:11" ht="24.95" customHeight="1">
       <c r="A167" s="2">
         <v>163</v>
       </c>
@@ -8268,7 +8298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="24.9" customHeight="1">
+    <row r="168" spans="1:11" ht="24.95" customHeight="1">
       <c r="A168" s="2">
         <v>164</v>
       </c>
@@ -8303,7 +8333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="24.9" customHeight="1">
+    <row r="169" spans="1:11" ht="24.95" customHeight="1">
       <c r="A169" s="2">
         <v>165</v>
       </c>
@@ -8338,7 +8368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="24.9" customHeight="1">
+    <row r="170" spans="1:11" ht="24.95" customHeight="1">
       <c r="A170" s="2">
         <v>166</v>
       </c>
@@ -8373,7 +8403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="24.9" customHeight="1">
+    <row r="171" spans="1:11" ht="24.95" customHeight="1">
       <c r="A171" s="2">
         <v>167</v>
       </c>
@@ -8408,7 +8438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="24.9" customHeight="1">
+    <row r="172" spans="1:11" ht="24.95" customHeight="1">
       <c r="A172" s="2">
         <v>168</v>
       </c>
@@ -8443,7 +8473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="24.9" customHeight="1">
+    <row r="173" spans="1:11" ht="24.95" customHeight="1">
       <c r="A173" s="2">
         <v>169</v>
       </c>
@@ -8478,7 +8508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="24.9" customHeight="1">
+    <row r="174" spans="1:11" ht="24.95" customHeight="1">
       <c r="A174" s="2">
         <v>170</v>
       </c>
@@ -8513,7 +8543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="24.9" customHeight="1">
+    <row r="175" spans="1:11" ht="24.95" customHeight="1">
       <c r="A175" s="2">
         <v>171</v>
       </c>
@@ -8548,7 +8578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="24.9" customHeight="1">
+    <row r="176" spans="1:11" ht="24.95" customHeight="1">
       <c r="A176" s="2">
         <v>172</v>
       </c>
@@ -8583,7 +8613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="24.9" customHeight="1">
+    <row r="177" spans="1:11" ht="24.95" customHeight="1">
       <c r="A177" s="2">
         <v>173</v>
       </c>
@@ -8618,7 +8648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="24.9" customHeight="1">
+    <row r="178" spans="1:11" ht="24.95" customHeight="1">
       <c r="A178" s="2">
         <v>174</v>
       </c>
@@ -8653,7 +8683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="24.9" customHeight="1">
+    <row r="179" spans="1:11" ht="24.95" customHeight="1">
       <c r="A179" s="2">
         <v>175</v>
       </c>
@@ -8688,7 +8718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="24.9" customHeight="1">
+    <row r="180" spans="1:11" ht="24.95" customHeight="1">
       <c r="A180" s="2">
         <v>176</v>
       </c>
@@ -8723,7 +8753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="24.9" customHeight="1">
+    <row r="181" spans="1:11" ht="24.95" customHeight="1">
       <c r="A181" s="2">
         <v>177</v>
       </c>
@@ -8758,7 +8788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="24.9" customHeight="1">
+    <row r="182" spans="1:11" ht="24.95" customHeight="1">
       <c r="A182" s="2">
         <v>178</v>
       </c>
@@ -8793,7 +8823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="24.9" customHeight="1">
+    <row r="183" spans="1:11" ht="24.95" customHeight="1">
       <c r="A183" s="2">
         <v>179</v>
       </c>
@@ -8828,7 +8858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="24.9" customHeight="1">
+    <row r="184" spans="1:11" ht="24.95" customHeight="1">
       <c r="A184" s="2">
         <v>180</v>
       </c>
@@ -8863,7 +8893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="24.9" customHeight="1">
+    <row r="185" spans="1:11" ht="24.95" customHeight="1">
       <c r="A185" s="2">
         <v>181</v>
       </c>
@@ -8898,7 +8928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="24.9" customHeight="1">
+    <row r="186" spans="1:11" ht="24.95" customHeight="1">
       <c r="A186" s="2">
         <v>182</v>
       </c>
@@ -8933,7 +8963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="24.9" customHeight="1">
+    <row r="187" spans="1:11" ht="24.95" customHeight="1">
       <c r="A187" s="2">
         <v>183</v>
       </c>
@@ -8968,7 +8998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="24.9" customHeight="1">
+    <row r="188" spans="1:11" ht="24.95" customHeight="1">
       <c r="A188" s="2">
         <v>184</v>
       </c>
@@ -9003,7 +9033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="24.9" customHeight="1">
+    <row r="189" spans="1:11" ht="24.95" customHeight="1">
       <c r="A189" s="2">
         <v>185</v>
       </c>
@@ -9038,7 +9068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="24.9" customHeight="1">
+    <row r="190" spans="1:11" ht="24.95" customHeight="1">
       <c r="A190" s="2">
         <v>186</v>
       </c>
@@ -9073,7 +9103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="24.9" customHeight="1">
+    <row r="191" spans="1:11" ht="24.95" customHeight="1">
       <c r="A191" s="2">
         <v>187</v>
       </c>
@@ -9108,7 +9138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="24.9" customHeight="1">
+    <row r="192" spans="1:11" ht="24.95" customHeight="1">
       <c r="A192" s="2">
         <v>188</v>
       </c>
@@ -9143,7 +9173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="24.9" customHeight="1">
+    <row r="193" spans="1:11" ht="24.95" customHeight="1">
       <c r="A193" s="2">
         <v>189</v>
       </c>
@@ -9178,7 +9208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="24.9" customHeight="1">
+    <row r="194" spans="1:11" ht="24.95" customHeight="1">
       <c r="A194" s="2">
         <v>190</v>
       </c>
@@ -9213,7 +9243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="24.9" customHeight="1">
+    <row r="195" spans="1:11" ht="24.95" customHeight="1">
       <c r="A195" s="2">
         <v>191</v>
       </c>
@@ -9248,7 +9278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="24.9" customHeight="1">
+    <row r="196" spans="1:11" ht="24.95" customHeight="1">
       <c r="A196" s="2">
         <v>192</v>
       </c>
@@ -9283,7 +9313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="24.9" customHeight="1">
+    <row r="197" spans="1:11" ht="24.95" customHeight="1">
       <c r="A197" s="2">
         <v>193</v>
       </c>
@@ -9318,7 +9348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="24.9" customHeight="1">
+    <row r="198" spans="1:11" ht="24.95" customHeight="1">
       <c r="A198" s="2">
         <v>194</v>
       </c>
@@ -9353,7 +9383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="24.9" customHeight="1">
+    <row r="199" spans="1:11" ht="24.95" customHeight="1">
       <c r="A199" s="2">
         <v>195</v>
       </c>
@@ -9388,7 +9418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="24.9" customHeight="1">
+    <row r="200" spans="1:11" ht="24.95" customHeight="1">
       <c r="A200" s="2">
         <v>196</v>
       </c>
@@ -9423,7 +9453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="24.9" customHeight="1">
+    <row r="201" spans="1:11" ht="24.95" customHeight="1">
       <c r="A201" s="2">
         <v>197</v>
       </c>
@@ -9458,7 +9488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="24.9" customHeight="1">
+    <row r="202" spans="1:11" ht="24.95" customHeight="1">
       <c r="A202" s="2">
         <v>198</v>
       </c>
@@ -9493,7 +9523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="24.9" customHeight="1">
+    <row r="203" spans="1:11" ht="24.95" customHeight="1">
       <c r="A203" s="2">
         <v>199</v>
       </c>
@@ -9528,7 +9558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="24.9" customHeight="1">
+    <row r="204" spans="1:11" ht="24.95" customHeight="1">
       <c r="A204" s="2">
         <v>200</v>
       </c>
@@ -9563,7 +9593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="24.9" customHeight="1">
+    <row r="205" spans="1:11" ht="24.95" customHeight="1">
       <c r="A205" s="2">
         <v>201</v>
       </c>
@@ -9598,7 +9628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="24.9" customHeight="1">
+    <row r="206" spans="1:11" ht="24.95" customHeight="1">
       <c r="A206" s="2">
         <v>202</v>
       </c>
@@ -9633,7 +9663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="24.9" customHeight="1">
+    <row r="207" spans="1:11" ht="24.95" customHeight="1">
       <c r="A207" s="2">
         <v>203</v>
       </c>
@@ -9668,7 +9698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="24.9" customHeight="1">
+    <row r="208" spans="1:11" ht="24.95" customHeight="1">
       <c r="A208" s="2">
         <v>204</v>
       </c>
@@ -9703,7 +9733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="24.9" customHeight="1">
+    <row r="209" spans="1:11" ht="24.95" customHeight="1">
       <c r="A209" s="2">
         <v>205</v>
       </c>
@@ -9738,7 +9768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="24.9" customHeight="1">
+    <row r="210" spans="1:11" ht="24.95" customHeight="1">
       <c r="A210" s="2">
         <v>206</v>
       </c>
@@ -9773,7 +9803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="24.9" customHeight="1">
+    <row r="211" spans="1:11" ht="24.95" customHeight="1">
       <c r="A211" s="2">
         <v>207</v>
       </c>
@@ -9808,7 +9838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="24.9" customHeight="1">
+    <row r="212" spans="1:11" ht="24.95" customHeight="1">
       <c r="A212" s="2">
         <v>208</v>
       </c>
@@ -9843,7 +9873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="24.9" customHeight="1">
+    <row r="213" spans="1:11" ht="24.95" customHeight="1">
       <c r="A213" s="2">
         <v>209</v>
       </c>
@@ -9878,7 +9908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="24.9" customHeight="1">
+    <row r="214" spans="1:11" ht="24.95" customHeight="1">
       <c r="A214" s="2">
         <v>210</v>
       </c>
@@ -9913,7 +9943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="24.9" customHeight="1">
+    <row r="215" spans="1:11" ht="24.95" customHeight="1">
       <c r="A215" s="2">
         <v>211</v>
       </c>
@@ -9948,7 +9978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="24.9" customHeight="1">
+    <row r="216" spans="1:11" ht="24.95" customHeight="1">
       <c r="A216" s="2">
         <v>212</v>
       </c>
@@ -9983,7 +10013,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="24.9" customHeight="1">
+    <row r="217" spans="1:11" ht="24.95" customHeight="1">
       <c r="A217" s="2">
         <v>213</v>
       </c>
@@ -10018,7 +10048,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="24.9" customHeight="1">
+    <row r="218" spans="1:11" ht="24.95" customHeight="1">
       <c r="A218" s="2">
         <v>214</v>
       </c>
@@ -10053,7 +10083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="24.9" customHeight="1">
+    <row r="219" spans="1:11" ht="24.95" customHeight="1">
       <c r="A219" s="2">
         <v>215</v>
       </c>
@@ -10088,7 +10118,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="24.9" customHeight="1">
+    <row r="220" spans="1:11" ht="24.95" customHeight="1">
       <c r="A220" s="2">
         <v>216</v>
       </c>
@@ -10123,7 +10153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="24.9" customHeight="1">
+    <row r="221" spans="1:11" ht="24.95" customHeight="1">
       <c r="A221" s="2">
         <v>217</v>
       </c>
@@ -10158,7 +10188,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="24.9" customHeight="1">
+    <row r="222" spans="1:11" ht="24.95" customHeight="1">
       <c r="A222" s="2">
         <v>218</v>
       </c>
@@ -10193,7 +10223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="24.9" customHeight="1">
+    <row r="223" spans="1:11" ht="24.95" customHeight="1">
       <c r="A223" s="2">
         <v>219</v>
       </c>
@@ -10228,7 +10258,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="24.9" customHeight="1">
+    <row r="224" spans="1:11" ht="24.95" customHeight="1">
       <c r="A224" s="2">
         <v>220</v>
       </c>
@@ -10263,7 +10293,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="24.9" customHeight="1">
+    <row r="225" spans="1:11" ht="24.95" customHeight="1">
       <c r="A225" s="2">
         <v>221</v>
       </c>
@@ -10298,7 +10328,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="24.9" customHeight="1">
+    <row r="226" spans="1:11" ht="24.95" customHeight="1">
       <c r="A226" s="2">
         <v>222</v>
       </c>
@@ -10333,7 +10363,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="24.9" customHeight="1">
+    <row r="227" spans="1:11" ht="24.95" customHeight="1">
       <c r="A227" s="2">
         <v>223</v>
       </c>
@@ -10368,7 +10398,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="24.9" customHeight="1">
+    <row r="228" spans="1:11" ht="24.95" customHeight="1">
       <c r="A228" s="2">
         <v>224</v>
       </c>
@@ -10403,7 +10433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="24.9" customHeight="1">
+    <row r="229" spans="1:11" ht="24.95" customHeight="1">
       <c r="A229" s="2">
         <v>225</v>
       </c>
@@ -10438,7 +10468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="24.9" customHeight="1">
+    <row r="230" spans="1:11" ht="24.95" customHeight="1">
       <c r="A230" s="2">
         <v>226</v>
       </c>
@@ -10473,7 +10503,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="24.9" customHeight="1">
+    <row r="231" spans="1:11" ht="24.95" customHeight="1">
       <c r="A231" s="2">
         <v>227</v>
       </c>
@@ -10508,7 +10538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="24.9" customHeight="1">
+    <row r="232" spans="1:11" ht="24.95" customHeight="1">
       <c r="A232" s="2">
         <v>228</v>
       </c>
@@ -10543,7 +10573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="24.9" customHeight="1">
+    <row r="233" spans="1:11" ht="24.95" customHeight="1">
       <c r="A233" s="2">
         <v>229</v>
       </c>
@@ -10578,7 +10608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="24.9" customHeight="1">
+    <row r="234" spans="1:11" ht="24.95" customHeight="1">
       <c r="A234" s="2">
         <v>230</v>
       </c>
@@ -10613,7 +10643,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="24.9" customHeight="1">
+    <row r="235" spans="1:11" ht="24.95" customHeight="1">
       <c r="A235" s="2">
         <v>231</v>
       </c>
@@ -10648,7 +10678,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="24.9" customHeight="1">
+    <row r="236" spans="1:11" ht="24.95" customHeight="1">
       <c r="A236" s="2">
         <v>232</v>
       </c>
@@ -10683,7 +10713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="24.9" customHeight="1">
+    <row r="237" spans="1:11" ht="24.95" customHeight="1">
       <c r="A237" s="2">
         <v>233</v>
       </c>
@@ -10718,7 +10748,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="24.9" customHeight="1">
+    <row r="238" spans="1:11" ht="24.95" customHeight="1">
       <c r="A238" s="2">
         <v>234</v>
       </c>
@@ -10753,7 +10783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="24.9" customHeight="1">
+    <row r="239" spans="1:11" ht="24.95" customHeight="1">
       <c r="A239" s="2">
         <v>235</v>
       </c>
@@ -10788,7 +10818,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="24.9" customHeight="1">
+    <row r="240" spans="1:11" ht="24.95" customHeight="1">
       <c r="A240" s="2">
         <v>236</v>
       </c>
@@ -10823,7 +10853,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="24.9" customHeight="1">
+    <row r="241" spans="1:11" ht="24.95" customHeight="1">
       <c r="A241" s="2">
         <v>237</v>
       </c>
@@ -10858,7 +10888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="24.9" customHeight="1">
+    <row r="242" spans="1:11" ht="24.95" customHeight="1">
       <c r="A242" s="2">
         <v>238</v>
       </c>
@@ -10893,7 +10923,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="24.9" customHeight="1">
+    <row r="243" spans="1:11" ht="24.95" customHeight="1">
       <c r="A243" s="2">
         <v>239</v>
       </c>
@@ -10928,7 +10958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="24.9" customHeight="1">
+    <row r="244" spans="1:11" ht="24.95" customHeight="1">
       <c r="A244" s="2">
         <v>240</v>
       </c>
@@ -10963,7 +10993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="24.9" customHeight="1">
+    <row r="245" spans="1:11" ht="24.95" customHeight="1">
       <c r="A245" s="2">
         <v>241</v>
       </c>
@@ -10998,7 +11028,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="24.9" customHeight="1">
+    <row r="246" spans="1:11" ht="24.95" customHeight="1">
       <c r="A246" s="2">
         <v>242</v>
       </c>
@@ -11033,7 +11063,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="24.9" customHeight="1">
+    <row r="247" spans="1:11" ht="24.95" customHeight="1">
       <c r="A247" s="2">
         <v>243</v>
       </c>
@@ -11068,7 +11098,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="24.9" customHeight="1">
+    <row r="248" spans="1:11" ht="24.95" customHeight="1">
       <c r="A248" s="2">
         <v>244</v>
       </c>
@@ -11103,7 +11133,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="24.9" customHeight="1">
+    <row r="249" spans="1:11" ht="24.95" customHeight="1">
       <c r="A249" s="2">
         <v>245</v>
       </c>
@@ -11138,7 +11168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="24.9" customHeight="1">
+    <row r="250" spans="1:11" ht="24.95" customHeight="1">
       <c r="A250" s="2">
         <v>246</v>
       </c>
@@ -11173,7 +11203,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="24.9" customHeight="1">
+    <row r="251" spans="1:11" ht="24.95" customHeight="1">
       <c r="A251" s="2">
         <v>247</v>
       </c>
@@ -11208,7 +11238,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="24.9" customHeight="1">
+    <row r="252" spans="1:11" ht="24.95" customHeight="1">
       <c r="A252" s="2">
         <v>248</v>
       </c>
@@ -11243,7 +11273,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="24.9" customHeight="1">
+    <row r="253" spans="1:11" ht="24.95" customHeight="1">
       <c r="A253" s="2">
         <v>249</v>
       </c>
@@ -11278,7 +11308,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="24.9" customHeight="1">
+    <row r="254" spans="1:11" ht="24.95" customHeight="1">
       <c r="A254" s="2">
         <v>250</v>
       </c>
@@ -11313,7 +11343,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="24.9" customHeight="1">
+    <row r="255" spans="1:11" ht="24.95" customHeight="1">
       <c r="A255" s="2">
         <v>251</v>
       </c>
@@ -11348,7 +11378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="24.9" customHeight="1">
+    <row r="256" spans="1:11" ht="24.95" customHeight="1">
       <c r="A256" s="2">
         <v>252</v>
       </c>
@@ -11383,7 +11413,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="24.9" customHeight="1">
+    <row r="257" spans="1:11" ht="24.95" customHeight="1">
       <c r="A257" s="2">
         <v>253</v>
       </c>
@@ -11418,7 +11448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="24.9" customHeight="1">
+    <row r="258" spans="1:11" ht="24.95" customHeight="1">
       <c r="A258" s="2">
         <v>254</v>
       </c>
@@ -11453,7 +11483,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="24.9" customHeight="1">
+    <row r="259" spans="1:11" ht="24.95" customHeight="1">
       <c r="A259" s="2">
         <v>255</v>
       </c>
@@ -11488,7 +11518,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="24.9" customHeight="1">
+    <row r="260" spans="1:11" ht="24.95" customHeight="1">
       <c r="A260" s="2">
         <v>256</v>
       </c>
@@ -11523,7 +11553,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="24.9" customHeight="1">
+    <row r="261" spans="1:11" ht="24.95" customHeight="1">
       <c r="A261" s="2">
         <v>257</v>
       </c>
@@ -11558,7 +11588,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="24.9" customHeight="1">
+    <row r="262" spans="1:11" ht="24.95" customHeight="1">
       <c r="A262" s="2">
         <v>258</v>
       </c>
@@ -11593,7 +11623,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="24.9" customHeight="1">
+    <row r="263" spans="1:11" ht="24.95" customHeight="1">
       <c r="A263" s="2">
         <v>259</v>
       </c>
@@ -11628,7 +11658,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="24.9" customHeight="1">
+    <row r="264" spans="1:11" ht="24.95" customHeight="1">
       <c r="A264" s="2">
         <v>260</v>
       </c>
@@ -11663,7 +11693,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="24.9" customHeight="1">
+    <row r="265" spans="1:11" ht="24.95" customHeight="1">
       <c r="A265" s="2">
         <v>261</v>
       </c>
@@ -11698,7 +11728,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="24.9" customHeight="1">
+    <row r="266" spans="1:11" ht="24.95" customHeight="1">
       <c r="A266" s="2">
         <v>262</v>
       </c>
@@ -11733,7 +11763,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="24.9" customHeight="1">
+    <row r="267" spans="1:11" ht="24.95" customHeight="1">
       <c r="A267" s="2">
         <v>263</v>
       </c>
@@ -11768,7 +11798,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="24.9" customHeight="1">
+    <row r="268" spans="1:11" ht="24.95" customHeight="1">
       <c r="A268" s="2">
         <v>264</v>
       </c>
@@ -11803,7 +11833,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="24.9" customHeight="1">
+    <row r="269" spans="1:11" ht="24.95" customHeight="1">
       <c r="A269" s="2">
         <v>265</v>
       </c>
@@ -11838,7 +11868,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="24.9" customHeight="1">
+    <row r="270" spans="1:11" ht="24.95" customHeight="1">
       <c r="A270" s="2">
         <v>266</v>
       </c>
@@ -11873,7 +11903,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="24.9" customHeight="1">
+    <row r="271" spans="1:11" ht="24.95" customHeight="1">
       <c r="A271" s="2">
         <v>267</v>
       </c>
@@ -11908,7 +11938,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="24.9" customHeight="1">
+    <row r="272" spans="1:11" ht="24.95" customHeight="1">
       <c r="A272" s="2">
         <v>268</v>
       </c>
@@ -11943,7 +11973,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="24.9" customHeight="1">
+    <row r="273" spans="1:11" ht="24.95" customHeight="1">
       <c r="A273" s="2">
         <v>269</v>
       </c>
@@ -11978,7 +12008,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="24.9" customHeight="1">
+    <row r="274" spans="1:11" ht="24.95" customHeight="1">
       <c r="A274" s="2">
         <v>270</v>
       </c>
@@ -12013,7 +12043,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="24.9" customHeight="1">
+    <row r="275" spans="1:11" ht="24.95" customHeight="1">
       <c r="A275" s="2">
         <v>271</v>
       </c>
@@ -12048,7 +12078,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="24.9" customHeight="1">
+    <row r="276" spans="1:11" ht="24.95" customHeight="1">
       <c r="A276" s="2">
         <v>272</v>
       </c>
@@ -12083,7 +12113,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="24.9" customHeight="1">
+    <row r="277" spans="1:11" ht="24.95" customHeight="1">
       <c r="A277" s="2">
         <v>273</v>
       </c>
@@ -12118,7 +12148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="24.9" customHeight="1">
+    <row r="278" spans="1:11" ht="24.95" customHeight="1">
       <c r="A278" s="2">
         <v>274</v>
       </c>
@@ -12153,7 +12183,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="24.9" customHeight="1">
+    <row r="279" spans="1:11" ht="24.95" customHeight="1">
       <c r="A279" s="2">
         <v>275</v>
       </c>
@@ -12188,7 +12218,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="24.9" customHeight="1">
+    <row r="280" spans="1:11" ht="24.95" customHeight="1">
       <c r="A280" s="2">
         <v>276</v>
       </c>
@@ -12223,7 +12253,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="24.9" customHeight="1">
+    <row r="281" spans="1:11" ht="24.95" customHeight="1">
       <c r="A281" s="2">
         <v>277</v>
       </c>
@@ -12258,7 +12288,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="24.9" customHeight="1">
+    <row r="282" spans="1:11" ht="24.95" customHeight="1">
       <c r="A282" s="2">
         <v>278</v>
       </c>
@@ -12293,7 +12323,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="24.9" customHeight="1">
+    <row r="283" spans="1:11" ht="24.95" customHeight="1">
       <c r="A283" s="2">
         <v>279</v>
       </c>
@@ -12328,7 +12358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="24.9" customHeight="1">
+    <row r="284" spans="1:11" ht="24.95" customHeight="1">
       <c r="A284" s="2">
         <v>280</v>
       </c>
@@ -12363,7 +12393,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="24.9" customHeight="1">
+    <row r="285" spans="1:11" ht="24.95" customHeight="1">
       <c r="A285" s="2">
         <v>281</v>
       </c>
@@ -12398,7 +12428,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="24.9" customHeight="1">
+    <row r="286" spans="1:11" ht="24.95" customHeight="1">
       <c r="A286" s="2">
         <v>282</v>
       </c>
@@ -12433,7 +12463,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="24.9" customHeight="1">
+    <row r="287" spans="1:11" ht="24.95" customHeight="1">
       <c r="A287" s="2">
         <v>283</v>
       </c>
@@ -12468,7 +12498,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="24.9" customHeight="1">
+    <row r="288" spans="1:11" ht="24.95" customHeight="1">
       <c r="A288" s="2">
         <v>284</v>
       </c>
@@ -12503,7 +12533,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="24.9" customHeight="1">
+    <row r="289" spans="1:11" ht="24.95" customHeight="1">
       <c r="A289" s="2">
         <v>285</v>
       </c>
@@ -12538,7 +12568,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="24.9" customHeight="1">
+    <row r="290" spans="1:11" ht="24.95" customHeight="1">
       <c r="A290" s="2">
         <v>286</v>
       </c>
@@ -12573,7 +12603,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="24.9" customHeight="1">
+    <row r="291" spans="1:11" ht="24.95" customHeight="1">
       <c r="A291" s="2">
         <v>287</v>
       </c>
@@ -12608,7 +12638,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="24.9" customHeight="1">
+    <row r="292" spans="1:11" ht="24.95" customHeight="1">
       <c r="A292" s="2">
         <v>288</v>
       </c>
@@ -12643,7 +12673,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="24.9" customHeight="1">
+    <row r="293" spans="1:11" ht="24.95" customHeight="1">
       <c r="A293" s="2">
         <v>289</v>
       </c>
@@ -12678,7 +12708,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="24.9" customHeight="1">
+    <row r="294" spans="1:11" ht="24.95" customHeight="1">
       <c r="A294" s="2">
         <v>290</v>
       </c>
@@ -12713,7 +12743,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="24.9" customHeight="1">
+    <row r="295" spans="1:11" ht="24.95" customHeight="1">
       <c r="A295" s="2">
         <v>291</v>
       </c>
@@ -12748,7 +12778,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="24.9" customHeight="1">
+    <row r="296" spans="1:11" ht="24.95" customHeight="1">
       <c r="A296" s="2">
         <v>292</v>
       </c>
@@ -12783,7 +12813,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="24.9" customHeight="1">
+    <row r="297" spans="1:11" ht="24.95" customHeight="1">
       <c r="A297" s="2">
         <v>293</v>
       </c>
@@ -12818,7 +12848,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="24.9" customHeight="1">
+    <row r="298" spans="1:11" ht="24.95" customHeight="1">
       <c r="A298" s="2">
         <v>294</v>
       </c>
@@ -12853,7 +12883,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="24.9" customHeight="1">
+    <row r="299" spans="1:11" ht="24.95" customHeight="1">
       <c r="A299" s="2">
         <v>295</v>
       </c>
@@ -12888,7 +12918,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="24.9" customHeight="1">
+    <row r="300" spans="1:11" ht="24.95" customHeight="1">
       <c r="A300" s="2">
         <v>296</v>
       </c>
@@ -12923,7 +12953,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="24.9" customHeight="1">
+    <row r="301" spans="1:11" ht="24.95" customHeight="1">
       <c r="A301" s="2">
         <v>297</v>
       </c>
@@ -12958,7 +12988,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="24.9" customHeight="1">
+    <row r="302" spans="1:11" ht="24.95" customHeight="1">
       <c r="A302" s="2">
         <v>298</v>
       </c>
@@ -12993,7 +13023,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="24.9" customHeight="1">
+    <row r="303" spans="1:11" ht="24.95" customHeight="1">
       <c r="A303" s="2">
         <v>299</v>
       </c>
@@ -13028,7 +13058,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="24.9" customHeight="1">
+    <row r="304" spans="1:11" ht="24.95" customHeight="1">
       <c r="A304" s="2">
         <v>300</v>
       </c>
@@ -13063,7 +13093,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="24.9" customHeight="1">
+    <row r="305" spans="1:11" ht="24.95" customHeight="1">
       <c r="A305" s="2">
         <v>301</v>
       </c>
@@ -13098,7 +13128,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="24.9" customHeight="1">
+    <row r="306" spans="1:11" ht="24.95" customHeight="1">
       <c r="A306" s="2">
         <v>302</v>
       </c>
@@ -13133,7 +13163,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="24.9" customHeight="1">
+    <row r="307" spans="1:11" ht="24.95" customHeight="1">
       <c r="A307" s="2">
         <v>303</v>
       </c>
@@ -13168,7 +13198,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="24.9" customHeight="1">
+    <row r="308" spans="1:11" ht="24.95" customHeight="1">
       <c r="A308" s="2">
         <v>304</v>
       </c>
@@ -13203,7 +13233,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="24.9" customHeight="1">
+    <row r="309" spans="1:11" ht="24.95" customHeight="1">
       <c r="A309" s="2">
         <v>305</v>
       </c>
@@ -13238,7 +13268,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="24.9" customHeight="1">
+    <row r="310" spans="1:11" ht="24.95" customHeight="1">
       <c r="A310" s="2">
         <v>306</v>
       </c>
@@ -13273,7 +13303,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="24.9" customHeight="1">
+    <row r="311" spans="1:11" ht="24.95" customHeight="1">
       <c r="A311" s="2">
         <v>307</v>
       </c>
@@ -13308,7 +13338,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="24.9" customHeight="1">
+    <row r="312" spans="1:11" ht="24.95" customHeight="1">
       <c r="A312" s="2">
         <v>308</v>
       </c>
@@ -13343,7 +13373,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="24.9" customHeight="1">
+    <row r="313" spans="1:11" ht="24.95" customHeight="1">
       <c r="A313" s="2">
         <v>309</v>
       </c>
@@ -13378,7 +13408,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="24.9" customHeight="1">
+    <row r="314" spans="1:11" ht="24.95" customHeight="1">
       <c r="A314" s="2">
         <v>310</v>
       </c>
@@ -13413,7 +13443,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="24.9" customHeight="1">
+    <row r="315" spans="1:11" ht="24.95" customHeight="1">
       <c r="A315" s="2">
         <v>311</v>
       </c>
@@ -13448,7 +13478,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="24.9" customHeight="1">
+    <row r="316" spans="1:11" ht="24.95" customHeight="1">
       <c r="A316" s="2">
         <v>312</v>
       </c>
@@ -13483,7 +13513,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="24.9" customHeight="1">
+    <row r="317" spans="1:11" ht="24.95" customHeight="1">
       <c r="A317" s="2">
         <v>313</v>
       </c>
@@ -13518,7 +13548,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="24.9" customHeight="1">
+    <row r="318" spans="1:11" ht="24.95" customHeight="1">
       <c r="A318" s="2">
         <v>314</v>
       </c>
@@ -13553,7 +13583,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="24.9" customHeight="1">
+    <row r="319" spans="1:11" ht="24.95" customHeight="1">
       <c r="A319" s="2">
         <v>315</v>
       </c>
@@ -13588,7 +13618,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="24.9" customHeight="1">
+    <row r="320" spans="1:11" ht="24.95" customHeight="1">
       <c r="A320" s="2">
         <v>316</v>
       </c>
@@ -13623,7 +13653,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="24.9" customHeight="1">
+    <row r="321" spans="1:11" ht="24.95" customHeight="1">
       <c r="A321" s="2">
         <v>317</v>
       </c>
@@ -13658,7 +13688,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="24.9" customHeight="1">
+    <row r="322" spans="1:11" ht="24.95" customHeight="1">
       <c r="A322" s="2">
         <v>318</v>
       </c>
@@ -13693,7 +13723,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="24.9" customHeight="1">
+    <row r="323" spans="1:11" ht="24.95" customHeight="1">
       <c r="A323" s="2">
         <v>319</v>
       </c>
@@ -13728,7 +13758,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="24.9" customHeight="1">
+    <row r="324" spans="1:11" ht="24.95" customHeight="1">
       <c r="A324" s="2">
         <v>320</v>
       </c>
@@ -13763,7 +13793,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="24.9" customHeight="1">
+    <row r="325" spans="1:11" ht="24.95" customHeight="1">
       <c r="A325" s="2">
         <v>321</v>
       </c>
@@ -13798,7 +13828,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="24.9" customHeight="1">
+    <row r="326" spans="1:11" ht="24.95" customHeight="1">
       <c r="A326" s="2">
         <v>322</v>
       </c>
@@ -13833,7 +13863,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="24.9" customHeight="1">
+    <row r="327" spans="1:11" ht="24.95" customHeight="1">
       <c r="A327" s="2">
         <v>323</v>
       </c>
@@ -13868,7 +13898,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="24.9" customHeight="1">
+    <row r="328" spans="1:11" ht="24.95" customHeight="1">
       <c r="A328" s="2">
         <v>324</v>
       </c>
@@ -13903,7 +13933,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="24.9" customHeight="1">
+    <row r="329" spans="1:11" ht="24.95" customHeight="1">
       <c r="A329" s="2">
         <v>325</v>
       </c>
@@ -13938,7 +13968,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="24.9" customHeight="1">
+    <row r="330" spans="1:11" ht="24.95" customHeight="1">
       <c r="A330" s="2">
         <v>326</v>
       </c>
@@ -13973,7 +14003,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="24.9" customHeight="1">
+    <row r="331" spans="1:11" ht="24.95" customHeight="1">
       <c r="A331" s="2">
         <v>327</v>
       </c>
@@ -14008,7 +14038,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="24.9" customHeight="1">
+    <row r="332" spans="1:11" ht="24.95" customHeight="1">
       <c r="A332" s="2">
         <v>328</v>
       </c>
@@ -14043,7 +14073,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="24.9" customHeight="1">
+    <row r="333" spans="1:11" ht="24.95" customHeight="1">
       <c r="A333" s="2">
         <v>329</v>
       </c>
@@ -14078,7 +14108,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="24.9" customHeight="1">
+    <row r="334" spans="1:11" ht="24.95" customHeight="1">
       <c r="A334" s="2">
         <v>330</v>
       </c>
@@ -14113,7 +14143,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="24.9" customHeight="1">
+    <row r="335" spans="1:11" ht="24.95" customHeight="1">
       <c r="A335" s="2">
         <v>331</v>
       </c>
@@ -14148,7 +14178,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="24.9" customHeight="1">
+    <row r="336" spans="1:11" ht="24.95" customHeight="1">
       <c r="A336" s="2">
         <v>332</v>
       </c>
@@ -14183,7 +14213,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="24.9" customHeight="1">
+    <row r="337" spans="1:11" ht="24.95" customHeight="1">
       <c r="A337" s="2">
         <v>333</v>
       </c>
@@ -14218,7 +14248,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="24.9" customHeight="1">
+    <row r="338" spans="1:11" ht="24.95" customHeight="1">
       <c r="A338" s="2">
         <v>334</v>
       </c>
@@ -14253,7 +14283,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="24.9" customHeight="1">
+    <row r="339" spans="1:11" ht="24.95" customHeight="1">
       <c r="A339" s="2">
         <v>335</v>
       </c>
@@ -14288,7 +14318,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="24.9" customHeight="1">
+    <row r="340" spans="1:11" ht="24.95" customHeight="1">
       <c r="A340" s="2">
         <v>336</v>
       </c>
@@ -14323,7 +14353,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="24.9" customHeight="1">
+    <row r="341" spans="1:11" ht="24.95" customHeight="1">
       <c r="A341" s="2">
         <v>337</v>
       </c>
@@ -14358,7 +14388,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="24.9" customHeight="1">
+    <row r="342" spans="1:11" ht="24.95" customHeight="1">
       <c r="A342" s="2">
         <v>338</v>
       </c>
@@ -14393,7 +14423,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="24.9" customHeight="1">
+    <row r="343" spans="1:11" ht="24.95" customHeight="1">
       <c r="A343" s="2">
         <v>339</v>
       </c>
@@ -14428,7 +14458,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="24.9" customHeight="1">
+    <row r="344" spans="1:11" ht="24.95" customHeight="1">
       <c r="A344" s="2">
         <v>340</v>
       </c>
@@ -14463,7 +14493,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="24.9" customHeight="1">
+    <row r="345" spans="1:11" ht="24.95" customHeight="1">
       <c r="A345" s="2">
         <v>341</v>
       </c>
@@ -14498,7 +14528,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="24.9" customHeight="1">
+    <row r="346" spans="1:11" ht="24.95" customHeight="1">
       <c r="A346" s="2">
         <v>342</v>
       </c>
@@ -14533,7 +14563,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="24.9" customHeight="1">
+    <row r="347" spans="1:11" ht="24.95" customHeight="1">
       <c r="A347" s="2">
         <v>343</v>
       </c>
@@ -14568,7 +14598,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="24.9" customHeight="1">
+    <row r="348" spans="1:11" ht="24.95" customHeight="1">
       <c r="A348" s="2">
         <v>344</v>
       </c>
@@ -14603,7 +14633,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="24.9" customHeight="1">
+    <row r="349" spans="1:11" ht="24.95" customHeight="1">
       <c r="A349" s="2">
         <v>345</v>
       </c>
@@ -14638,7 +14668,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="24.9" customHeight="1">
+    <row r="350" spans="1:11" ht="24.95" customHeight="1">
       <c r="A350" s="2">
         <v>346</v>
       </c>
@@ -14673,7 +14703,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="24.9" customHeight="1">
+    <row r="351" spans="1:11" ht="24.95" customHeight="1">
       <c r="A351" s="2">
         <v>347</v>
       </c>
@@ -14708,7 +14738,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="24.9" customHeight="1">
+    <row r="352" spans="1:11" ht="24.95" customHeight="1">
       <c r="A352" s="2">
         <v>348</v>
       </c>
@@ -14743,7 +14773,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="24.9" customHeight="1">
+    <row r="353" spans="1:11" ht="24.95" customHeight="1">
       <c r="A353" s="2">
         <v>349</v>
       </c>
@@ -14778,7 +14808,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="24.9" customHeight="1">
+    <row r="354" spans="1:11" ht="24.95" customHeight="1">
       <c r="A354" s="2">
         <v>350</v>
       </c>
@@ -14813,7 +14843,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="24.9" customHeight="1">
+    <row r="355" spans="1:11" ht="24.95" customHeight="1">
       <c r="A355" s="2">
         <v>351</v>
       </c>
@@ -14848,7 +14878,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="24.9" customHeight="1">
+    <row r="356" spans="1:11" ht="24.95" customHeight="1">
       <c r="A356" s="2">
         <v>352</v>
       </c>
@@ -14883,7 +14913,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="24.9" customHeight="1">
+    <row r="357" spans="1:11" ht="24.95" customHeight="1">
       <c r="A357" s="2">
         <v>353</v>
       </c>
@@ -14918,7 +14948,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="24.9" customHeight="1">
+    <row r="358" spans="1:11" ht="24.95" customHeight="1">
       <c r="A358" s="2">
         <v>354</v>
       </c>
@@ -14953,7 +14983,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="24.9" customHeight="1">
+    <row r="359" spans="1:11" ht="24.95" customHeight="1">
       <c r="A359" s="2">
         <v>355</v>
       </c>
@@ -14988,7 +15018,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="24.9" customHeight="1">
+    <row r="360" spans="1:11" ht="24.95" customHeight="1">
       <c r="A360" s="2">
         <v>356</v>
       </c>
@@ -15023,7 +15053,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="24.9" customHeight="1">
+    <row r="361" spans="1:11" ht="24.95" customHeight="1">
       <c r="A361" s="2">
         <v>357</v>
       </c>
@@ -15058,7 +15088,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="24.9" customHeight="1">
+    <row r="362" spans="1:11" ht="24.95" customHeight="1">
       <c r="A362" s="2">
         <v>358</v>
       </c>
@@ -15093,7 +15123,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="24.9" customHeight="1">
+    <row r="363" spans="1:11" ht="24.95" customHeight="1">
       <c r="A363" s="2">
         <v>359</v>
       </c>
@@ -15128,7 +15158,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="24.9" customHeight="1">
+    <row r="364" spans="1:11" ht="24.95" customHeight="1">
       <c r="A364" s="2">
         <v>360</v>
       </c>
@@ -15163,7 +15193,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="24.9" customHeight="1">
+    <row r="365" spans="1:11" ht="24.95" customHeight="1">
       <c r="A365" s="2">
         <v>361</v>
       </c>
@@ -15198,7 +15228,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="24.9" customHeight="1">
+    <row r="366" spans="1:11" ht="24.95" customHeight="1">
       <c r="A366" s="2">
         <v>362</v>
       </c>
@@ -15233,7 +15263,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="24.9" customHeight="1">
+    <row r="367" spans="1:11" ht="24.95" customHeight="1">
       <c r="A367" s="2">
         <v>363</v>
       </c>
@@ -15268,7 +15298,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="24.9" customHeight="1">
+    <row r="368" spans="1:11" ht="24.95" customHeight="1">
       <c r="A368" s="2">
         <v>364</v>
       </c>
@@ -15303,7 +15333,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="24.9" customHeight="1">
+    <row r="369" spans="1:11" ht="24.95" customHeight="1">
       <c r="A369" s="2">
         <v>365</v>
       </c>
@@ -15350,9 +15380,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" location="%E6%A0%91%E4%B8%8E%E4%BA%8C%E5%8F%89%E6%A0%91%E7%AF%87" xr:uid="{37C78CA7-35C2-4B4E-AF25-5D5773C2C06A}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{B1A2568C-3A22-47DC-878B-835D98B184C0}"/>
+    <hyperlink ref="C5" r:id="rId1" location="%E6%A0%91%E4%B8%8E%E4%BA%8C%E5%8F%89%E6%A0%91%E7%AF%87"/>
+    <hyperlink ref="C12" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -1865,7 +1865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1876,7 +1876,7 @@
   <dimension ref="A1:K369"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\git\algorithm\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B31CFE7-65B0-4124-AD89-D8677226FB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="43">
   <si>
     <t>艾宾浩斯遗忘曲线复习计划表</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1090,11 +1096,15 @@
     <t>872. 叶子相似的树，404. 左叶子之和，671. 二叉树中第二小的节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>考虑新建一个艾斯宾遗忘曲线表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="30">
     <font>
       <sz val="11"/>
@@ -1865,597 +1875,597 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="16" customWidth="1"/>
-    <col min="3" max="3" width="89.5" style="1" customWidth="1"/>
-    <col min="4" max="11" width="5.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="89.44140625" style="1" customWidth="1"/>
+    <col min="4" max="11" width="5.6640625" style="1" customWidth="1"/>
     <col min="12" max="14" width="9" style="1"/>
     <col min="15" max="15" width="18" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.25" style="1" customWidth="1"/>
-    <col min="17" max="18" width="17.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.21875" style="1" customWidth="1"/>
+    <col min="17" max="18" width="17.88671875" style="1" customWidth="1"/>
     <col min="19" max="256" width="9" style="1"/>
-    <col min="257" max="257" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="14.25" style="1" customWidth="1"/>
-    <col min="259" max="259" width="89.5" style="1" customWidth="1"/>
-    <col min="260" max="267" width="5.625" style="1" customWidth="1"/>
+    <col min="257" max="257" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="14.21875" style="1" customWidth="1"/>
+    <col min="259" max="259" width="89.44140625" style="1" customWidth="1"/>
+    <col min="260" max="267" width="5.6640625" style="1" customWidth="1"/>
     <col min="268" max="270" width="9" style="1"/>
     <col min="271" max="271" width="18" style="1" customWidth="1"/>
-    <col min="272" max="272" width="18.25" style="1" customWidth="1"/>
-    <col min="273" max="274" width="17.875" style="1" customWidth="1"/>
+    <col min="272" max="272" width="18.21875" style="1" customWidth="1"/>
+    <col min="273" max="274" width="17.88671875" style="1" customWidth="1"/>
     <col min="275" max="512" width="9" style="1"/>
-    <col min="513" max="513" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="14.25" style="1" customWidth="1"/>
-    <col min="515" max="515" width="89.5" style="1" customWidth="1"/>
-    <col min="516" max="523" width="5.625" style="1" customWidth="1"/>
+    <col min="513" max="513" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="14.21875" style="1" customWidth="1"/>
+    <col min="515" max="515" width="89.44140625" style="1" customWidth="1"/>
+    <col min="516" max="523" width="5.6640625" style="1" customWidth="1"/>
     <col min="524" max="526" width="9" style="1"/>
     <col min="527" max="527" width="18" style="1" customWidth="1"/>
-    <col min="528" max="528" width="18.25" style="1" customWidth="1"/>
-    <col min="529" max="530" width="17.875" style="1" customWidth="1"/>
+    <col min="528" max="528" width="18.21875" style="1" customWidth="1"/>
+    <col min="529" max="530" width="17.88671875" style="1" customWidth="1"/>
     <col min="531" max="768" width="9" style="1"/>
-    <col min="769" max="769" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="14.25" style="1" customWidth="1"/>
-    <col min="771" max="771" width="89.5" style="1" customWidth="1"/>
-    <col min="772" max="779" width="5.625" style="1" customWidth="1"/>
+    <col min="769" max="769" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="14.21875" style="1" customWidth="1"/>
+    <col min="771" max="771" width="89.44140625" style="1" customWidth="1"/>
+    <col min="772" max="779" width="5.6640625" style="1" customWidth="1"/>
     <col min="780" max="782" width="9" style="1"/>
     <col min="783" max="783" width="18" style="1" customWidth="1"/>
-    <col min="784" max="784" width="18.25" style="1" customWidth="1"/>
-    <col min="785" max="786" width="17.875" style="1" customWidth="1"/>
+    <col min="784" max="784" width="18.21875" style="1" customWidth="1"/>
+    <col min="785" max="786" width="17.88671875" style="1" customWidth="1"/>
     <col min="787" max="1024" width="9" style="1"/>
-    <col min="1025" max="1025" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="14.25" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="89.5" style="1" customWidth="1"/>
-    <col min="1028" max="1035" width="5.625" style="1" customWidth="1"/>
+    <col min="1025" max="1025" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="14.21875" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="89.44140625" style="1" customWidth="1"/>
+    <col min="1028" max="1035" width="5.6640625" style="1" customWidth="1"/>
     <col min="1036" max="1038" width="9" style="1"/>
     <col min="1039" max="1039" width="18" style="1" customWidth="1"/>
-    <col min="1040" max="1040" width="18.25" style="1" customWidth="1"/>
-    <col min="1041" max="1042" width="17.875" style="1" customWidth="1"/>
+    <col min="1040" max="1040" width="18.21875" style="1" customWidth="1"/>
+    <col min="1041" max="1042" width="17.88671875" style="1" customWidth="1"/>
     <col min="1043" max="1280" width="9" style="1"/>
-    <col min="1281" max="1281" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="14.25" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="89.5" style="1" customWidth="1"/>
-    <col min="1284" max="1291" width="5.625" style="1" customWidth="1"/>
+    <col min="1281" max="1281" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="14.21875" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="89.44140625" style="1" customWidth="1"/>
+    <col min="1284" max="1291" width="5.6640625" style="1" customWidth="1"/>
     <col min="1292" max="1294" width="9" style="1"/>
     <col min="1295" max="1295" width="18" style="1" customWidth="1"/>
-    <col min="1296" max="1296" width="18.25" style="1" customWidth="1"/>
-    <col min="1297" max="1298" width="17.875" style="1" customWidth="1"/>
+    <col min="1296" max="1296" width="18.21875" style="1" customWidth="1"/>
+    <col min="1297" max="1298" width="17.88671875" style="1" customWidth="1"/>
     <col min="1299" max="1536" width="9" style="1"/>
-    <col min="1537" max="1537" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="14.25" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="89.5" style="1" customWidth="1"/>
-    <col min="1540" max="1547" width="5.625" style="1" customWidth="1"/>
+    <col min="1537" max="1537" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="14.21875" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="89.44140625" style="1" customWidth="1"/>
+    <col min="1540" max="1547" width="5.6640625" style="1" customWidth="1"/>
     <col min="1548" max="1550" width="9" style="1"/>
     <col min="1551" max="1551" width="18" style="1" customWidth="1"/>
-    <col min="1552" max="1552" width="18.25" style="1" customWidth="1"/>
-    <col min="1553" max="1554" width="17.875" style="1" customWidth="1"/>
+    <col min="1552" max="1552" width="18.21875" style="1" customWidth="1"/>
+    <col min="1553" max="1554" width="17.88671875" style="1" customWidth="1"/>
     <col min="1555" max="1792" width="9" style="1"/>
-    <col min="1793" max="1793" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="14.25" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="89.5" style="1" customWidth="1"/>
-    <col min="1796" max="1803" width="5.625" style="1" customWidth="1"/>
+    <col min="1793" max="1793" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="14.21875" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="89.44140625" style="1" customWidth="1"/>
+    <col min="1796" max="1803" width="5.6640625" style="1" customWidth="1"/>
     <col min="1804" max="1806" width="9" style="1"/>
     <col min="1807" max="1807" width="18" style="1" customWidth="1"/>
-    <col min="1808" max="1808" width="18.25" style="1" customWidth="1"/>
-    <col min="1809" max="1810" width="17.875" style="1" customWidth="1"/>
+    <col min="1808" max="1808" width="18.21875" style="1" customWidth="1"/>
+    <col min="1809" max="1810" width="17.88671875" style="1" customWidth="1"/>
     <col min="1811" max="2048" width="9" style="1"/>
-    <col min="2049" max="2049" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="14.25" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="89.5" style="1" customWidth="1"/>
-    <col min="2052" max="2059" width="5.625" style="1" customWidth="1"/>
+    <col min="2049" max="2049" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="14.21875" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="89.44140625" style="1" customWidth="1"/>
+    <col min="2052" max="2059" width="5.6640625" style="1" customWidth="1"/>
     <col min="2060" max="2062" width="9" style="1"/>
     <col min="2063" max="2063" width="18" style="1" customWidth="1"/>
-    <col min="2064" max="2064" width="18.25" style="1" customWidth="1"/>
-    <col min="2065" max="2066" width="17.875" style="1" customWidth="1"/>
+    <col min="2064" max="2064" width="18.21875" style="1" customWidth="1"/>
+    <col min="2065" max="2066" width="17.88671875" style="1" customWidth="1"/>
     <col min="2067" max="2304" width="9" style="1"/>
-    <col min="2305" max="2305" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="14.25" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="89.5" style="1" customWidth="1"/>
-    <col min="2308" max="2315" width="5.625" style="1" customWidth="1"/>
+    <col min="2305" max="2305" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="14.21875" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="89.44140625" style="1" customWidth="1"/>
+    <col min="2308" max="2315" width="5.6640625" style="1" customWidth="1"/>
     <col min="2316" max="2318" width="9" style="1"/>
     <col min="2319" max="2319" width="18" style="1" customWidth="1"/>
-    <col min="2320" max="2320" width="18.25" style="1" customWidth="1"/>
-    <col min="2321" max="2322" width="17.875" style="1" customWidth="1"/>
+    <col min="2320" max="2320" width="18.21875" style="1" customWidth="1"/>
+    <col min="2321" max="2322" width="17.88671875" style="1" customWidth="1"/>
     <col min="2323" max="2560" width="9" style="1"/>
-    <col min="2561" max="2561" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="14.25" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="89.5" style="1" customWidth="1"/>
-    <col min="2564" max="2571" width="5.625" style="1" customWidth="1"/>
+    <col min="2561" max="2561" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="14.21875" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="89.44140625" style="1" customWidth="1"/>
+    <col min="2564" max="2571" width="5.6640625" style="1" customWidth="1"/>
     <col min="2572" max="2574" width="9" style="1"/>
     <col min="2575" max="2575" width="18" style="1" customWidth="1"/>
-    <col min="2576" max="2576" width="18.25" style="1" customWidth="1"/>
-    <col min="2577" max="2578" width="17.875" style="1" customWidth="1"/>
+    <col min="2576" max="2576" width="18.21875" style="1" customWidth="1"/>
+    <col min="2577" max="2578" width="17.88671875" style="1" customWidth="1"/>
     <col min="2579" max="2816" width="9" style="1"/>
-    <col min="2817" max="2817" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="14.25" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="89.5" style="1" customWidth="1"/>
-    <col min="2820" max="2827" width="5.625" style="1" customWidth="1"/>
+    <col min="2817" max="2817" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="14.21875" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="89.44140625" style="1" customWidth="1"/>
+    <col min="2820" max="2827" width="5.6640625" style="1" customWidth="1"/>
     <col min="2828" max="2830" width="9" style="1"/>
     <col min="2831" max="2831" width="18" style="1" customWidth="1"/>
-    <col min="2832" max="2832" width="18.25" style="1" customWidth="1"/>
-    <col min="2833" max="2834" width="17.875" style="1" customWidth="1"/>
+    <col min="2832" max="2832" width="18.21875" style="1" customWidth="1"/>
+    <col min="2833" max="2834" width="17.88671875" style="1" customWidth="1"/>
     <col min="2835" max="3072" width="9" style="1"/>
-    <col min="3073" max="3073" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="14.25" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="89.5" style="1" customWidth="1"/>
-    <col min="3076" max="3083" width="5.625" style="1" customWidth="1"/>
+    <col min="3073" max="3073" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="14.21875" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="89.44140625" style="1" customWidth="1"/>
+    <col min="3076" max="3083" width="5.6640625" style="1" customWidth="1"/>
     <col min="3084" max="3086" width="9" style="1"/>
     <col min="3087" max="3087" width="18" style="1" customWidth="1"/>
-    <col min="3088" max="3088" width="18.25" style="1" customWidth="1"/>
-    <col min="3089" max="3090" width="17.875" style="1" customWidth="1"/>
+    <col min="3088" max="3088" width="18.21875" style="1" customWidth="1"/>
+    <col min="3089" max="3090" width="17.88671875" style="1" customWidth="1"/>
     <col min="3091" max="3328" width="9" style="1"/>
-    <col min="3329" max="3329" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="14.25" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="89.5" style="1" customWidth="1"/>
-    <col min="3332" max="3339" width="5.625" style="1" customWidth="1"/>
+    <col min="3329" max="3329" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="14.21875" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="89.44140625" style="1" customWidth="1"/>
+    <col min="3332" max="3339" width="5.6640625" style="1" customWidth="1"/>
     <col min="3340" max="3342" width="9" style="1"/>
     <col min="3343" max="3343" width="18" style="1" customWidth="1"/>
-    <col min="3344" max="3344" width="18.25" style="1" customWidth="1"/>
-    <col min="3345" max="3346" width="17.875" style="1" customWidth="1"/>
+    <col min="3344" max="3344" width="18.21875" style="1" customWidth="1"/>
+    <col min="3345" max="3346" width="17.88671875" style="1" customWidth="1"/>
     <col min="3347" max="3584" width="9" style="1"/>
-    <col min="3585" max="3585" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="14.25" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="89.5" style="1" customWidth="1"/>
-    <col min="3588" max="3595" width="5.625" style="1" customWidth="1"/>
+    <col min="3585" max="3585" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="14.21875" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="89.44140625" style="1" customWidth="1"/>
+    <col min="3588" max="3595" width="5.6640625" style="1" customWidth="1"/>
     <col min="3596" max="3598" width="9" style="1"/>
     <col min="3599" max="3599" width="18" style="1" customWidth="1"/>
-    <col min="3600" max="3600" width="18.25" style="1" customWidth="1"/>
-    <col min="3601" max="3602" width="17.875" style="1" customWidth="1"/>
+    <col min="3600" max="3600" width="18.21875" style="1" customWidth="1"/>
+    <col min="3601" max="3602" width="17.88671875" style="1" customWidth="1"/>
     <col min="3603" max="3840" width="9" style="1"/>
-    <col min="3841" max="3841" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="14.25" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="89.5" style="1" customWidth="1"/>
-    <col min="3844" max="3851" width="5.625" style="1" customWidth="1"/>
+    <col min="3841" max="3841" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="14.21875" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="89.44140625" style="1" customWidth="1"/>
+    <col min="3844" max="3851" width="5.6640625" style="1" customWidth="1"/>
     <col min="3852" max="3854" width="9" style="1"/>
     <col min="3855" max="3855" width="18" style="1" customWidth="1"/>
-    <col min="3856" max="3856" width="18.25" style="1" customWidth="1"/>
-    <col min="3857" max="3858" width="17.875" style="1" customWidth="1"/>
+    <col min="3856" max="3856" width="18.21875" style="1" customWidth="1"/>
+    <col min="3857" max="3858" width="17.88671875" style="1" customWidth="1"/>
     <col min="3859" max="4096" width="9" style="1"/>
-    <col min="4097" max="4097" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="14.25" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="89.5" style="1" customWidth="1"/>
-    <col min="4100" max="4107" width="5.625" style="1" customWidth="1"/>
+    <col min="4097" max="4097" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="14.21875" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="89.44140625" style="1" customWidth="1"/>
+    <col min="4100" max="4107" width="5.6640625" style="1" customWidth="1"/>
     <col min="4108" max="4110" width="9" style="1"/>
     <col min="4111" max="4111" width="18" style="1" customWidth="1"/>
-    <col min="4112" max="4112" width="18.25" style="1" customWidth="1"/>
-    <col min="4113" max="4114" width="17.875" style="1" customWidth="1"/>
+    <col min="4112" max="4112" width="18.21875" style="1" customWidth="1"/>
+    <col min="4113" max="4114" width="17.88671875" style="1" customWidth="1"/>
     <col min="4115" max="4352" width="9" style="1"/>
-    <col min="4353" max="4353" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="14.25" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="89.5" style="1" customWidth="1"/>
-    <col min="4356" max="4363" width="5.625" style="1" customWidth="1"/>
+    <col min="4353" max="4353" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="14.21875" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="89.44140625" style="1" customWidth="1"/>
+    <col min="4356" max="4363" width="5.6640625" style="1" customWidth="1"/>
     <col min="4364" max="4366" width="9" style="1"/>
     <col min="4367" max="4367" width="18" style="1" customWidth="1"/>
-    <col min="4368" max="4368" width="18.25" style="1" customWidth="1"/>
-    <col min="4369" max="4370" width="17.875" style="1" customWidth="1"/>
+    <col min="4368" max="4368" width="18.21875" style="1" customWidth="1"/>
+    <col min="4369" max="4370" width="17.88671875" style="1" customWidth="1"/>
     <col min="4371" max="4608" width="9" style="1"/>
-    <col min="4609" max="4609" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="14.25" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="89.5" style="1" customWidth="1"/>
-    <col min="4612" max="4619" width="5.625" style="1" customWidth="1"/>
+    <col min="4609" max="4609" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="14.21875" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="89.44140625" style="1" customWidth="1"/>
+    <col min="4612" max="4619" width="5.6640625" style="1" customWidth="1"/>
     <col min="4620" max="4622" width="9" style="1"/>
     <col min="4623" max="4623" width="18" style="1" customWidth="1"/>
-    <col min="4624" max="4624" width="18.25" style="1" customWidth="1"/>
-    <col min="4625" max="4626" width="17.875" style="1" customWidth="1"/>
+    <col min="4624" max="4624" width="18.21875" style="1" customWidth="1"/>
+    <col min="4625" max="4626" width="17.88671875" style="1" customWidth="1"/>
     <col min="4627" max="4864" width="9" style="1"/>
-    <col min="4865" max="4865" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="14.25" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="89.5" style="1" customWidth="1"/>
-    <col min="4868" max="4875" width="5.625" style="1" customWidth="1"/>
+    <col min="4865" max="4865" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="14.21875" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="89.44140625" style="1" customWidth="1"/>
+    <col min="4868" max="4875" width="5.6640625" style="1" customWidth="1"/>
     <col min="4876" max="4878" width="9" style="1"/>
     <col min="4879" max="4879" width="18" style="1" customWidth="1"/>
-    <col min="4880" max="4880" width="18.25" style="1" customWidth="1"/>
-    <col min="4881" max="4882" width="17.875" style="1" customWidth="1"/>
+    <col min="4880" max="4880" width="18.21875" style="1" customWidth="1"/>
+    <col min="4881" max="4882" width="17.88671875" style="1" customWidth="1"/>
     <col min="4883" max="5120" width="9" style="1"/>
-    <col min="5121" max="5121" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="14.25" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="89.5" style="1" customWidth="1"/>
-    <col min="5124" max="5131" width="5.625" style="1" customWidth="1"/>
+    <col min="5121" max="5121" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="14.21875" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="89.44140625" style="1" customWidth="1"/>
+    <col min="5124" max="5131" width="5.6640625" style="1" customWidth="1"/>
     <col min="5132" max="5134" width="9" style="1"/>
     <col min="5135" max="5135" width="18" style="1" customWidth="1"/>
-    <col min="5136" max="5136" width="18.25" style="1" customWidth="1"/>
-    <col min="5137" max="5138" width="17.875" style="1" customWidth="1"/>
+    <col min="5136" max="5136" width="18.21875" style="1" customWidth="1"/>
+    <col min="5137" max="5138" width="17.88671875" style="1" customWidth="1"/>
     <col min="5139" max="5376" width="9" style="1"/>
-    <col min="5377" max="5377" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="14.25" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="89.5" style="1" customWidth="1"/>
-    <col min="5380" max="5387" width="5.625" style="1" customWidth="1"/>
+    <col min="5377" max="5377" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="14.21875" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="89.44140625" style="1" customWidth="1"/>
+    <col min="5380" max="5387" width="5.6640625" style="1" customWidth="1"/>
     <col min="5388" max="5390" width="9" style="1"/>
     <col min="5391" max="5391" width="18" style="1" customWidth="1"/>
-    <col min="5392" max="5392" width="18.25" style="1" customWidth="1"/>
-    <col min="5393" max="5394" width="17.875" style="1" customWidth="1"/>
+    <col min="5392" max="5392" width="18.21875" style="1" customWidth="1"/>
+    <col min="5393" max="5394" width="17.88671875" style="1" customWidth="1"/>
     <col min="5395" max="5632" width="9" style="1"/>
-    <col min="5633" max="5633" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="14.25" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="89.5" style="1" customWidth="1"/>
-    <col min="5636" max="5643" width="5.625" style="1" customWidth="1"/>
+    <col min="5633" max="5633" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="14.21875" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="89.44140625" style="1" customWidth="1"/>
+    <col min="5636" max="5643" width="5.6640625" style="1" customWidth="1"/>
     <col min="5644" max="5646" width="9" style="1"/>
     <col min="5647" max="5647" width="18" style="1" customWidth="1"/>
-    <col min="5648" max="5648" width="18.25" style="1" customWidth="1"/>
-    <col min="5649" max="5650" width="17.875" style="1" customWidth="1"/>
+    <col min="5648" max="5648" width="18.21875" style="1" customWidth="1"/>
+    <col min="5649" max="5650" width="17.88671875" style="1" customWidth="1"/>
     <col min="5651" max="5888" width="9" style="1"/>
-    <col min="5889" max="5889" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="14.25" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="89.5" style="1" customWidth="1"/>
-    <col min="5892" max="5899" width="5.625" style="1" customWidth="1"/>
+    <col min="5889" max="5889" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="14.21875" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="89.44140625" style="1" customWidth="1"/>
+    <col min="5892" max="5899" width="5.6640625" style="1" customWidth="1"/>
     <col min="5900" max="5902" width="9" style="1"/>
     <col min="5903" max="5903" width="18" style="1" customWidth="1"/>
-    <col min="5904" max="5904" width="18.25" style="1" customWidth="1"/>
-    <col min="5905" max="5906" width="17.875" style="1" customWidth="1"/>
+    <col min="5904" max="5904" width="18.21875" style="1" customWidth="1"/>
+    <col min="5905" max="5906" width="17.88671875" style="1" customWidth="1"/>
     <col min="5907" max="6144" width="9" style="1"/>
-    <col min="6145" max="6145" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="14.25" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="89.5" style="1" customWidth="1"/>
-    <col min="6148" max="6155" width="5.625" style="1" customWidth="1"/>
+    <col min="6145" max="6145" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="14.21875" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="89.44140625" style="1" customWidth="1"/>
+    <col min="6148" max="6155" width="5.6640625" style="1" customWidth="1"/>
     <col min="6156" max="6158" width="9" style="1"/>
     <col min="6159" max="6159" width="18" style="1" customWidth="1"/>
-    <col min="6160" max="6160" width="18.25" style="1" customWidth="1"/>
-    <col min="6161" max="6162" width="17.875" style="1" customWidth="1"/>
+    <col min="6160" max="6160" width="18.21875" style="1" customWidth="1"/>
+    <col min="6161" max="6162" width="17.88671875" style="1" customWidth="1"/>
     <col min="6163" max="6400" width="9" style="1"/>
-    <col min="6401" max="6401" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="14.25" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="89.5" style="1" customWidth="1"/>
-    <col min="6404" max="6411" width="5.625" style="1" customWidth="1"/>
+    <col min="6401" max="6401" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="14.21875" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="89.44140625" style="1" customWidth="1"/>
+    <col min="6404" max="6411" width="5.6640625" style="1" customWidth="1"/>
     <col min="6412" max="6414" width="9" style="1"/>
     <col min="6415" max="6415" width="18" style="1" customWidth="1"/>
-    <col min="6416" max="6416" width="18.25" style="1" customWidth="1"/>
-    <col min="6417" max="6418" width="17.875" style="1" customWidth="1"/>
+    <col min="6416" max="6416" width="18.21875" style="1" customWidth="1"/>
+    <col min="6417" max="6418" width="17.88671875" style="1" customWidth="1"/>
     <col min="6419" max="6656" width="9" style="1"/>
-    <col min="6657" max="6657" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="14.25" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="89.5" style="1" customWidth="1"/>
-    <col min="6660" max="6667" width="5.625" style="1" customWidth="1"/>
+    <col min="6657" max="6657" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="14.21875" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="89.44140625" style="1" customWidth="1"/>
+    <col min="6660" max="6667" width="5.6640625" style="1" customWidth="1"/>
     <col min="6668" max="6670" width="9" style="1"/>
     <col min="6671" max="6671" width="18" style="1" customWidth="1"/>
-    <col min="6672" max="6672" width="18.25" style="1" customWidth="1"/>
-    <col min="6673" max="6674" width="17.875" style="1" customWidth="1"/>
+    <col min="6672" max="6672" width="18.21875" style="1" customWidth="1"/>
+    <col min="6673" max="6674" width="17.88671875" style="1" customWidth="1"/>
     <col min="6675" max="6912" width="9" style="1"/>
-    <col min="6913" max="6913" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="14.25" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="89.5" style="1" customWidth="1"/>
-    <col min="6916" max="6923" width="5.625" style="1" customWidth="1"/>
+    <col min="6913" max="6913" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="14.21875" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="89.44140625" style="1" customWidth="1"/>
+    <col min="6916" max="6923" width="5.6640625" style="1" customWidth="1"/>
     <col min="6924" max="6926" width="9" style="1"/>
     <col min="6927" max="6927" width="18" style="1" customWidth="1"/>
-    <col min="6928" max="6928" width="18.25" style="1" customWidth="1"/>
-    <col min="6929" max="6930" width="17.875" style="1" customWidth="1"/>
+    <col min="6928" max="6928" width="18.21875" style="1" customWidth="1"/>
+    <col min="6929" max="6930" width="17.88671875" style="1" customWidth="1"/>
     <col min="6931" max="7168" width="9" style="1"/>
-    <col min="7169" max="7169" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="14.25" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="89.5" style="1" customWidth="1"/>
-    <col min="7172" max="7179" width="5.625" style="1" customWidth="1"/>
+    <col min="7169" max="7169" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="14.21875" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="89.44140625" style="1" customWidth="1"/>
+    <col min="7172" max="7179" width="5.6640625" style="1" customWidth="1"/>
     <col min="7180" max="7182" width="9" style="1"/>
     <col min="7183" max="7183" width="18" style="1" customWidth="1"/>
-    <col min="7184" max="7184" width="18.25" style="1" customWidth="1"/>
-    <col min="7185" max="7186" width="17.875" style="1" customWidth="1"/>
+    <col min="7184" max="7184" width="18.21875" style="1" customWidth="1"/>
+    <col min="7185" max="7186" width="17.88671875" style="1" customWidth="1"/>
     <col min="7187" max="7424" width="9" style="1"/>
-    <col min="7425" max="7425" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="14.25" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="89.5" style="1" customWidth="1"/>
-    <col min="7428" max="7435" width="5.625" style="1" customWidth="1"/>
+    <col min="7425" max="7425" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="14.21875" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="89.44140625" style="1" customWidth="1"/>
+    <col min="7428" max="7435" width="5.6640625" style="1" customWidth="1"/>
     <col min="7436" max="7438" width="9" style="1"/>
     <col min="7439" max="7439" width="18" style="1" customWidth="1"/>
-    <col min="7440" max="7440" width="18.25" style="1" customWidth="1"/>
-    <col min="7441" max="7442" width="17.875" style="1" customWidth="1"/>
+    <col min="7440" max="7440" width="18.21875" style="1" customWidth="1"/>
+    <col min="7441" max="7442" width="17.88671875" style="1" customWidth="1"/>
     <col min="7443" max="7680" width="9" style="1"/>
-    <col min="7681" max="7681" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="14.25" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="89.5" style="1" customWidth="1"/>
-    <col min="7684" max="7691" width="5.625" style="1" customWidth="1"/>
+    <col min="7681" max="7681" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="14.21875" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="89.44140625" style="1" customWidth="1"/>
+    <col min="7684" max="7691" width="5.6640625" style="1" customWidth="1"/>
     <col min="7692" max="7694" width="9" style="1"/>
     <col min="7695" max="7695" width="18" style="1" customWidth="1"/>
-    <col min="7696" max="7696" width="18.25" style="1" customWidth="1"/>
-    <col min="7697" max="7698" width="17.875" style="1" customWidth="1"/>
+    <col min="7696" max="7696" width="18.21875" style="1" customWidth="1"/>
+    <col min="7697" max="7698" width="17.88671875" style="1" customWidth="1"/>
     <col min="7699" max="7936" width="9" style="1"/>
-    <col min="7937" max="7937" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="14.25" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="89.5" style="1" customWidth="1"/>
-    <col min="7940" max="7947" width="5.625" style="1" customWidth="1"/>
+    <col min="7937" max="7937" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="14.21875" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="89.44140625" style="1" customWidth="1"/>
+    <col min="7940" max="7947" width="5.6640625" style="1" customWidth="1"/>
     <col min="7948" max="7950" width="9" style="1"/>
     <col min="7951" max="7951" width="18" style="1" customWidth="1"/>
-    <col min="7952" max="7952" width="18.25" style="1" customWidth="1"/>
-    <col min="7953" max="7954" width="17.875" style="1" customWidth="1"/>
+    <col min="7952" max="7952" width="18.21875" style="1" customWidth="1"/>
+    <col min="7953" max="7954" width="17.88671875" style="1" customWidth="1"/>
     <col min="7955" max="8192" width="9" style="1"/>
-    <col min="8193" max="8193" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="14.25" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="89.5" style="1" customWidth="1"/>
-    <col min="8196" max="8203" width="5.625" style="1" customWidth="1"/>
+    <col min="8193" max="8193" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="14.21875" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="89.44140625" style="1" customWidth="1"/>
+    <col min="8196" max="8203" width="5.6640625" style="1" customWidth="1"/>
     <col min="8204" max="8206" width="9" style="1"/>
     <col min="8207" max="8207" width="18" style="1" customWidth="1"/>
-    <col min="8208" max="8208" width="18.25" style="1" customWidth="1"/>
-    <col min="8209" max="8210" width="17.875" style="1" customWidth="1"/>
+    <col min="8208" max="8208" width="18.21875" style="1" customWidth="1"/>
+    <col min="8209" max="8210" width="17.88671875" style="1" customWidth="1"/>
     <col min="8211" max="8448" width="9" style="1"/>
-    <col min="8449" max="8449" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="14.25" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="89.5" style="1" customWidth="1"/>
-    <col min="8452" max="8459" width="5.625" style="1" customWidth="1"/>
+    <col min="8449" max="8449" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="14.21875" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="89.44140625" style="1" customWidth="1"/>
+    <col min="8452" max="8459" width="5.6640625" style="1" customWidth="1"/>
     <col min="8460" max="8462" width="9" style="1"/>
     <col min="8463" max="8463" width="18" style="1" customWidth="1"/>
-    <col min="8464" max="8464" width="18.25" style="1" customWidth="1"/>
-    <col min="8465" max="8466" width="17.875" style="1" customWidth="1"/>
+    <col min="8464" max="8464" width="18.21875" style="1" customWidth="1"/>
+    <col min="8465" max="8466" width="17.88671875" style="1" customWidth="1"/>
     <col min="8467" max="8704" width="9" style="1"/>
-    <col min="8705" max="8705" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="14.25" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="89.5" style="1" customWidth="1"/>
-    <col min="8708" max="8715" width="5.625" style="1" customWidth="1"/>
+    <col min="8705" max="8705" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="14.21875" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="89.44140625" style="1" customWidth="1"/>
+    <col min="8708" max="8715" width="5.6640625" style="1" customWidth="1"/>
     <col min="8716" max="8718" width="9" style="1"/>
     <col min="8719" max="8719" width="18" style="1" customWidth="1"/>
-    <col min="8720" max="8720" width="18.25" style="1" customWidth="1"/>
-    <col min="8721" max="8722" width="17.875" style="1" customWidth="1"/>
+    <col min="8720" max="8720" width="18.21875" style="1" customWidth="1"/>
+    <col min="8721" max="8722" width="17.88671875" style="1" customWidth="1"/>
     <col min="8723" max="8960" width="9" style="1"/>
-    <col min="8961" max="8961" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="14.25" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="89.5" style="1" customWidth="1"/>
-    <col min="8964" max="8971" width="5.625" style="1" customWidth="1"/>
+    <col min="8961" max="8961" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="14.21875" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="89.44140625" style="1" customWidth="1"/>
+    <col min="8964" max="8971" width="5.6640625" style="1" customWidth="1"/>
     <col min="8972" max="8974" width="9" style="1"/>
     <col min="8975" max="8975" width="18" style="1" customWidth="1"/>
-    <col min="8976" max="8976" width="18.25" style="1" customWidth="1"/>
-    <col min="8977" max="8978" width="17.875" style="1" customWidth="1"/>
+    <col min="8976" max="8976" width="18.21875" style="1" customWidth="1"/>
+    <col min="8977" max="8978" width="17.88671875" style="1" customWidth="1"/>
     <col min="8979" max="9216" width="9" style="1"/>
-    <col min="9217" max="9217" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="14.25" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="89.5" style="1" customWidth="1"/>
-    <col min="9220" max="9227" width="5.625" style="1" customWidth="1"/>
+    <col min="9217" max="9217" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="14.21875" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="89.44140625" style="1" customWidth="1"/>
+    <col min="9220" max="9227" width="5.6640625" style="1" customWidth="1"/>
     <col min="9228" max="9230" width="9" style="1"/>
     <col min="9231" max="9231" width="18" style="1" customWidth="1"/>
-    <col min="9232" max="9232" width="18.25" style="1" customWidth="1"/>
-    <col min="9233" max="9234" width="17.875" style="1" customWidth="1"/>
+    <col min="9232" max="9232" width="18.21875" style="1" customWidth="1"/>
+    <col min="9233" max="9234" width="17.88671875" style="1" customWidth="1"/>
     <col min="9235" max="9472" width="9" style="1"/>
-    <col min="9473" max="9473" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="14.25" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="89.5" style="1" customWidth="1"/>
-    <col min="9476" max="9483" width="5.625" style="1" customWidth="1"/>
+    <col min="9473" max="9473" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="14.21875" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="89.44140625" style="1" customWidth="1"/>
+    <col min="9476" max="9483" width="5.6640625" style="1" customWidth="1"/>
     <col min="9484" max="9486" width="9" style="1"/>
     <col min="9487" max="9487" width="18" style="1" customWidth="1"/>
-    <col min="9488" max="9488" width="18.25" style="1" customWidth="1"/>
-    <col min="9489" max="9490" width="17.875" style="1" customWidth="1"/>
+    <col min="9488" max="9488" width="18.21875" style="1" customWidth="1"/>
+    <col min="9489" max="9490" width="17.88671875" style="1" customWidth="1"/>
     <col min="9491" max="9728" width="9" style="1"/>
-    <col min="9729" max="9729" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="14.25" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="89.5" style="1" customWidth="1"/>
-    <col min="9732" max="9739" width="5.625" style="1" customWidth="1"/>
+    <col min="9729" max="9729" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="14.21875" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="89.44140625" style="1" customWidth="1"/>
+    <col min="9732" max="9739" width="5.6640625" style="1" customWidth="1"/>
     <col min="9740" max="9742" width="9" style="1"/>
     <col min="9743" max="9743" width="18" style="1" customWidth="1"/>
-    <col min="9744" max="9744" width="18.25" style="1" customWidth="1"/>
-    <col min="9745" max="9746" width="17.875" style="1" customWidth="1"/>
+    <col min="9744" max="9744" width="18.21875" style="1" customWidth="1"/>
+    <col min="9745" max="9746" width="17.88671875" style="1" customWidth="1"/>
     <col min="9747" max="9984" width="9" style="1"/>
-    <col min="9985" max="9985" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="14.25" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="89.5" style="1" customWidth="1"/>
-    <col min="9988" max="9995" width="5.625" style="1" customWidth="1"/>
+    <col min="9985" max="9985" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="14.21875" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="89.44140625" style="1" customWidth="1"/>
+    <col min="9988" max="9995" width="5.6640625" style="1" customWidth="1"/>
     <col min="9996" max="9998" width="9" style="1"/>
     <col min="9999" max="9999" width="18" style="1" customWidth="1"/>
-    <col min="10000" max="10000" width="18.25" style="1" customWidth="1"/>
-    <col min="10001" max="10002" width="17.875" style="1" customWidth="1"/>
+    <col min="10000" max="10000" width="18.21875" style="1" customWidth="1"/>
+    <col min="10001" max="10002" width="17.88671875" style="1" customWidth="1"/>
     <col min="10003" max="10240" width="9" style="1"/>
-    <col min="10241" max="10241" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="14.25" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="89.5" style="1" customWidth="1"/>
-    <col min="10244" max="10251" width="5.625" style="1" customWidth="1"/>
+    <col min="10241" max="10241" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="14.21875" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="89.44140625" style="1" customWidth="1"/>
+    <col min="10244" max="10251" width="5.6640625" style="1" customWidth="1"/>
     <col min="10252" max="10254" width="9" style="1"/>
     <col min="10255" max="10255" width="18" style="1" customWidth="1"/>
-    <col min="10256" max="10256" width="18.25" style="1" customWidth="1"/>
-    <col min="10257" max="10258" width="17.875" style="1" customWidth="1"/>
+    <col min="10256" max="10256" width="18.21875" style="1" customWidth="1"/>
+    <col min="10257" max="10258" width="17.88671875" style="1" customWidth="1"/>
     <col min="10259" max="10496" width="9" style="1"/>
-    <col min="10497" max="10497" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="14.25" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="89.5" style="1" customWidth="1"/>
-    <col min="10500" max="10507" width="5.625" style="1" customWidth="1"/>
+    <col min="10497" max="10497" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="14.21875" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="89.44140625" style="1" customWidth="1"/>
+    <col min="10500" max="10507" width="5.6640625" style="1" customWidth="1"/>
     <col min="10508" max="10510" width="9" style="1"/>
     <col min="10511" max="10511" width="18" style="1" customWidth="1"/>
-    <col min="10512" max="10512" width="18.25" style="1" customWidth="1"/>
-    <col min="10513" max="10514" width="17.875" style="1" customWidth="1"/>
+    <col min="10512" max="10512" width="18.21875" style="1" customWidth="1"/>
+    <col min="10513" max="10514" width="17.88671875" style="1" customWidth="1"/>
     <col min="10515" max="10752" width="9" style="1"/>
-    <col min="10753" max="10753" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="14.25" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="89.5" style="1" customWidth="1"/>
-    <col min="10756" max="10763" width="5.625" style="1" customWidth="1"/>
+    <col min="10753" max="10753" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="14.21875" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="89.44140625" style="1" customWidth="1"/>
+    <col min="10756" max="10763" width="5.6640625" style="1" customWidth="1"/>
     <col min="10764" max="10766" width="9" style="1"/>
     <col min="10767" max="10767" width="18" style="1" customWidth="1"/>
-    <col min="10768" max="10768" width="18.25" style="1" customWidth="1"/>
-    <col min="10769" max="10770" width="17.875" style="1" customWidth="1"/>
+    <col min="10768" max="10768" width="18.21875" style="1" customWidth="1"/>
+    <col min="10769" max="10770" width="17.88671875" style="1" customWidth="1"/>
     <col min="10771" max="11008" width="9" style="1"/>
-    <col min="11009" max="11009" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="14.25" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="89.5" style="1" customWidth="1"/>
-    <col min="11012" max="11019" width="5.625" style="1" customWidth="1"/>
+    <col min="11009" max="11009" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="14.21875" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="89.44140625" style="1" customWidth="1"/>
+    <col min="11012" max="11019" width="5.6640625" style="1" customWidth="1"/>
     <col min="11020" max="11022" width="9" style="1"/>
     <col min="11023" max="11023" width="18" style="1" customWidth="1"/>
-    <col min="11024" max="11024" width="18.25" style="1" customWidth="1"/>
-    <col min="11025" max="11026" width="17.875" style="1" customWidth="1"/>
+    <col min="11024" max="11024" width="18.21875" style="1" customWidth="1"/>
+    <col min="11025" max="11026" width="17.88671875" style="1" customWidth="1"/>
     <col min="11027" max="11264" width="9" style="1"/>
-    <col min="11265" max="11265" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="14.25" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="89.5" style="1" customWidth="1"/>
-    <col min="11268" max="11275" width="5.625" style="1" customWidth="1"/>
+    <col min="11265" max="11265" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="14.21875" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="89.44140625" style="1" customWidth="1"/>
+    <col min="11268" max="11275" width="5.6640625" style="1" customWidth="1"/>
     <col min="11276" max="11278" width="9" style="1"/>
     <col min="11279" max="11279" width="18" style="1" customWidth="1"/>
-    <col min="11280" max="11280" width="18.25" style="1" customWidth="1"/>
-    <col min="11281" max="11282" width="17.875" style="1" customWidth="1"/>
+    <col min="11280" max="11280" width="18.21875" style="1" customWidth="1"/>
+    <col min="11281" max="11282" width="17.88671875" style="1" customWidth="1"/>
     <col min="11283" max="11520" width="9" style="1"/>
-    <col min="11521" max="11521" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="14.25" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="89.5" style="1" customWidth="1"/>
-    <col min="11524" max="11531" width="5.625" style="1" customWidth="1"/>
+    <col min="11521" max="11521" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="14.21875" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="89.44140625" style="1" customWidth="1"/>
+    <col min="11524" max="11531" width="5.6640625" style="1" customWidth="1"/>
     <col min="11532" max="11534" width="9" style="1"/>
     <col min="11535" max="11535" width="18" style="1" customWidth="1"/>
-    <col min="11536" max="11536" width="18.25" style="1" customWidth="1"/>
-    <col min="11537" max="11538" width="17.875" style="1" customWidth="1"/>
+    <col min="11536" max="11536" width="18.21875" style="1" customWidth="1"/>
+    <col min="11537" max="11538" width="17.88671875" style="1" customWidth="1"/>
     <col min="11539" max="11776" width="9" style="1"/>
-    <col min="11777" max="11777" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="14.25" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="89.5" style="1" customWidth="1"/>
-    <col min="11780" max="11787" width="5.625" style="1" customWidth="1"/>
+    <col min="11777" max="11777" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="14.21875" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="89.44140625" style="1" customWidth="1"/>
+    <col min="11780" max="11787" width="5.6640625" style="1" customWidth="1"/>
     <col min="11788" max="11790" width="9" style="1"/>
     <col min="11791" max="11791" width="18" style="1" customWidth="1"/>
-    <col min="11792" max="11792" width="18.25" style="1" customWidth="1"/>
-    <col min="11793" max="11794" width="17.875" style="1" customWidth="1"/>
+    <col min="11792" max="11792" width="18.21875" style="1" customWidth="1"/>
+    <col min="11793" max="11794" width="17.88671875" style="1" customWidth="1"/>
     <col min="11795" max="12032" width="9" style="1"/>
-    <col min="12033" max="12033" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="14.25" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="89.5" style="1" customWidth="1"/>
-    <col min="12036" max="12043" width="5.625" style="1" customWidth="1"/>
+    <col min="12033" max="12033" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="14.21875" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="89.44140625" style="1" customWidth="1"/>
+    <col min="12036" max="12043" width="5.6640625" style="1" customWidth="1"/>
     <col min="12044" max="12046" width="9" style="1"/>
     <col min="12047" max="12047" width="18" style="1" customWidth="1"/>
-    <col min="12048" max="12048" width="18.25" style="1" customWidth="1"/>
-    <col min="12049" max="12050" width="17.875" style="1" customWidth="1"/>
+    <col min="12048" max="12048" width="18.21875" style="1" customWidth="1"/>
+    <col min="12049" max="12050" width="17.88671875" style="1" customWidth="1"/>
     <col min="12051" max="12288" width="9" style="1"/>
-    <col min="12289" max="12289" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="14.25" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="89.5" style="1" customWidth="1"/>
-    <col min="12292" max="12299" width="5.625" style="1" customWidth="1"/>
+    <col min="12289" max="12289" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="14.21875" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="89.44140625" style="1" customWidth="1"/>
+    <col min="12292" max="12299" width="5.6640625" style="1" customWidth="1"/>
     <col min="12300" max="12302" width="9" style="1"/>
     <col min="12303" max="12303" width="18" style="1" customWidth="1"/>
-    <col min="12304" max="12304" width="18.25" style="1" customWidth="1"/>
-    <col min="12305" max="12306" width="17.875" style="1" customWidth="1"/>
+    <col min="12304" max="12304" width="18.21875" style="1" customWidth="1"/>
+    <col min="12305" max="12306" width="17.88671875" style="1" customWidth="1"/>
     <col min="12307" max="12544" width="9" style="1"/>
-    <col min="12545" max="12545" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="14.25" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="89.5" style="1" customWidth="1"/>
-    <col min="12548" max="12555" width="5.625" style="1" customWidth="1"/>
+    <col min="12545" max="12545" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="14.21875" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="89.44140625" style="1" customWidth="1"/>
+    <col min="12548" max="12555" width="5.6640625" style="1" customWidth="1"/>
     <col min="12556" max="12558" width="9" style="1"/>
     <col min="12559" max="12559" width="18" style="1" customWidth="1"/>
-    <col min="12560" max="12560" width="18.25" style="1" customWidth="1"/>
-    <col min="12561" max="12562" width="17.875" style="1" customWidth="1"/>
+    <col min="12560" max="12560" width="18.21875" style="1" customWidth="1"/>
+    <col min="12561" max="12562" width="17.88671875" style="1" customWidth="1"/>
     <col min="12563" max="12800" width="9" style="1"/>
-    <col min="12801" max="12801" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="14.25" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="89.5" style="1" customWidth="1"/>
-    <col min="12804" max="12811" width="5.625" style="1" customWidth="1"/>
+    <col min="12801" max="12801" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="14.21875" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="89.44140625" style="1" customWidth="1"/>
+    <col min="12804" max="12811" width="5.6640625" style="1" customWidth="1"/>
     <col min="12812" max="12814" width="9" style="1"/>
     <col min="12815" max="12815" width="18" style="1" customWidth="1"/>
-    <col min="12816" max="12816" width="18.25" style="1" customWidth="1"/>
-    <col min="12817" max="12818" width="17.875" style="1" customWidth="1"/>
+    <col min="12816" max="12816" width="18.21875" style="1" customWidth="1"/>
+    <col min="12817" max="12818" width="17.88671875" style="1" customWidth="1"/>
     <col min="12819" max="13056" width="9" style="1"/>
-    <col min="13057" max="13057" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="14.25" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="89.5" style="1" customWidth="1"/>
-    <col min="13060" max="13067" width="5.625" style="1" customWidth="1"/>
+    <col min="13057" max="13057" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="14.21875" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="89.44140625" style="1" customWidth="1"/>
+    <col min="13060" max="13067" width="5.6640625" style="1" customWidth="1"/>
     <col min="13068" max="13070" width="9" style="1"/>
     <col min="13071" max="13071" width="18" style="1" customWidth="1"/>
-    <col min="13072" max="13072" width="18.25" style="1" customWidth="1"/>
-    <col min="13073" max="13074" width="17.875" style="1" customWidth="1"/>
+    <col min="13072" max="13072" width="18.21875" style="1" customWidth="1"/>
+    <col min="13073" max="13074" width="17.88671875" style="1" customWidth="1"/>
     <col min="13075" max="13312" width="9" style="1"/>
-    <col min="13313" max="13313" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="14.25" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="89.5" style="1" customWidth="1"/>
-    <col min="13316" max="13323" width="5.625" style="1" customWidth="1"/>
+    <col min="13313" max="13313" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="14.21875" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="89.44140625" style="1" customWidth="1"/>
+    <col min="13316" max="13323" width="5.6640625" style="1" customWidth="1"/>
     <col min="13324" max="13326" width="9" style="1"/>
     <col min="13327" max="13327" width="18" style="1" customWidth="1"/>
-    <col min="13328" max="13328" width="18.25" style="1" customWidth="1"/>
-    <col min="13329" max="13330" width="17.875" style="1" customWidth="1"/>
+    <col min="13328" max="13328" width="18.21875" style="1" customWidth="1"/>
+    <col min="13329" max="13330" width="17.88671875" style="1" customWidth="1"/>
     <col min="13331" max="13568" width="9" style="1"/>
-    <col min="13569" max="13569" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="14.25" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="89.5" style="1" customWidth="1"/>
-    <col min="13572" max="13579" width="5.625" style="1" customWidth="1"/>
+    <col min="13569" max="13569" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="14.21875" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="89.44140625" style="1" customWidth="1"/>
+    <col min="13572" max="13579" width="5.6640625" style="1" customWidth="1"/>
     <col min="13580" max="13582" width="9" style="1"/>
     <col min="13583" max="13583" width="18" style="1" customWidth="1"/>
-    <col min="13584" max="13584" width="18.25" style="1" customWidth="1"/>
-    <col min="13585" max="13586" width="17.875" style="1" customWidth="1"/>
+    <col min="13584" max="13584" width="18.21875" style="1" customWidth="1"/>
+    <col min="13585" max="13586" width="17.88671875" style="1" customWidth="1"/>
     <col min="13587" max="13824" width="9" style="1"/>
-    <col min="13825" max="13825" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="14.25" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="89.5" style="1" customWidth="1"/>
-    <col min="13828" max="13835" width="5.625" style="1" customWidth="1"/>
+    <col min="13825" max="13825" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="14.21875" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="89.44140625" style="1" customWidth="1"/>
+    <col min="13828" max="13835" width="5.6640625" style="1" customWidth="1"/>
     <col min="13836" max="13838" width="9" style="1"/>
     <col min="13839" max="13839" width="18" style="1" customWidth="1"/>
-    <col min="13840" max="13840" width="18.25" style="1" customWidth="1"/>
-    <col min="13841" max="13842" width="17.875" style="1" customWidth="1"/>
+    <col min="13840" max="13840" width="18.21875" style="1" customWidth="1"/>
+    <col min="13841" max="13842" width="17.88671875" style="1" customWidth="1"/>
     <col min="13843" max="14080" width="9" style="1"/>
-    <col min="14081" max="14081" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="14.25" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="89.5" style="1" customWidth="1"/>
-    <col min="14084" max="14091" width="5.625" style="1" customWidth="1"/>
+    <col min="14081" max="14081" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="14.21875" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="89.44140625" style="1" customWidth="1"/>
+    <col min="14084" max="14091" width="5.6640625" style="1" customWidth="1"/>
     <col min="14092" max="14094" width="9" style="1"/>
     <col min="14095" max="14095" width="18" style="1" customWidth="1"/>
-    <col min="14096" max="14096" width="18.25" style="1" customWidth="1"/>
-    <col min="14097" max="14098" width="17.875" style="1" customWidth="1"/>
+    <col min="14096" max="14096" width="18.21875" style="1" customWidth="1"/>
+    <col min="14097" max="14098" width="17.88671875" style="1" customWidth="1"/>
     <col min="14099" max="14336" width="9" style="1"/>
-    <col min="14337" max="14337" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="14.25" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="89.5" style="1" customWidth="1"/>
-    <col min="14340" max="14347" width="5.625" style="1" customWidth="1"/>
+    <col min="14337" max="14337" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="14.21875" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="89.44140625" style="1" customWidth="1"/>
+    <col min="14340" max="14347" width="5.6640625" style="1" customWidth="1"/>
     <col min="14348" max="14350" width="9" style="1"/>
     <col min="14351" max="14351" width="18" style="1" customWidth="1"/>
-    <col min="14352" max="14352" width="18.25" style="1" customWidth="1"/>
-    <col min="14353" max="14354" width="17.875" style="1" customWidth="1"/>
+    <col min="14352" max="14352" width="18.21875" style="1" customWidth="1"/>
+    <col min="14353" max="14354" width="17.88671875" style="1" customWidth="1"/>
     <col min="14355" max="14592" width="9" style="1"/>
-    <col min="14593" max="14593" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="14.25" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="89.5" style="1" customWidth="1"/>
-    <col min="14596" max="14603" width="5.625" style="1" customWidth="1"/>
+    <col min="14593" max="14593" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="14.21875" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="89.44140625" style="1" customWidth="1"/>
+    <col min="14596" max="14603" width="5.6640625" style="1" customWidth="1"/>
     <col min="14604" max="14606" width="9" style="1"/>
     <col min="14607" max="14607" width="18" style="1" customWidth="1"/>
-    <col min="14608" max="14608" width="18.25" style="1" customWidth="1"/>
-    <col min="14609" max="14610" width="17.875" style="1" customWidth="1"/>
+    <col min="14608" max="14608" width="18.21875" style="1" customWidth="1"/>
+    <col min="14609" max="14610" width="17.88671875" style="1" customWidth="1"/>
     <col min="14611" max="14848" width="9" style="1"/>
-    <col min="14849" max="14849" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="14.25" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="89.5" style="1" customWidth="1"/>
-    <col min="14852" max="14859" width="5.625" style="1" customWidth="1"/>
+    <col min="14849" max="14849" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="14.21875" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="89.44140625" style="1" customWidth="1"/>
+    <col min="14852" max="14859" width="5.6640625" style="1" customWidth="1"/>
     <col min="14860" max="14862" width="9" style="1"/>
     <col min="14863" max="14863" width="18" style="1" customWidth="1"/>
-    <col min="14864" max="14864" width="18.25" style="1" customWidth="1"/>
-    <col min="14865" max="14866" width="17.875" style="1" customWidth="1"/>
+    <col min="14864" max="14864" width="18.21875" style="1" customWidth="1"/>
+    <col min="14865" max="14866" width="17.88671875" style="1" customWidth="1"/>
     <col min="14867" max="15104" width="9" style="1"/>
-    <col min="15105" max="15105" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="14.25" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="89.5" style="1" customWidth="1"/>
-    <col min="15108" max="15115" width="5.625" style="1" customWidth="1"/>
+    <col min="15105" max="15105" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="14.21875" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="89.44140625" style="1" customWidth="1"/>
+    <col min="15108" max="15115" width="5.6640625" style="1" customWidth="1"/>
     <col min="15116" max="15118" width="9" style="1"/>
     <col min="15119" max="15119" width="18" style="1" customWidth="1"/>
-    <col min="15120" max="15120" width="18.25" style="1" customWidth="1"/>
-    <col min="15121" max="15122" width="17.875" style="1" customWidth="1"/>
+    <col min="15120" max="15120" width="18.21875" style="1" customWidth="1"/>
+    <col min="15121" max="15122" width="17.88671875" style="1" customWidth="1"/>
     <col min="15123" max="15360" width="9" style="1"/>
-    <col min="15361" max="15361" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="14.25" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="89.5" style="1" customWidth="1"/>
-    <col min="15364" max="15371" width="5.625" style="1" customWidth="1"/>
+    <col min="15361" max="15361" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="14.21875" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="89.44140625" style="1" customWidth="1"/>
+    <col min="15364" max="15371" width="5.6640625" style="1" customWidth="1"/>
     <col min="15372" max="15374" width="9" style="1"/>
     <col min="15375" max="15375" width="18" style="1" customWidth="1"/>
-    <col min="15376" max="15376" width="18.25" style="1" customWidth="1"/>
-    <col min="15377" max="15378" width="17.875" style="1" customWidth="1"/>
+    <col min="15376" max="15376" width="18.21875" style="1" customWidth="1"/>
+    <col min="15377" max="15378" width="17.88671875" style="1" customWidth="1"/>
     <col min="15379" max="15616" width="9" style="1"/>
-    <col min="15617" max="15617" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="14.25" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="89.5" style="1" customWidth="1"/>
-    <col min="15620" max="15627" width="5.625" style="1" customWidth="1"/>
+    <col min="15617" max="15617" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="14.21875" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="89.44140625" style="1" customWidth="1"/>
+    <col min="15620" max="15627" width="5.6640625" style="1" customWidth="1"/>
     <col min="15628" max="15630" width="9" style="1"/>
     <col min="15631" max="15631" width="18" style="1" customWidth="1"/>
-    <col min="15632" max="15632" width="18.25" style="1" customWidth="1"/>
-    <col min="15633" max="15634" width="17.875" style="1" customWidth="1"/>
+    <col min="15632" max="15632" width="18.21875" style="1" customWidth="1"/>
+    <col min="15633" max="15634" width="17.88671875" style="1" customWidth="1"/>
     <col min="15635" max="15872" width="9" style="1"/>
-    <col min="15873" max="15873" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="14.25" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="89.5" style="1" customWidth="1"/>
-    <col min="15876" max="15883" width="5.625" style="1" customWidth="1"/>
+    <col min="15873" max="15873" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="14.21875" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="89.44140625" style="1" customWidth="1"/>
+    <col min="15876" max="15883" width="5.6640625" style="1" customWidth="1"/>
     <col min="15884" max="15886" width="9" style="1"/>
     <col min="15887" max="15887" width="18" style="1" customWidth="1"/>
-    <col min="15888" max="15888" width="18.25" style="1" customWidth="1"/>
-    <col min="15889" max="15890" width="17.875" style="1" customWidth="1"/>
+    <col min="15888" max="15888" width="18.21875" style="1" customWidth="1"/>
+    <col min="15889" max="15890" width="17.88671875" style="1" customWidth="1"/>
     <col min="15891" max="16128" width="9" style="1"/>
-    <col min="16129" max="16129" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="14.25" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="89.5" style="1" customWidth="1"/>
-    <col min="16132" max="16139" width="5.625" style="1" customWidth="1"/>
+    <col min="16129" max="16129" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="14.21875" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="89.44140625" style="1" customWidth="1"/>
+    <col min="16132" max="16139" width="5.6640625" style="1" customWidth="1"/>
     <col min="16140" max="16142" width="9" style="1"/>
     <col min="16143" max="16143" width="18" style="1" customWidth="1"/>
-    <col min="16144" max="16144" width="18.25" style="1" customWidth="1"/>
-    <col min="16145" max="16146" width="17.875" style="1" customWidth="1"/>
+    <col min="16144" max="16144" width="18.21875" style="1" customWidth="1"/>
+    <col min="16145" max="16146" width="17.88671875" style="1" customWidth="1"/>
     <col min="16147" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2541,7 +2551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="24.95" customHeight="1">
+    <row r="5" spans="1:11" ht="24.9" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2578,7 +2588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24.95" customHeight="1">
+    <row r="6" spans="1:11" ht="24.9" customHeight="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2615,7 +2625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="24.95" customHeight="1">
+    <row r="7" spans="1:11" ht="24.9" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2650,7 +2660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24.95" customHeight="1">
+    <row r="8" spans="1:11" ht="24.9" customHeight="1">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2687,7 +2697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="24.95" customHeight="1">
+    <row r="9" spans="1:11" ht="24.9" customHeight="1">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2722,7 +2732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24.95" customHeight="1">
+    <row r="10" spans="1:11" ht="24.9" customHeight="1">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2757,7 +2767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="24.95" customHeight="1">
+    <row r="11" spans="1:11" ht="24.9" customHeight="1">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -2794,7 +2804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="24.95" customHeight="1">
+    <row r="12" spans="1:11" ht="24.9" customHeight="1">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -2831,7 +2841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="24.95" customHeight="1">
+    <row r="13" spans="1:11" ht="24.9" customHeight="1">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2866,7 +2876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="24.95" customHeight="1">
+    <row r="14" spans="1:11" ht="24.9" customHeight="1">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2903,7 +2913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="24.95" customHeight="1">
+    <row r="15" spans="1:11" ht="24.9" customHeight="1">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -2940,7 +2950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="24.95" customHeight="1">
+    <row r="16" spans="1:11" ht="24.9" customHeight="1">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -2977,7 +2987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="24.95" customHeight="1">
+    <row r="17" spans="1:11" ht="24.9" customHeight="1">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -3014,7 +3024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="24.95" customHeight="1">
+    <row r="18" spans="1:11" ht="24.9" customHeight="1">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -3051,7 +3061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="24.95" customHeight="1">
+    <row r="19" spans="1:11" ht="24.9" customHeight="1">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -3086,7 +3096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="24.95" customHeight="1">
+    <row r="20" spans="1:11" ht="24.9" customHeight="1">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -3123,7 +3133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="24.95" customHeight="1">
+    <row r="21" spans="1:11" ht="24.9" customHeight="1">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -3160,7 +3170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="24.95" customHeight="1">
+    <row r="22" spans="1:11" ht="24.9" customHeight="1">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -3197,7 +3207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="24.95" customHeight="1">
+    <row r="23" spans="1:11" ht="24.9" customHeight="1">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -3234,7 +3244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="24.95" customHeight="1">
+    <row r="24" spans="1:11" ht="24.9" customHeight="1">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -3271,7 +3281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="24.95" customHeight="1">
+    <row r="25" spans="1:11" ht="24.9" customHeight="1">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -3308,7 +3318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24.95" customHeight="1">
+    <row r="26" spans="1:11" ht="24.9" customHeight="1">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -3345,7 +3355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="24.95" customHeight="1">
+    <row r="27" spans="1:11" ht="24.9" customHeight="1">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -3382,7 +3392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="24.95" customHeight="1">
+    <row r="28" spans="1:11" ht="24.9" customHeight="1">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -3419,7 +3429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="24.95" customHeight="1">
+    <row r="29" spans="1:11" ht="24.9" customHeight="1">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -3456,7 +3466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="24.95" customHeight="1">
+    <row r="30" spans="1:11" ht="24.9" customHeight="1">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -3493,7 +3503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="24.95" customHeight="1">
+    <row r="31" spans="1:11" ht="24.9" customHeight="1">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -3530,7 +3540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="24.95" customHeight="1">
+    <row r="32" spans="1:11" ht="24.9" customHeight="1">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -3567,7 +3577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="24.95" customHeight="1">
+    <row r="33" spans="1:11" ht="24.9" customHeight="1">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -3604,7 +3614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="24.95" customHeight="1">
+    <row r="34" spans="1:11" ht="24.9" customHeight="1">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -3641,7 +3651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="24.95" customHeight="1">
+    <row r="35" spans="1:11" ht="24.9" customHeight="1">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -3655,17 +3665,17 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="F35" s="6">
         <v>29</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>24</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <v>16</v>
       </c>
       <c r="I35" s="7">
@@ -3678,7 +3688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="24.95" customHeight="1">
+    <row r="36" spans="1:11" ht="24.9" customHeight="1">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -3713,7 +3723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="24.95" customHeight="1">
+    <row r="37" spans="1:11" ht="24.9" customHeight="1">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -3748,7 +3758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="24.95" customHeight="1">
+    <row r="38" spans="1:11" ht="24.9" customHeight="1">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -3783,7 +3793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="24.95" customHeight="1">
+    <row r="39" spans="1:11" ht="24.9" customHeight="1">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -3818,7 +3828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="24.95" customHeight="1">
+    <row r="40" spans="1:11" ht="24.9" customHeight="1">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -3853,7 +3863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="24.95" customHeight="1">
+    <row r="41" spans="1:11" ht="24.9" customHeight="1">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -3888,7 +3898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="24.95" customHeight="1">
+    <row r="42" spans="1:11" ht="24.9" customHeight="1">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -3923,7 +3933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="24.95" customHeight="1">
+    <row r="43" spans="1:11" ht="24.9" customHeight="1">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -3958,7 +3968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="24.95" customHeight="1">
+    <row r="44" spans="1:11" ht="24.9" customHeight="1">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -3993,7 +4003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="24.95" customHeight="1">
+    <row r="45" spans="1:11" ht="24.9" customHeight="1">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -4028,7 +4038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="24.95" customHeight="1">
+    <row r="46" spans="1:11" ht="24.9" customHeight="1">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -4063,7 +4073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="24.95" customHeight="1">
+    <row r="47" spans="1:11" ht="24.9" customHeight="1">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -4098,7 +4108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="24.95" customHeight="1">
+    <row r="48" spans="1:11" ht="24.9" customHeight="1">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -4133,7 +4143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="24.95" customHeight="1">
+    <row r="49" spans="1:11" ht="24.9" customHeight="1">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -4168,7 +4178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="24.95" customHeight="1">
+    <row r="50" spans="1:11" ht="24.9" customHeight="1">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -4203,7 +4213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="24.95" customHeight="1">
+    <row r="51" spans="1:11" ht="24.9" customHeight="1">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -4238,7 +4248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="24.95" customHeight="1">
+    <row r="52" spans="1:11" ht="24.9" customHeight="1">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -4273,7 +4283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="24.95" customHeight="1">
+    <row r="53" spans="1:11" ht="24.9" customHeight="1">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -4308,7 +4318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="24.95" customHeight="1">
+    <row r="54" spans="1:11" ht="24.9" customHeight="1">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -4343,7 +4353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="24.95" customHeight="1">
+    <row r="55" spans="1:11" ht="24.9" customHeight="1">
       <c r="A55" s="2">
         <v>51</v>
       </c>
@@ -4378,7 +4388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="24.95" customHeight="1">
+    <row r="56" spans="1:11" ht="24.9" customHeight="1">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -4413,7 +4423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="24.95" customHeight="1">
+    <row r="57" spans="1:11" ht="24.9" customHeight="1">
       <c r="A57" s="2">
         <v>53</v>
       </c>
@@ -4448,7 +4458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="24.95" customHeight="1">
+    <row r="58" spans="1:11" ht="24.9" customHeight="1">
       <c r="A58" s="2">
         <v>54</v>
       </c>
@@ -4483,7 +4493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="24.95" customHeight="1">
+    <row r="59" spans="1:11" ht="24.9" customHeight="1">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -4518,7 +4528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="24.95" customHeight="1">
+    <row r="60" spans="1:11" ht="24.9" customHeight="1">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -4553,7 +4563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="24.95" customHeight="1">
+    <row r="61" spans="1:11" ht="24.9" customHeight="1">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -4588,7 +4598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="24.95" customHeight="1">
+    <row r="62" spans="1:11" ht="24.9" customHeight="1">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -4623,7 +4633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="24.95" customHeight="1">
+    <row r="63" spans="1:11" ht="24.9" customHeight="1">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -4658,7 +4668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="24.95" customHeight="1">
+    <row r="64" spans="1:11" ht="24.9" customHeight="1">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -4693,7 +4703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="24.95" customHeight="1">
+    <row r="65" spans="1:11" ht="24.9" customHeight="1">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -4728,7 +4738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="24.95" customHeight="1">
+    <row r="66" spans="1:11" ht="24.9" customHeight="1">
       <c r="A66" s="2">
         <v>62</v>
       </c>
@@ -4763,7 +4773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="24.95" customHeight="1">
+    <row r="67" spans="1:11" ht="24.9" customHeight="1">
       <c r="A67" s="2">
         <v>63</v>
       </c>
@@ -4798,7 +4808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="24.95" customHeight="1">
+    <row r="68" spans="1:11" ht="24.9" customHeight="1">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -4833,7 +4843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="24.95" customHeight="1">
+    <row r="69" spans="1:11" ht="24.9" customHeight="1">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -4868,7 +4878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="24.95" customHeight="1">
+    <row r="70" spans="1:11" ht="24.9" customHeight="1">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -4903,7 +4913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="24.95" customHeight="1">
+    <row r="71" spans="1:11" ht="24.9" customHeight="1">
       <c r="A71" s="2">
         <v>67</v>
       </c>
@@ -4938,7 +4948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="24.95" customHeight="1">
+    <row r="72" spans="1:11" ht="24.9" customHeight="1">
       <c r="A72" s="2">
         <v>68</v>
       </c>
@@ -4973,7 +4983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="24.95" customHeight="1">
+    <row r="73" spans="1:11" ht="24.9" customHeight="1">
       <c r="A73" s="2">
         <v>69</v>
       </c>
@@ -5008,7 +5018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="24.95" customHeight="1">
+    <row r="74" spans="1:11" ht="24.9" customHeight="1">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -5043,7 +5053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="24.95" customHeight="1">
+    <row r="75" spans="1:11" ht="24.9" customHeight="1">
       <c r="A75" s="2">
         <v>71</v>
       </c>
@@ -5078,7 +5088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="24.95" customHeight="1">
+    <row r="76" spans="1:11" ht="24.9" customHeight="1">
       <c r="A76" s="2">
         <v>72</v>
       </c>
@@ -5113,7 +5123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="24.95" customHeight="1">
+    <row r="77" spans="1:11" ht="24.9" customHeight="1">
       <c r="A77" s="2">
         <v>73</v>
       </c>
@@ -5148,7 +5158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="24.95" customHeight="1">
+    <row r="78" spans="1:11" ht="24.9" customHeight="1">
       <c r="A78" s="2">
         <v>74</v>
       </c>
@@ -5183,7 +5193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="24.95" customHeight="1">
+    <row r="79" spans="1:11" ht="24.9" customHeight="1">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -5218,7 +5228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="24.95" customHeight="1">
+    <row r="80" spans="1:11" ht="24.9" customHeight="1">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -5253,7 +5263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="24.95" customHeight="1">
+    <row r="81" spans="1:11" ht="24.9" customHeight="1">
       <c r="A81" s="2">
         <v>77</v>
       </c>
@@ -5288,7 +5298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="24.95" customHeight="1">
+    <row r="82" spans="1:11" ht="24.9" customHeight="1">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -5323,7 +5333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="24.95" customHeight="1">
+    <row r="83" spans="1:11" ht="24.9" customHeight="1">
       <c r="A83" s="2">
         <v>79</v>
       </c>
@@ -5358,7 +5368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="24.95" customHeight="1">
+    <row r="84" spans="1:11" ht="24.9" customHeight="1">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -5393,7 +5403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="24.95" customHeight="1">
+    <row r="85" spans="1:11" ht="24.9" customHeight="1">
       <c r="A85" s="2">
         <v>81</v>
       </c>
@@ -5428,7 +5438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="24.95" customHeight="1">
+    <row r="86" spans="1:11" ht="24.9" customHeight="1">
       <c r="A86" s="2">
         <v>82</v>
       </c>
@@ -5463,7 +5473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="24.95" customHeight="1">
+    <row r="87" spans="1:11" ht="24.9" customHeight="1">
       <c r="A87" s="2">
         <v>83</v>
       </c>
@@ -5498,7 +5508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="24.95" customHeight="1">
+    <row r="88" spans="1:11" ht="24.9" customHeight="1">
       <c r="A88" s="2">
         <v>84</v>
       </c>
@@ -5533,7 +5543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="24.95" customHeight="1">
+    <row r="89" spans="1:11" ht="24.9" customHeight="1">
       <c r="A89" s="2">
         <v>85</v>
       </c>
@@ -5568,7 +5578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="24.95" customHeight="1">
+    <row r="90" spans="1:11" ht="24.9" customHeight="1">
       <c r="A90" s="2">
         <v>86</v>
       </c>
@@ -5603,7 +5613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="24.95" customHeight="1">
+    <row r="91" spans="1:11" ht="24.9" customHeight="1">
       <c r="A91" s="2">
         <v>87</v>
       </c>
@@ -5638,7 +5648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="24.95" customHeight="1">
+    <row r="92" spans="1:11" ht="24.9" customHeight="1">
       <c r="A92" s="2">
         <v>88</v>
       </c>
@@ -5673,7 +5683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="24.95" customHeight="1">
+    <row r="93" spans="1:11" ht="24.9" customHeight="1">
       <c r="A93" s="2">
         <v>89</v>
       </c>
@@ -5708,7 +5718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="24.95" customHeight="1">
+    <row r="94" spans="1:11" ht="24.9" customHeight="1">
       <c r="A94" s="2">
         <v>90</v>
       </c>
@@ -5743,7 +5753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="24.95" customHeight="1">
+    <row r="95" spans="1:11" ht="24.9" customHeight="1">
       <c r="A95" s="2">
         <v>91</v>
       </c>
@@ -5778,7 +5788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="24.95" customHeight="1">
+    <row r="96" spans="1:11" ht="24.9" customHeight="1">
       <c r="A96" s="2">
         <v>92</v>
       </c>
@@ -5813,7 +5823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="24.95" customHeight="1">
+    <row r="97" spans="1:11" ht="24.9" customHeight="1">
       <c r="A97" s="2">
         <v>93</v>
       </c>
@@ -5848,7 +5858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="24.95" customHeight="1">
+    <row r="98" spans="1:11" ht="24.9" customHeight="1">
       <c r="A98" s="2">
         <v>94</v>
       </c>
@@ -5883,7 +5893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="24.95" customHeight="1">
+    <row r="99" spans="1:11" ht="24.9" customHeight="1">
       <c r="A99" s="2">
         <v>95</v>
       </c>
@@ -5918,7 +5928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="24.95" customHeight="1">
+    <row r="100" spans="1:11" ht="24.9" customHeight="1">
       <c r="A100" s="2">
         <v>96</v>
       </c>
@@ -5953,7 +5963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="24.95" customHeight="1">
+    <row r="101" spans="1:11" ht="24.9" customHeight="1">
       <c r="A101" s="2">
         <v>97</v>
       </c>
@@ -5988,7 +5998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="24.95" customHeight="1">
+    <row r="102" spans="1:11" ht="24.9" customHeight="1">
       <c r="A102" s="2">
         <v>98</v>
       </c>
@@ -6023,7 +6033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="24.95" customHeight="1">
+    <row r="103" spans="1:11" ht="24.9" customHeight="1">
       <c r="A103" s="2">
         <v>99</v>
       </c>
@@ -6058,7 +6068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="24.95" customHeight="1">
+    <row r="104" spans="1:11" ht="24.9" customHeight="1">
       <c r="A104" s="2">
         <v>100</v>
       </c>
@@ -6093,7 +6103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="24.95" customHeight="1">
+    <row r="105" spans="1:11" ht="24.9" customHeight="1">
       <c r="A105" s="2">
         <v>101</v>
       </c>
@@ -6128,7 +6138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="24.95" customHeight="1">
+    <row r="106" spans="1:11" ht="24.9" customHeight="1">
       <c r="A106" s="2">
         <v>102</v>
       </c>
@@ -6163,7 +6173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="24.95" customHeight="1">
+    <row r="107" spans="1:11" ht="24.9" customHeight="1">
       <c r="A107" s="2">
         <v>103</v>
       </c>
@@ -6198,7 +6208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="24.95" customHeight="1">
+    <row r="108" spans="1:11" ht="24.9" customHeight="1">
       <c r="A108" s="2">
         <v>104</v>
       </c>
@@ -6233,7 +6243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="24.95" customHeight="1">
+    <row r="109" spans="1:11" ht="24.9" customHeight="1">
       <c r="A109" s="2">
         <v>105</v>
       </c>
@@ -6268,7 +6278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="24.95" customHeight="1">
+    <row r="110" spans="1:11" ht="24.9" customHeight="1">
       <c r="A110" s="2">
         <v>106</v>
       </c>
@@ -6303,7 +6313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="24.95" customHeight="1">
+    <row r="111" spans="1:11" ht="24.9" customHeight="1">
       <c r="A111" s="2">
         <v>107</v>
       </c>
@@ -6338,7 +6348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="24.95" customHeight="1">
+    <row r="112" spans="1:11" ht="24.9" customHeight="1">
       <c r="A112" s="2">
         <v>108</v>
       </c>
@@ -6373,7 +6383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="24.95" customHeight="1">
+    <row r="113" spans="1:11" ht="24.9" customHeight="1">
       <c r="A113" s="2">
         <v>109</v>
       </c>
@@ -6408,7 +6418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="24.95" customHeight="1">
+    <row r="114" spans="1:11" ht="24.9" customHeight="1">
       <c r="A114" s="2">
         <v>110</v>
       </c>
@@ -6443,7 +6453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="24.95" customHeight="1">
+    <row r="115" spans="1:11" ht="24.9" customHeight="1">
       <c r="A115" s="2">
         <v>111</v>
       </c>
@@ -6478,7 +6488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="24.95" customHeight="1">
+    <row r="116" spans="1:11" ht="24.9" customHeight="1">
       <c r="A116" s="2">
         <v>112</v>
       </c>
@@ -6513,7 +6523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="24.95" customHeight="1">
+    <row r="117" spans="1:11" ht="24.9" customHeight="1">
       <c r="A117" s="2">
         <v>113</v>
       </c>
@@ -6548,7 +6558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="24.95" customHeight="1">
+    <row r="118" spans="1:11" ht="24.9" customHeight="1">
       <c r="A118" s="2">
         <v>114</v>
       </c>
@@ -6583,7 +6593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="24.95" customHeight="1">
+    <row r="119" spans="1:11" ht="24.9" customHeight="1">
       <c r="A119" s="2">
         <v>115</v>
       </c>
@@ -6618,7 +6628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="24.95" customHeight="1">
+    <row r="120" spans="1:11" ht="24.9" customHeight="1">
       <c r="A120" s="2">
         <v>116</v>
       </c>
@@ -6653,7 +6663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="24.95" customHeight="1">
+    <row r="121" spans="1:11" ht="24.9" customHeight="1">
       <c r="A121" s="2">
         <v>117</v>
       </c>
@@ -6688,7 +6698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="24.95" customHeight="1">
+    <row r="122" spans="1:11" ht="24.9" customHeight="1">
       <c r="A122" s="2">
         <v>118</v>
       </c>
@@ -6723,7 +6733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="24.95" customHeight="1">
+    <row r="123" spans="1:11" ht="24.9" customHeight="1">
       <c r="A123" s="2">
         <v>119</v>
       </c>
@@ -6758,7 +6768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="24.95" customHeight="1">
+    <row r="124" spans="1:11" ht="24.9" customHeight="1">
       <c r="A124" s="2">
         <v>120</v>
       </c>
@@ -6793,7 +6803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="24.95" customHeight="1">
+    <row r="125" spans="1:11" ht="24.9" customHeight="1">
       <c r="A125" s="2">
         <v>121</v>
       </c>
@@ -6828,7 +6838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="24.95" customHeight="1">
+    <row r="126" spans="1:11" ht="24.9" customHeight="1">
       <c r="A126" s="2">
         <v>122</v>
       </c>
@@ -6863,7 +6873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="24.95" customHeight="1">
+    <row r="127" spans="1:11" ht="24.9" customHeight="1">
       <c r="A127" s="2">
         <v>123</v>
       </c>
@@ -6898,7 +6908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="24.95" customHeight="1">
+    <row r="128" spans="1:11" ht="24.9" customHeight="1">
       <c r="A128" s="2">
         <v>124</v>
       </c>
@@ -6933,7 +6943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="24.95" customHeight="1">
+    <row r="129" spans="1:11" ht="24.9" customHeight="1">
       <c r="A129" s="2">
         <v>125</v>
       </c>
@@ -6968,7 +6978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="24.95" customHeight="1">
+    <row r="130" spans="1:11" ht="24.9" customHeight="1">
       <c r="A130" s="2">
         <v>126</v>
       </c>
@@ -7003,7 +7013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="24.95" customHeight="1">
+    <row r="131" spans="1:11" ht="24.9" customHeight="1">
       <c r="A131" s="2">
         <v>127</v>
       </c>
@@ -7038,7 +7048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="24.95" customHeight="1">
+    <row r="132" spans="1:11" ht="24.9" customHeight="1">
       <c r="A132" s="2">
         <v>128</v>
       </c>
@@ -7073,7 +7083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="24.95" customHeight="1">
+    <row r="133" spans="1:11" ht="24.9" customHeight="1">
       <c r="A133" s="2">
         <v>129</v>
       </c>
@@ -7108,7 +7118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="24.95" customHeight="1">
+    <row r="134" spans="1:11" ht="24.9" customHeight="1">
       <c r="A134" s="2">
         <v>130</v>
       </c>
@@ -7143,7 +7153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="24.95" customHeight="1">
+    <row r="135" spans="1:11" ht="24.9" customHeight="1">
       <c r="A135" s="2">
         <v>131</v>
       </c>
@@ -7178,7 +7188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="24.95" customHeight="1">
+    <row r="136" spans="1:11" ht="24.9" customHeight="1">
       <c r="A136" s="2">
         <v>132</v>
       </c>
@@ -7213,7 +7223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="24.95" customHeight="1">
+    <row r="137" spans="1:11" ht="24.9" customHeight="1">
       <c r="A137" s="2">
         <v>133</v>
       </c>
@@ -7248,7 +7258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="24.95" customHeight="1">
+    <row r="138" spans="1:11" ht="24.9" customHeight="1">
       <c r="A138" s="2">
         <v>134</v>
       </c>
@@ -7283,7 +7293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="24.95" customHeight="1">
+    <row r="139" spans="1:11" ht="24.9" customHeight="1">
       <c r="A139" s="2">
         <v>135</v>
       </c>
@@ -7318,7 +7328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="24.95" customHeight="1">
+    <row r="140" spans="1:11" ht="24.9" customHeight="1">
       <c r="A140" s="2">
         <v>136</v>
       </c>
@@ -7353,7 +7363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="24.95" customHeight="1">
+    <row r="141" spans="1:11" ht="24.9" customHeight="1">
       <c r="A141" s="2">
         <v>137</v>
       </c>
@@ -7388,7 +7398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="24.95" customHeight="1">
+    <row r="142" spans="1:11" ht="24.9" customHeight="1">
       <c r="A142" s="2">
         <v>138</v>
       </c>
@@ -7423,7 +7433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="24.95" customHeight="1">
+    <row r="143" spans="1:11" ht="24.9" customHeight="1">
       <c r="A143" s="2">
         <v>139</v>
       </c>
@@ -7458,7 +7468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="24.95" customHeight="1">
+    <row r="144" spans="1:11" ht="24.9" customHeight="1">
       <c r="A144" s="2">
         <v>140</v>
       </c>
@@ -7493,7 +7503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="24.95" customHeight="1">
+    <row r="145" spans="1:11" ht="24.9" customHeight="1">
       <c r="A145" s="2">
         <v>141</v>
       </c>
@@ -7528,7 +7538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="24.95" customHeight="1">
+    <row r="146" spans="1:11" ht="24.9" customHeight="1">
       <c r="A146" s="2">
         <v>142</v>
       </c>
@@ -7563,7 +7573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="24.95" customHeight="1">
+    <row r="147" spans="1:11" ht="24.9" customHeight="1">
       <c r="A147" s="2">
         <v>143</v>
       </c>
@@ -7598,7 +7608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="24.95" customHeight="1">
+    <row r="148" spans="1:11" ht="24.9" customHeight="1">
       <c r="A148" s="2">
         <v>144</v>
       </c>
@@ -7633,7 +7643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="24.95" customHeight="1">
+    <row r="149" spans="1:11" ht="24.9" customHeight="1">
       <c r="A149" s="2">
         <v>145</v>
       </c>
@@ -7668,7 +7678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="24.95" customHeight="1">
+    <row r="150" spans="1:11" ht="24.9" customHeight="1">
       <c r="A150" s="2">
         <v>146</v>
       </c>
@@ -7703,7 +7713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="24.95" customHeight="1">
+    <row r="151" spans="1:11" ht="24.9" customHeight="1">
       <c r="A151" s="2">
         <v>147</v>
       </c>
@@ -7738,7 +7748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="24.95" customHeight="1">
+    <row r="152" spans="1:11" ht="24.9" customHeight="1">
       <c r="A152" s="2">
         <v>148</v>
       </c>
@@ -7773,7 +7783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="24.95" customHeight="1">
+    <row r="153" spans="1:11" ht="24.9" customHeight="1">
       <c r="A153" s="2">
         <v>149</v>
       </c>
@@ -7808,7 +7818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="24.95" customHeight="1">
+    <row r="154" spans="1:11" ht="24.9" customHeight="1">
       <c r="A154" s="2">
         <v>150</v>
       </c>
@@ -7843,7 +7853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="24.95" customHeight="1">
+    <row r="155" spans="1:11" ht="24.9" customHeight="1">
       <c r="A155" s="2">
         <v>151</v>
       </c>
@@ -7878,7 +7888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="24.95" customHeight="1">
+    <row r="156" spans="1:11" ht="24.9" customHeight="1">
       <c r="A156" s="2">
         <v>152</v>
       </c>
@@ -7913,7 +7923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="24.95" customHeight="1">
+    <row r="157" spans="1:11" ht="24.9" customHeight="1">
       <c r="A157" s="2">
         <v>153</v>
       </c>
@@ -7948,7 +7958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="24.95" customHeight="1">
+    <row r="158" spans="1:11" ht="24.9" customHeight="1">
       <c r="A158" s="2">
         <v>154</v>
       </c>
@@ -7983,7 +7993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="24.95" customHeight="1">
+    <row r="159" spans="1:11" ht="24.9" customHeight="1">
       <c r="A159" s="2">
         <v>155</v>
       </c>
@@ -8018,7 +8028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="24.95" customHeight="1">
+    <row r="160" spans="1:11" ht="24.9" customHeight="1">
       <c r="A160" s="2">
         <v>156</v>
       </c>
@@ -8053,7 +8063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="24.95" customHeight="1">
+    <row r="161" spans="1:11" ht="24.9" customHeight="1">
       <c r="A161" s="2">
         <v>157</v>
       </c>
@@ -8088,7 +8098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="24.95" customHeight="1">
+    <row r="162" spans="1:11" ht="24.9" customHeight="1">
       <c r="A162" s="2">
         <v>158</v>
       </c>
@@ -8123,7 +8133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="24.95" customHeight="1">
+    <row r="163" spans="1:11" ht="24.9" customHeight="1">
       <c r="A163" s="2">
         <v>159</v>
       </c>
@@ -8158,7 +8168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="24.95" customHeight="1">
+    <row r="164" spans="1:11" ht="24.9" customHeight="1">
       <c r="A164" s="2">
         <v>160</v>
       </c>
@@ -8193,7 +8203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="24.95" customHeight="1">
+    <row r="165" spans="1:11" ht="24.9" customHeight="1">
       <c r="A165" s="2">
         <v>161</v>
       </c>
@@ -8228,7 +8238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="24.95" customHeight="1">
+    <row r="166" spans="1:11" ht="24.9" customHeight="1">
       <c r="A166" s="2">
         <v>162</v>
       </c>
@@ -8263,7 +8273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="24.95" customHeight="1">
+    <row r="167" spans="1:11" ht="24.9" customHeight="1">
       <c r="A167" s="2">
         <v>163</v>
       </c>
@@ -8298,7 +8308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="24.95" customHeight="1">
+    <row r="168" spans="1:11" ht="24.9" customHeight="1">
       <c r="A168" s="2">
         <v>164</v>
       </c>
@@ -8333,7 +8343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="24.95" customHeight="1">
+    <row r="169" spans="1:11" ht="24.9" customHeight="1">
       <c r="A169" s="2">
         <v>165</v>
       </c>
@@ -8368,7 +8378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="24.95" customHeight="1">
+    <row r="170" spans="1:11" ht="24.9" customHeight="1">
       <c r="A170" s="2">
         <v>166</v>
       </c>
@@ -8403,7 +8413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="24.95" customHeight="1">
+    <row r="171" spans="1:11" ht="24.9" customHeight="1">
       <c r="A171" s="2">
         <v>167</v>
       </c>
@@ -8438,7 +8448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="24.95" customHeight="1">
+    <row r="172" spans="1:11" ht="24.9" customHeight="1">
       <c r="A172" s="2">
         <v>168</v>
       </c>
@@ -8473,7 +8483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="24.95" customHeight="1">
+    <row r="173" spans="1:11" ht="24.9" customHeight="1">
       <c r="A173" s="2">
         <v>169</v>
       </c>
@@ -8508,7 +8518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="24.95" customHeight="1">
+    <row r="174" spans="1:11" ht="24.9" customHeight="1">
       <c r="A174" s="2">
         <v>170</v>
       </c>
@@ -8543,7 +8553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="24.95" customHeight="1">
+    <row r="175" spans="1:11" ht="24.9" customHeight="1">
       <c r="A175" s="2">
         <v>171</v>
       </c>
@@ -8578,7 +8588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="24.95" customHeight="1">
+    <row r="176" spans="1:11" ht="24.9" customHeight="1">
       <c r="A176" s="2">
         <v>172</v>
       </c>
@@ -8613,7 +8623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="24.95" customHeight="1">
+    <row r="177" spans="1:11" ht="24.9" customHeight="1">
       <c r="A177" s="2">
         <v>173</v>
       </c>
@@ -8648,7 +8658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="24.95" customHeight="1">
+    <row r="178" spans="1:11" ht="24.9" customHeight="1">
       <c r="A178" s="2">
         <v>174</v>
       </c>
@@ -8683,7 +8693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="24.95" customHeight="1">
+    <row r="179" spans="1:11" ht="24.9" customHeight="1">
       <c r="A179" s="2">
         <v>175</v>
       </c>
@@ -8718,7 +8728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="24.95" customHeight="1">
+    <row r="180" spans="1:11" ht="24.9" customHeight="1">
       <c r="A180" s="2">
         <v>176</v>
       </c>
@@ -8753,7 +8763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="24.95" customHeight="1">
+    <row r="181" spans="1:11" ht="24.9" customHeight="1">
       <c r="A181" s="2">
         <v>177</v>
       </c>
@@ -8788,7 +8798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="24.95" customHeight="1">
+    <row r="182" spans="1:11" ht="24.9" customHeight="1">
       <c r="A182" s="2">
         <v>178</v>
       </c>
@@ -8823,7 +8833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="24.95" customHeight="1">
+    <row r="183" spans="1:11" ht="24.9" customHeight="1">
       <c r="A183" s="2">
         <v>179</v>
       </c>
@@ -8858,7 +8868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="24.95" customHeight="1">
+    <row r="184" spans="1:11" ht="24.9" customHeight="1">
       <c r="A184" s="2">
         <v>180</v>
       </c>
@@ -8893,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="24.95" customHeight="1">
+    <row r="185" spans="1:11" ht="24.9" customHeight="1">
       <c r="A185" s="2">
         <v>181</v>
       </c>
@@ -8928,7 +8938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="24.95" customHeight="1">
+    <row r="186" spans="1:11" ht="24.9" customHeight="1">
       <c r="A186" s="2">
         <v>182</v>
       </c>
@@ -8963,7 +8973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="24.95" customHeight="1">
+    <row r="187" spans="1:11" ht="24.9" customHeight="1">
       <c r="A187" s="2">
         <v>183</v>
       </c>
@@ -8998,7 +9008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="24.95" customHeight="1">
+    <row r="188" spans="1:11" ht="24.9" customHeight="1">
       <c r="A188" s="2">
         <v>184</v>
       </c>
@@ -9033,7 +9043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="24.95" customHeight="1">
+    <row r="189" spans="1:11" ht="24.9" customHeight="1">
       <c r="A189" s="2">
         <v>185</v>
       </c>
@@ -9068,7 +9078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="24.95" customHeight="1">
+    <row r="190" spans="1:11" ht="24.9" customHeight="1">
       <c r="A190" s="2">
         <v>186</v>
       </c>
@@ -9103,14 +9113,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="24.95" customHeight="1">
+    <row r="191" spans="1:11" ht="24.9" customHeight="1">
       <c r="A191" s="2">
         <v>187</v>
       </c>
       <c r="B191" s="4">
         <v>45762</v>
       </c>
-      <c r="C191" s="9"/>
+      <c r="C191" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="D191" s="7">
         <f t="shared" si="4"/>
         <v>187</v>
@@ -9138,7 +9150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="24.95" customHeight="1">
+    <row r="192" spans="1:11" ht="24.9" customHeight="1">
       <c r="A192" s="2">
         <v>188</v>
       </c>
@@ -9173,7 +9185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="24.95" customHeight="1">
+    <row r="193" spans="1:11" ht="24.9" customHeight="1">
       <c r="A193" s="2">
         <v>189</v>
       </c>
@@ -9208,7 +9220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="24.95" customHeight="1">
+    <row r="194" spans="1:11" ht="24.9" customHeight="1">
       <c r="A194" s="2">
         <v>190</v>
       </c>
@@ -9243,7 +9255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="24.95" customHeight="1">
+    <row r="195" spans="1:11" ht="24.9" customHeight="1">
       <c r="A195" s="2">
         <v>191</v>
       </c>
@@ -9278,7 +9290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="24.95" customHeight="1">
+    <row r="196" spans="1:11" ht="24.9" customHeight="1">
       <c r="A196" s="2">
         <v>192</v>
       </c>
@@ -9313,7 +9325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="24.95" customHeight="1">
+    <row r="197" spans="1:11" ht="24.9" customHeight="1">
       <c r="A197" s="2">
         <v>193</v>
       </c>
@@ -9348,7 +9360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="24.95" customHeight="1">
+    <row r="198" spans="1:11" ht="24.9" customHeight="1">
       <c r="A198" s="2">
         <v>194</v>
       </c>
@@ -9383,7 +9395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="24.95" customHeight="1">
+    <row r="199" spans="1:11" ht="24.9" customHeight="1">
       <c r="A199" s="2">
         <v>195</v>
       </c>
@@ -9418,7 +9430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="24.95" customHeight="1">
+    <row r="200" spans="1:11" ht="24.9" customHeight="1">
       <c r="A200" s="2">
         <v>196</v>
       </c>
@@ -9453,7 +9465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="24.95" customHeight="1">
+    <row r="201" spans="1:11" ht="24.9" customHeight="1">
       <c r="A201" s="2">
         <v>197</v>
       </c>
@@ -9488,7 +9500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="24.95" customHeight="1">
+    <row r="202" spans="1:11" ht="24.9" customHeight="1">
       <c r="A202" s="2">
         <v>198</v>
       </c>
@@ -9523,7 +9535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="24.95" customHeight="1">
+    <row r="203" spans="1:11" ht="24.9" customHeight="1">
       <c r="A203" s="2">
         <v>199</v>
       </c>
@@ -9558,7 +9570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="24.95" customHeight="1">
+    <row r="204" spans="1:11" ht="24.9" customHeight="1">
       <c r="A204" s="2">
         <v>200</v>
       </c>
@@ -9593,7 +9605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="24.95" customHeight="1">
+    <row r="205" spans="1:11" ht="24.9" customHeight="1">
       <c r="A205" s="2">
         <v>201</v>
       </c>
@@ -9628,7 +9640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="24.95" customHeight="1">
+    <row r="206" spans="1:11" ht="24.9" customHeight="1">
       <c r="A206" s="2">
         <v>202</v>
       </c>
@@ -9663,7 +9675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="24.95" customHeight="1">
+    <row r="207" spans="1:11" ht="24.9" customHeight="1">
       <c r="A207" s="2">
         <v>203</v>
       </c>
@@ -9698,7 +9710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="24.95" customHeight="1">
+    <row r="208" spans="1:11" ht="24.9" customHeight="1">
       <c r="A208" s="2">
         <v>204</v>
       </c>
@@ -9733,7 +9745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="24.95" customHeight="1">
+    <row r="209" spans="1:11" ht="24.9" customHeight="1">
       <c r="A209" s="2">
         <v>205</v>
       </c>
@@ -9768,7 +9780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="24.95" customHeight="1">
+    <row r="210" spans="1:11" ht="24.9" customHeight="1">
       <c r="A210" s="2">
         <v>206</v>
       </c>
@@ -9803,7 +9815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="24.95" customHeight="1">
+    <row r="211" spans="1:11" ht="24.9" customHeight="1">
       <c r="A211" s="2">
         <v>207</v>
       </c>
@@ -9838,7 +9850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="24.95" customHeight="1">
+    <row r="212" spans="1:11" ht="24.9" customHeight="1">
       <c r="A212" s="2">
         <v>208</v>
       </c>
@@ -9873,7 +9885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="24.95" customHeight="1">
+    <row r="213" spans="1:11" ht="24.9" customHeight="1">
       <c r="A213" s="2">
         <v>209</v>
       </c>
@@ -9908,7 +9920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="24.95" customHeight="1">
+    <row r="214" spans="1:11" ht="24.9" customHeight="1">
       <c r="A214" s="2">
         <v>210</v>
       </c>
@@ -9943,7 +9955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="24.95" customHeight="1">
+    <row r="215" spans="1:11" ht="24.9" customHeight="1">
       <c r="A215" s="2">
         <v>211</v>
       </c>
@@ -9978,7 +9990,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="24.95" customHeight="1">
+    <row r="216" spans="1:11" ht="24.9" customHeight="1">
       <c r="A216" s="2">
         <v>212</v>
       </c>
@@ -10013,7 +10025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="24.95" customHeight="1">
+    <row r="217" spans="1:11" ht="24.9" customHeight="1">
       <c r="A217" s="2">
         <v>213</v>
       </c>
@@ -10048,7 +10060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="24.95" customHeight="1">
+    <row r="218" spans="1:11" ht="24.9" customHeight="1">
       <c r="A218" s="2">
         <v>214</v>
       </c>
@@ -10083,7 +10095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="24.95" customHeight="1">
+    <row r="219" spans="1:11" ht="24.9" customHeight="1">
       <c r="A219" s="2">
         <v>215</v>
       </c>
@@ -10118,7 +10130,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="24.95" customHeight="1">
+    <row r="220" spans="1:11" ht="24.9" customHeight="1">
       <c r="A220" s="2">
         <v>216</v>
       </c>
@@ -10153,7 +10165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="24.95" customHeight="1">
+    <row r="221" spans="1:11" ht="24.9" customHeight="1">
       <c r="A221" s="2">
         <v>217</v>
       </c>
@@ -10188,7 +10200,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="24.95" customHeight="1">
+    <row r="222" spans="1:11" ht="24.9" customHeight="1">
       <c r="A222" s="2">
         <v>218</v>
       </c>
@@ -10223,7 +10235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="24.95" customHeight="1">
+    <row r="223" spans="1:11" ht="24.9" customHeight="1">
       <c r="A223" s="2">
         <v>219</v>
       </c>
@@ -10258,7 +10270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="24.95" customHeight="1">
+    <row r="224" spans="1:11" ht="24.9" customHeight="1">
       <c r="A224" s="2">
         <v>220</v>
       </c>
@@ -10293,7 +10305,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="24.95" customHeight="1">
+    <row r="225" spans="1:11" ht="24.9" customHeight="1">
       <c r="A225" s="2">
         <v>221</v>
       </c>
@@ -10328,7 +10340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="24.95" customHeight="1">
+    <row r="226" spans="1:11" ht="24.9" customHeight="1">
       <c r="A226" s="2">
         <v>222</v>
       </c>
@@ -10363,7 +10375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="24.95" customHeight="1">
+    <row r="227" spans="1:11" ht="24.9" customHeight="1">
       <c r="A227" s="2">
         <v>223</v>
       </c>
@@ -10398,7 +10410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="24.95" customHeight="1">
+    <row r="228" spans="1:11" ht="24.9" customHeight="1">
       <c r="A228" s="2">
         <v>224</v>
       </c>
@@ -10433,7 +10445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="24.95" customHeight="1">
+    <row r="229" spans="1:11" ht="24.9" customHeight="1">
       <c r="A229" s="2">
         <v>225</v>
       </c>
@@ -10468,7 +10480,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="24.95" customHeight="1">
+    <row r="230" spans="1:11" ht="24.9" customHeight="1">
       <c r="A230" s="2">
         <v>226</v>
       </c>
@@ -10503,7 +10515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="24.95" customHeight="1">
+    <row r="231" spans="1:11" ht="24.9" customHeight="1">
       <c r="A231" s="2">
         <v>227</v>
       </c>
@@ -10538,7 +10550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="24.95" customHeight="1">
+    <row r="232" spans="1:11" ht="24.9" customHeight="1">
       <c r="A232" s="2">
         <v>228</v>
       </c>
@@ -10573,7 +10585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="24.95" customHeight="1">
+    <row r="233" spans="1:11" ht="24.9" customHeight="1">
       <c r="A233" s="2">
         <v>229</v>
       </c>
@@ -10608,7 +10620,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="24.95" customHeight="1">
+    <row r="234" spans="1:11" ht="24.9" customHeight="1">
       <c r="A234" s="2">
         <v>230</v>
       </c>
@@ -10643,7 +10655,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="24.95" customHeight="1">
+    <row r="235" spans="1:11" ht="24.9" customHeight="1">
       <c r="A235" s="2">
         <v>231</v>
       </c>
@@ -10678,7 +10690,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="24.95" customHeight="1">
+    <row r="236" spans="1:11" ht="24.9" customHeight="1">
       <c r="A236" s="2">
         <v>232</v>
       </c>
@@ -10713,7 +10725,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="24.95" customHeight="1">
+    <row r="237" spans="1:11" ht="24.9" customHeight="1">
       <c r="A237" s="2">
         <v>233</v>
       </c>
@@ -10748,7 +10760,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="24.95" customHeight="1">
+    <row r="238" spans="1:11" ht="24.9" customHeight="1">
       <c r="A238" s="2">
         <v>234</v>
       </c>
@@ -10783,7 +10795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="24.95" customHeight="1">
+    <row r="239" spans="1:11" ht="24.9" customHeight="1">
       <c r="A239" s="2">
         <v>235</v>
       </c>
@@ -10818,7 +10830,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="24.95" customHeight="1">
+    <row r="240" spans="1:11" ht="24.9" customHeight="1">
       <c r="A240" s="2">
         <v>236</v>
       </c>
@@ -10853,7 +10865,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="24.95" customHeight="1">
+    <row r="241" spans="1:11" ht="24.9" customHeight="1">
       <c r="A241" s="2">
         <v>237</v>
       </c>
@@ -10888,7 +10900,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="24.95" customHeight="1">
+    <row r="242" spans="1:11" ht="24.9" customHeight="1">
       <c r="A242" s="2">
         <v>238</v>
       </c>
@@ -10923,7 +10935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="24.95" customHeight="1">
+    <row r="243" spans="1:11" ht="24.9" customHeight="1">
       <c r="A243" s="2">
         <v>239</v>
       </c>
@@ -10958,7 +10970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="24.95" customHeight="1">
+    <row r="244" spans="1:11" ht="24.9" customHeight="1">
       <c r="A244" s="2">
         <v>240</v>
       </c>
@@ -10993,7 +11005,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="24.95" customHeight="1">
+    <row r="245" spans="1:11" ht="24.9" customHeight="1">
       <c r="A245" s="2">
         <v>241</v>
       </c>
@@ -11028,7 +11040,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="24.95" customHeight="1">
+    <row r="246" spans="1:11" ht="24.9" customHeight="1">
       <c r="A246" s="2">
         <v>242</v>
       </c>
@@ -11063,7 +11075,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="24.95" customHeight="1">
+    <row r="247" spans="1:11" ht="24.9" customHeight="1">
       <c r="A247" s="2">
         <v>243</v>
       </c>
@@ -11098,7 +11110,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="24.95" customHeight="1">
+    <row r="248" spans="1:11" ht="24.9" customHeight="1">
       <c r="A248" s="2">
         <v>244</v>
       </c>
@@ -11133,7 +11145,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="24.95" customHeight="1">
+    <row r="249" spans="1:11" ht="24.9" customHeight="1">
       <c r="A249" s="2">
         <v>245</v>
       </c>
@@ -11168,7 +11180,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="24.95" customHeight="1">
+    <row r="250" spans="1:11" ht="24.9" customHeight="1">
       <c r="A250" s="2">
         <v>246</v>
       </c>
@@ -11203,7 +11215,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="24.95" customHeight="1">
+    <row r="251" spans="1:11" ht="24.9" customHeight="1">
       <c r="A251" s="2">
         <v>247</v>
       </c>
@@ -11238,7 +11250,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="24.95" customHeight="1">
+    <row r="252" spans="1:11" ht="24.9" customHeight="1">
       <c r="A252" s="2">
         <v>248</v>
       </c>
@@ -11273,7 +11285,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="24.95" customHeight="1">
+    <row r="253" spans="1:11" ht="24.9" customHeight="1">
       <c r="A253" s="2">
         <v>249</v>
       </c>
@@ -11308,7 +11320,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="24.95" customHeight="1">
+    <row r="254" spans="1:11" ht="24.9" customHeight="1">
       <c r="A254" s="2">
         <v>250</v>
       </c>
@@ -11343,7 +11355,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="24.95" customHeight="1">
+    <row r="255" spans="1:11" ht="24.9" customHeight="1">
       <c r="A255" s="2">
         <v>251</v>
       </c>
@@ -11378,7 +11390,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="24.95" customHeight="1">
+    <row r="256" spans="1:11" ht="24.9" customHeight="1">
       <c r="A256" s="2">
         <v>252</v>
       </c>
@@ -11413,7 +11425,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="24.95" customHeight="1">
+    <row r="257" spans="1:11" ht="24.9" customHeight="1">
       <c r="A257" s="2">
         <v>253</v>
       </c>
@@ -11448,7 +11460,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="24.95" customHeight="1">
+    <row r="258" spans="1:11" ht="24.9" customHeight="1">
       <c r="A258" s="2">
         <v>254</v>
       </c>
@@ -11483,7 +11495,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="24.95" customHeight="1">
+    <row r="259" spans="1:11" ht="24.9" customHeight="1">
       <c r="A259" s="2">
         <v>255</v>
       </c>
@@ -11518,7 +11530,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="24.95" customHeight="1">
+    <row r="260" spans="1:11" ht="24.9" customHeight="1">
       <c r="A260" s="2">
         <v>256</v>
       </c>
@@ -11553,7 +11565,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="24.95" customHeight="1">
+    <row r="261" spans="1:11" ht="24.9" customHeight="1">
       <c r="A261" s="2">
         <v>257</v>
       </c>
@@ -11588,7 +11600,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="24.95" customHeight="1">
+    <row r="262" spans="1:11" ht="24.9" customHeight="1">
       <c r="A262" s="2">
         <v>258</v>
       </c>
@@ -11623,7 +11635,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="24.95" customHeight="1">
+    <row r="263" spans="1:11" ht="24.9" customHeight="1">
       <c r="A263" s="2">
         <v>259</v>
       </c>
@@ -11658,7 +11670,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="24.95" customHeight="1">
+    <row r="264" spans="1:11" ht="24.9" customHeight="1">
       <c r="A264" s="2">
         <v>260</v>
       </c>
@@ -11693,7 +11705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="24.95" customHeight="1">
+    <row r="265" spans="1:11" ht="24.9" customHeight="1">
       <c r="A265" s="2">
         <v>261</v>
       </c>
@@ -11728,7 +11740,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="24.95" customHeight="1">
+    <row r="266" spans="1:11" ht="24.9" customHeight="1">
       <c r="A266" s="2">
         <v>262</v>
       </c>
@@ -11763,7 +11775,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="24.95" customHeight="1">
+    <row r="267" spans="1:11" ht="24.9" customHeight="1">
       <c r="A267" s="2">
         <v>263</v>
       </c>
@@ -11798,7 +11810,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="24.95" customHeight="1">
+    <row r="268" spans="1:11" ht="24.9" customHeight="1">
       <c r="A268" s="2">
         <v>264</v>
       </c>
@@ -11833,7 +11845,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="24.95" customHeight="1">
+    <row r="269" spans="1:11" ht="24.9" customHeight="1">
       <c r="A269" s="2">
         <v>265</v>
       </c>
@@ -11868,7 +11880,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="24.95" customHeight="1">
+    <row r="270" spans="1:11" ht="24.9" customHeight="1">
       <c r="A270" s="2">
         <v>266</v>
       </c>
@@ -11903,7 +11915,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="24.95" customHeight="1">
+    <row r="271" spans="1:11" ht="24.9" customHeight="1">
       <c r="A271" s="2">
         <v>267</v>
       </c>
@@ -11938,7 +11950,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="24.95" customHeight="1">
+    <row r="272" spans="1:11" ht="24.9" customHeight="1">
       <c r="A272" s="2">
         <v>268</v>
       </c>
@@ -11973,7 +11985,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="24.95" customHeight="1">
+    <row r="273" spans="1:11" ht="24.9" customHeight="1">
       <c r="A273" s="2">
         <v>269</v>
       </c>
@@ -12008,7 +12020,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="24.95" customHeight="1">
+    <row r="274" spans="1:11" ht="24.9" customHeight="1">
       <c r="A274" s="2">
         <v>270</v>
       </c>
@@ -12043,7 +12055,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="24.95" customHeight="1">
+    <row r="275" spans="1:11" ht="24.9" customHeight="1">
       <c r="A275" s="2">
         <v>271</v>
       </c>
@@ -12078,7 +12090,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="24.95" customHeight="1">
+    <row r="276" spans="1:11" ht="24.9" customHeight="1">
       <c r="A276" s="2">
         <v>272</v>
       </c>
@@ -12113,7 +12125,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="24.95" customHeight="1">
+    <row r="277" spans="1:11" ht="24.9" customHeight="1">
       <c r="A277" s="2">
         <v>273</v>
       </c>
@@ -12148,7 +12160,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="24.95" customHeight="1">
+    <row r="278" spans="1:11" ht="24.9" customHeight="1">
       <c r="A278" s="2">
         <v>274</v>
       </c>
@@ -12183,7 +12195,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="24.95" customHeight="1">
+    <row r="279" spans="1:11" ht="24.9" customHeight="1">
       <c r="A279" s="2">
         <v>275</v>
       </c>
@@ -12218,7 +12230,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="24.95" customHeight="1">
+    <row r="280" spans="1:11" ht="24.9" customHeight="1">
       <c r="A280" s="2">
         <v>276</v>
       </c>
@@ -12253,7 +12265,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="24.95" customHeight="1">
+    <row r="281" spans="1:11" ht="24.9" customHeight="1">
       <c r="A281" s="2">
         <v>277</v>
       </c>
@@ -12288,7 +12300,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="24.95" customHeight="1">
+    <row r="282" spans="1:11" ht="24.9" customHeight="1">
       <c r="A282" s="2">
         <v>278</v>
       </c>
@@ -12323,7 +12335,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="24.95" customHeight="1">
+    <row r="283" spans="1:11" ht="24.9" customHeight="1">
       <c r="A283" s="2">
         <v>279</v>
       </c>
@@ -12358,7 +12370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="24.95" customHeight="1">
+    <row r="284" spans="1:11" ht="24.9" customHeight="1">
       <c r="A284" s="2">
         <v>280</v>
       </c>
@@ -12393,7 +12405,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="24.95" customHeight="1">
+    <row r="285" spans="1:11" ht="24.9" customHeight="1">
       <c r="A285" s="2">
         <v>281</v>
       </c>
@@ -12428,7 +12440,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="24.95" customHeight="1">
+    <row r="286" spans="1:11" ht="24.9" customHeight="1">
       <c r="A286" s="2">
         <v>282</v>
       </c>
@@ -12463,7 +12475,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="24.95" customHeight="1">
+    <row r="287" spans="1:11" ht="24.9" customHeight="1">
       <c r="A287" s="2">
         <v>283</v>
       </c>
@@ -12498,7 +12510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="24.95" customHeight="1">
+    <row r="288" spans="1:11" ht="24.9" customHeight="1">
       <c r="A288" s="2">
         <v>284</v>
       </c>
@@ -12533,7 +12545,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="24.95" customHeight="1">
+    <row r="289" spans="1:11" ht="24.9" customHeight="1">
       <c r="A289" s="2">
         <v>285</v>
       </c>
@@ -12568,7 +12580,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="24.95" customHeight="1">
+    <row r="290" spans="1:11" ht="24.9" customHeight="1">
       <c r="A290" s="2">
         <v>286</v>
       </c>
@@ -12603,7 +12615,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="24.95" customHeight="1">
+    <row r="291" spans="1:11" ht="24.9" customHeight="1">
       <c r="A291" s="2">
         <v>287</v>
       </c>
@@ -12638,7 +12650,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="24.95" customHeight="1">
+    <row r="292" spans="1:11" ht="24.9" customHeight="1">
       <c r="A292" s="2">
         <v>288</v>
       </c>
@@ -12673,7 +12685,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="24.95" customHeight="1">
+    <row r="293" spans="1:11" ht="24.9" customHeight="1">
       <c r="A293" s="2">
         <v>289</v>
       </c>
@@ -12708,7 +12720,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="24.95" customHeight="1">
+    <row r="294" spans="1:11" ht="24.9" customHeight="1">
       <c r="A294" s="2">
         <v>290</v>
       </c>
@@ -12743,7 +12755,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="24.95" customHeight="1">
+    <row r="295" spans="1:11" ht="24.9" customHeight="1">
       <c r="A295" s="2">
         <v>291</v>
       </c>
@@ -12778,7 +12790,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="24.95" customHeight="1">
+    <row r="296" spans="1:11" ht="24.9" customHeight="1">
       <c r="A296" s="2">
         <v>292</v>
       </c>
@@ -12813,7 +12825,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="24.95" customHeight="1">
+    <row r="297" spans="1:11" ht="24.9" customHeight="1">
       <c r="A297" s="2">
         <v>293</v>
       </c>
@@ -12848,7 +12860,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="24.95" customHeight="1">
+    <row r="298" spans="1:11" ht="24.9" customHeight="1">
       <c r="A298" s="2">
         <v>294</v>
       </c>
@@ -12883,7 +12895,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="24.95" customHeight="1">
+    <row r="299" spans="1:11" ht="24.9" customHeight="1">
       <c r="A299" s="2">
         <v>295</v>
       </c>
@@ -12918,7 +12930,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="24.95" customHeight="1">
+    <row r="300" spans="1:11" ht="24.9" customHeight="1">
       <c r="A300" s="2">
         <v>296</v>
       </c>
@@ -12953,7 +12965,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="24.95" customHeight="1">
+    <row r="301" spans="1:11" ht="24.9" customHeight="1">
       <c r="A301" s="2">
         <v>297</v>
       </c>
@@ -12988,7 +13000,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="24.95" customHeight="1">
+    <row r="302" spans="1:11" ht="24.9" customHeight="1">
       <c r="A302" s="2">
         <v>298</v>
       </c>
@@ -13023,7 +13035,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="24.95" customHeight="1">
+    <row r="303" spans="1:11" ht="24.9" customHeight="1">
       <c r="A303" s="2">
         <v>299</v>
       </c>
@@ -13058,7 +13070,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="24.95" customHeight="1">
+    <row r="304" spans="1:11" ht="24.9" customHeight="1">
       <c r="A304" s="2">
         <v>300</v>
       </c>
@@ -13093,7 +13105,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="24.95" customHeight="1">
+    <row r="305" spans="1:11" ht="24.9" customHeight="1">
       <c r="A305" s="2">
         <v>301</v>
       </c>
@@ -13128,7 +13140,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="24.95" customHeight="1">
+    <row r="306" spans="1:11" ht="24.9" customHeight="1">
       <c r="A306" s="2">
         <v>302</v>
       </c>
@@ -13163,7 +13175,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="24.95" customHeight="1">
+    <row r="307" spans="1:11" ht="24.9" customHeight="1">
       <c r="A307" s="2">
         <v>303</v>
       </c>
@@ -13198,7 +13210,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="24.95" customHeight="1">
+    <row r="308" spans="1:11" ht="24.9" customHeight="1">
       <c r="A308" s="2">
         <v>304</v>
       </c>
@@ -13233,7 +13245,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="24.95" customHeight="1">
+    <row r="309" spans="1:11" ht="24.9" customHeight="1">
       <c r="A309" s="2">
         <v>305</v>
       </c>
@@ -13268,7 +13280,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="24.95" customHeight="1">
+    <row r="310" spans="1:11" ht="24.9" customHeight="1">
       <c r="A310" s="2">
         <v>306</v>
       </c>
@@ -13303,7 +13315,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="24.95" customHeight="1">
+    <row r="311" spans="1:11" ht="24.9" customHeight="1">
       <c r="A311" s="2">
         <v>307</v>
       </c>
@@ -13338,7 +13350,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="24.95" customHeight="1">
+    <row r="312" spans="1:11" ht="24.9" customHeight="1">
       <c r="A312" s="2">
         <v>308</v>
       </c>
@@ -13373,7 +13385,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="24.95" customHeight="1">
+    <row r="313" spans="1:11" ht="24.9" customHeight="1">
       <c r="A313" s="2">
         <v>309</v>
       </c>
@@ -13408,7 +13420,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="24.95" customHeight="1">
+    <row r="314" spans="1:11" ht="24.9" customHeight="1">
       <c r="A314" s="2">
         <v>310</v>
       </c>
@@ -13443,7 +13455,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="24.95" customHeight="1">
+    <row r="315" spans="1:11" ht="24.9" customHeight="1">
       <c r="A315" s="2">
         <v>311</v>
       </c>
@@ -13478,7 +13490,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="24.95" customHeight="1">
+    <row r="316" spans="1:11" ht="24.9" customHeight="1">
       <c r="A316" s="2">
         <v>312</v>
       </c>
@@ -13513,7 +13525,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="24.95" customHeight="1">
+    <row r="317" spans="1:11" ht="24.9" customHeight="1">
       <c r="A317" s="2">
         <v>313</v>
       </c>
@@ -13548,7 +13560,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="24.95" customHeight="1">
+    <row r="318" spans="1:11" ht="24.9" customHeight="1">
       <c r="A318" s="2">
         <v>314</v>
       </c>
@@ -13583,7 +13595,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="24.95" customHeight="1">
+    <row r="319" spans="1:11" ht="24.9" customHeight="1">
       <c r="A319" s="2">
         <v>315</v>
       </c>
@@ -13618,7 +13630,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="24.95" customHeight="1">
+    <row r="320" spans="1:11" ht="24.9" customHeight="1">
       <c r="A320" s="2">
         <v>316</v>
       </c>
@@ -13653,7 +13665,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="24.95" customHeight="1">
+    <row r="321" spans="1:11" ht="24.9" customHeight="1">
       <c r="A321" s="2">
         <v>317</v>
       </c>
@@ -13688,7 +13700,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="24.95" customHeight="1">
+    <row r="322" spans="1:11" ht="24.9" customHeight="1">
       <c r="A322" s="2">
         <v>318</v>
       </c>
@@ -13723,7 +13735,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="24.95" customHeight="1">
+    <row r="323" spans="1:11" ht="24.9" customHeight="1">
       <c r="A323" s="2">
         <v>319</v>
       </c>
@@ -13758,7 +13770,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="24.95" customHeight="1">
+    <row r="324" spans="1:11" ht="24.9" customHeight="1">
       <c r="A324" s="2">
         <v>320</v>
       </c>
@@ -13793,7 +13805,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="24.95" customHeight="1">
+    <row r="325" spans="1:11" ht="24.9" customHeight="1">
       <c r="A325" s="2">
         <v>321</v>
       </c>
@@ -13828,7 +13840,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="24.95" customHeight="1">
+    <row r="326" spans="1:11" ht="24.9" customHeight="1">
       <c r="A326" s="2">
         <v>322</v>
       </c>
@@ -13863,7 +13875,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="24.95" customHeight="1">
+    <row r="327" spans="1:11" ht="24.9" customHeight="1">
       <c r="A327" s="2">
         <v>323</v>
       </c>
@@ -13898,7 +13910,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="24.95" customHeight="1">
+    <row r="328" spans="1:11" ht="24.9" customHeight="1">
       <c r="A328" s="2">
         <v>324</v>
       </c>
@@ -13933,7 +13945,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="24.95" customHeight="1">
+    <row r="329" spans="1:11" ht="24.9" customHeight="1">
       <c r="A329" s="2">
         <v>325</v>
       </c>
@@ -13968,7 +13980,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="24.95" customHeight="1">
+    <row r="330" spans="1:11" ht="24.9" customHeight="1">
       <c r="A330" s="2">
         <v>326</v>
       </c>
@@ -14003,7 +14015,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="24.95" customHeight="1">
+    <row r="331" spans="1:11" ht="24.9" customHeight="1">
       <c r="A331" s="2">
         <v>327</v>
       </c>
@@ -14038,7 +14050,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="24.95" customHeight="1">
+    <row r="332" spans="1:11" ht="24.9" customHeight="1">
       <c r="A332" s="2">
         <v>328</v>
       </c>
@@ -14073,7 +14085,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="24.95" customHeight="1">
+    <row r="333" spans="1:11" ht="24.9" customHeight="1">
       <c r="A333" s="2">
         <v>329</v>
       </c>
@@ -14108,7 +14120,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="24.95" customHeight="1">
+    <row r="334" spans="1:11" ht="24.9" customHeight="1">
       <c r="A334" s="2">
         <v>330</v>
       </c>
@@ -14143,7 +14155,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="24.95" customHeight="1">
+    <row r="335" spans="1:11" ht="24.9" customHeight="1">
       <c r="A335" s="2">
         <v>331</v>
       </c>
@@ -14178,7 +14190,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="24.95" customHeight="1">
+    <row r="336" spans="1:11" ht="24.9" customHeight="1">
       <c r="A336" s="2">
         <v>332</v>
       </c>
@@ -14213,7 +14225,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="24.95" customHeight="1">
+    <row r="337" spans="1:11" ht="24.9" customHeight="1">
       <c r="A337" s="2">
         <v>333</v>
       </c>
@@ -14248,7 +14260,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="24.95" customHeight="1">
+    <row r="338" spans="1:11" ht="24.9" customHeight="1">
       <c r="A338" s="2">
         <v>334</v>
       </c>
@@ -14283,7 +14295,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="24.95" customHeight="1">
+    <row r="339" spans="1:11" ht="24.9" customHeight="1">
       <c r="A339" s="2">
         <v>335</v>
       </c>
@@ -14318,7 +14330,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="24.95" customHeight="1">
+    <row r="340" spans="1:11" ht="24.9" customHeight="1">
       <c r="A340" s="2">
         <v>336</v>
       </c>
@@ -14353,7 +14365,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="24.95" customHeight="1">
+    <row r="341" spans="1:11" ht="24.9" customHeight="1">
       <c r="A341" s="2">
         <v>337</v>
       </c>
@@ -14388,7 +14400,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="24.95" customHeight="1">
+    <row r="342" spans="1:11" ht="24.9" customHeight="1">
       <c r="A342" s="2">
         <v>338</v>
       </c>
@@ -14423,7 +14435,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="24.95" customHeight="1">
+    <row r="343" spans="1:11" ht="24.9" customHeight="1">
       <c r="A343" s="2">
         <v>339</v>
       </c>
@@ -14458,7 +14470,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="24.95" customHeight="1">
+    <row r="344" spans="1:11" ht="24.9" customHeight="1">
       <c r="A344" s="2">
         <v>340</v>
       </c>
@@ -14493,7 +14505,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="24.95" customHeight="1">
+    <row r="345" spans="1:11" ht="24.9" customHeight="1">
       <c r="A345" s="2">
         <v>341</v>
       </c>
@@ -14528,7 +14540,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="24.95" customHeight="1">
+    <row r="346" spans="1:11" ht="24.9" customHeight="1">
       <c r="A346" s="2">
         <v>342</v>
       </c>
@@ -14563,7 +14575,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="24.95" customHeight="1">
+    <row r="347" spans="1:11" ht="24.9" customHeight="1">
       <c r="A347" s="2">
         <v>343</v>
       </c>
@@ -14598,7 +14610,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="24.95" customHeight="1">
+    <row r="348" spans="1:11" ht="24.9" customHeight="1">
       <c r="A348" s="2">
         <v>344</v>
       </c>
@@ -14633,7 +14645,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="24.95" customHeight="1">
+    <row r="349" spans="1:11" ht="24.9" customHeight="1">
       <c r="A349" s="2">
         <v>345</v>
       </c>
@@ -14668,7 +14680,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="24.95" customHeight="1">
+    <row r="350" spans="1:11" ht="24.9" customHeight="1">
       <c r="A350" s="2">
         <v>346</v>
       </c>
@@ -14703,7 +14715,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="24.95" customHeight="1">
+    <row r="351" spans="1:11" ht="24.9" customHeight="1">
       <c r="A351" s="2">
         <v>347</v>
       </c>
@@ -14738,7 +14750,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="24.95" customHeight="1">
+    <row r="352" spans="1:11" ht="24.9" customHeight="1">
       <c r="A352" s="2">
         <v>348</v>
       </c>
@@ -14773,7 +14785,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="24.95" customHeight="1">
+    <row r="353" spans="1:11" ht="24.9" customHeight="1">
       <c r="A353" s="2">
         <v>349</v>
       </c>
@@ -14808,7 +14820,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="24.95" customHeight="1">
+    <row r="354" spans="1:11" ht="24.9" customHeight="1">
       <c r="A354" s="2">
         <v>350</v>
       </c>
@@ -14843,7 +14855,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="24.95" customHeight="1">
+    <row r="355" spans="1:11" ht="24.9" customHeight="1">
       <c r="A355" s="2">
         <v>351</v>
       </c>
@@ -14878,7 +14890,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="24.95" customHeight="1">
+    <row r="356" spans="1:11" ht="24.9" customHeight="1">
       <c r="A356" s="2">
         <v>352</v>
       </c>
@@ -14913,7 +14925,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="24.95" customHeight="1">
+    <row r="357" spans="1:11" ht="24.9" customHeight="1">
       <c r="A357" s="2">
         <v>353</v>
       </c>
@@ -14948,7 +14960,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="24.95" customHeight="1">
+    <row r="358" spans="1:11" ht="24.9" customHeight="1">
       <c r="A358" s="2">
         <v>354</v>
       </c>
@@ -14983,7 +14995,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="24.95" customHeight="1">
+    <row r="359" spans="1:11" ht="24.9" customHeight="1">
       <c r="A359" s="2">
         <v>355</v>
       </c>
@@ -15018,7 +15030,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="24.95" customHeight="1">
+    <row r="360" spans="1:11" ht="24.9" customHeight="1">
       <c r="A360" s="2">
         <v>356</v>
       </c>
@@ -15053,7 +15065,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="24.95" customHeight="1">
+    <row r="361" spans="1:11" ht="24.9" customHeight="1">
       <c r="A361" s="2">
         <v>357</v>
       </c>
@@ -15088,7 +15100,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="24.95" customHeight="1">
+    <row r="362" spans="1:11" ht="24.9" customHeight="1">
       <c r="A362" s="2">
         <v>358</v>
       </c>
@@ -15123,7 +15135,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="24.95" customHeight="1">
+    <row r="363" spans="1:11" ht="24.9" customHeight="1">
       <c r="A363" s="2">
         <v>359</v>
       </c>
@@ -15158,7 +15170,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="24.95" customHeight="1">
+    <row r="364" spans="1:11" ht="24.9" customHeight="1">
       <c r="A364" s="2">
         <v>360</v>
       </c>
@@ -15193,7 +15205,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="24.95" customHeight="1">
+    <row r="365" spans="1:11" ht="24.9" customHeight="1">
       <c r="A365" s="2">
         <v>361</v>
       </c>
@@ -15228,7 +15240,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="24.95" customHeight="1">
+    <row r="366" spans="1:11" ht="24.9" customHeight="1">
       <c r="A366" s="2">
         <v>362</v>
       </c>
@@ -15263,7 +15275,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="24.95" customHeight="1">
+    <row r="367" spans="1:11" ht="24.9" customHeight="1">
       <c r="A367" s="2">
         <v>363</v>
       </c>
@@ -15298,7 +15310,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="24.95" customHeight="1">
+    <row r="368" spans="1:11" ht="24.9" customHeight="1">
       <c r="A368" s="2">
         <v>364</v>
       </c>
@@ -15333,7 +15345,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="24.95" customHeight="1">
+    <row r="369" spans="1:11" ht="24.9" customHeight="1">
       <c r="A369" s="2">
         <v>365</v>
       </c>
@@ -15380,8 +15392,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" location="%E6%A0%91%E4%B8%8E%E4%BA%8C%E5%8F%89%E6%A0%91%E7%AF%87"/>
-    <hyperlink ref="C12" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId1" location="%E6%A0%91%E4%B8%8E%E4%BA%8C%E5%8F%89%E6%A0%91%E7%AF%87" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>

--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\git\algorithm\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B31CFE7-65B0-4124-AD89-D8677226FB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5171FA79-B529-4AC5-A397-B4F9DDABA43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="44">
   <si>
     <t>艾宾浩斯遗忘曲线复习计划表</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1100,6 +1100,101 @@
     <t>考虑新建一个艾斯宾遗忘曲线表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自顶向下</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> DFS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">104. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二叉树的最大深度，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">111. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二叉树的最小深度，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">112. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路径总和</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1885,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3695,22 +3790,24 @@
       <c r="B36" s="4">
         <v>45607</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="D36" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <v>30</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <v>25</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <v>17</v>
       </c>
       <c r="I36" s="7">

--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\git\algorithm\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5171FA79-B529-4AC5-A397-B4F9DDABA43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14A06CB-FDDC-4173-A761-531D9A640F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="45">
   <si>
     <t>艾宾浩斯遗忘曲线复习计划表</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1195,6 +1195,60 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">129. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>求根节点到叶节点数字之和，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">199. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二叉树的右视图，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1448. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计二叉树中好节点的数目</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1981,7 +2035,7 @@
   <dimension ref="A1:K369"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3827,7 +3881,9 @@
       <c r="B37" s="4">
         <v>45608</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="D37" s="7">
         <f t="shared" si="0"/>
         <v>33</v>

--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\git\algorithm\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14A06CB-FDDC-4173-A761-531D9A640F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD44B02-6FB0-46DE-8B8B-A8D9496D7F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,89 +896,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1.10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>综合应用：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1019. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>链表中的下一个更大节点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1171. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从链表中删去总和值为零的连续节点，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">707. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设计链表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">146. LRU </t>
     </r>
     <r>
@@ -1246,6 +1163,107 @@
         <charset val="134"/>
       </rPr>
       <t>统计二叉树中好节点的数目</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋_GB2312"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1.10 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综合应用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1019. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>链表中的下一个更大节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1171. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从链表中删去总和值为零的连续节点，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">707. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计链表</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2035,7 +2053,7 @@
   <dimension ref="A1:K369"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3585,8 +3603,8 @@
       <c r="B29" s="4">
         <v>45600</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>36</v>
+      <c r="C29" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
@@ -3623,7 +3641,7 @@
         <v>45601</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
@@ -3660,7 +3678,7 @@
         <v>45602</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
@@ -3734,7 +3752,7 @@
         <v>45604</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="7">
         <f t="shared" si="0"/>
@@ -3771,7 +3789,7 @@
         <v>45605</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="0"/>
@@ -3808,7 +3826,7 @@
         <v>45606</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="7">
         <f t="shared" si="0"/>
@@ -3845,7 +3863,7 @@
         <v>45607</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="0"/>
@@ -3882,23 +3900,23 @@
         <v>45608</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <v>31</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <v>26</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <v>18</v>
       </c>
       <c r="I37" s="7">
@@ -9274,7 +9292,7 @@
         <v>45762</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D191" s="7">
         <f t="shared" si="4"/>

--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\git\algorithm\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD44B02-6FB0-46DE-8B8B-A8D9496D7F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA18BA66-D8E9-4F77-A9BA-F8154CECC097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="46">
   <si>
     <t>艾宾浩斯遗忘曲线复习计划表</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1267,6 +1267,60 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1457. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二叉树中的伪回文路径，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1315. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>祖父节点值为偶数的节点和，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">988. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从叶结点开始的最小字符串</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2052,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3936,22 +3990,24 @@
       <c r="B38" s="4">
         <v>45609</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="D38" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <v>32</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <v>27</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <v>19</v>
       </c>
       <c r="I38" s="7">

--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\git\algorithm\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA18BA66-D8E9-4F77-A9BA-F8154CECC097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ED196E-1B85-4981-A3EF-339410F153ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="47">
   <si>
     <t>艾宾浩斯遗忘曲线复习计划表</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1321,12 +1321,76 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1026. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节点与其祖先之间的最大差值，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1022. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从根到叶的二进制数之和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">623. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在二叉树中增加一行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1536,6 +1600,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2106,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4027,22 +4098,24 @@
       <c r="B39" s="4">
         <v>45610</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="D39" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>33</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <v>28</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <v>20</v>
       </c>
       <c r="I39" s="7">

--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\git\algorithm\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ED196E-1B85-4981-A3EF-339410F153ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F4215E-73C8-4301-A681-4EB618F73029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="48">
   <si>
     <t>艾宾浩斯遗忘曲线复习计划表</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1385,6 +1385,41 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1372. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">二叉树中的最长交错路径, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">971. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翻转二叉树以匹配先序遍历</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2177,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="D7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4135,22 +4170,24 @@
       <c r="B40" s="4">
         <v>45611</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D40" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <v>34</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <v>29</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <v>21</v>
       </c>
       <c r="I40" s="7">

--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\git\algorithm\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21CD81A-84BE-467D-9782-9A7D634FD347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1485BFB-75B8-426D-9064-4835FC699CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2335,7 +2335,7 @@
       <c r="H15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -2409,7 +2409,7 @@
       <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -3073,7 +3073,7 @@
       <c r="H35" s="8">
         <v>16</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <v>1</v>
       </c>
       <c r="J35" s="9" t="s">

--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\git\algorithm\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1485BFB-75B8-426D-9064-4835FC699CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78318CBA-7AC5-457E-8124-5CF4CEEB324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2555,7 +2555,7 @@
       <c r="H21" s="9">
         <v>2</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="9" t="s">

--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\git\algorithm\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78318CBA-7AC5-457E-8124-5CF4CEEB324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6B631E-4934-4071-A33C-03CE89B6E9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1973,7 +1973,7 @@
       <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="9" t="s">

--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\git\algorithm\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21CD81A-84BE-467D-9782-9A7D634FD347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6B631E-4934-4071-A33C-03CE89B6E9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1973,7 +1973,7 @@
       <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -2335,7 +2335,7 @@
       <c r="H15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -2409,7 +2409,7 @@
       <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -2555,7 +2555,7 @@
       <c r="H21" s="9">
         <v>2</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="9" t="s">
@@ -3073,7 +3073,7 @@
       <c r="H35" s="8">
         <v>16</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <v>1</v>
       </c>
       <c r="J35" s="9" t="s">

--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\git\algorithm\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6B631E-4934-4071-A33C-03CE89B6E9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA3A913-3F61-4AFB-832C-87D04B9B6201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2592,7 +2592,7 @@
       <c r="H22" s="9">
         <v>3</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -3110,7 +3110,7 @@
       <c r="H36" s="8">
         <v>17</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <v>2</v>
       </c>
       <c r="J36" s="9" t="s">

--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\git\algorithm\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA3A913-3F61-4AFB-832C-87D04B9B6201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B15FA-A33A-49EF-A820-D858A55BC44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2629,7 +2629,7 @@
       <c r="H23" s="9">
         <v>4</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="9" t="s">

--- a/src/main/resources/Ebbinghaus.xlsx
+++ b/src/main/resources/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\git\algorithm\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B15FA-A33A-49EF-A820-D858A55BC44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666C05CA-F16E-4AAB-9061-272BB7B0F656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3147,7 +3147,7 @@
       <c r="H37" s="8">
         <v>18</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <v>3</v>
       </c>
       <c r="J37" s="9" t="s">
